--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Центр\Прайсы\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF6EC3-6D58-4713-9BD1-7AADC079225C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="654"/>
   </bookViews>
   <sheets>
     <sheet name="Лари" sheetId="9" r:id="rId1"/>
     <sheet name="Бонеты" sheetId="15" r:id="rId2"/>
     <sheet name="Снеж компл-е" sheetId="10" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="190">
   <si>
     <t>Наименование</t>
   </si>
@@ -2178,11 +2172,14 @@
 Корпус металл: белый.
 </t>
   </si>
+  <si>
+    <t>4%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -2743,7 +2740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2849,6 +2846,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3558,7 +3567,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3875,9 +3884,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3887,17 +3893,11 @@
     <xf numFmtId="4" fontId="35" fillId="0" borderId="38" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="35" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="56" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="35" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3968,9 +3968,6 @@
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4117,6 +4114,27 @@
     <xf numFmtId="3" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="35" fillId="19" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="20" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4188,7 +4206,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Акцент1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="3" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="4" builtinId="37" customBuiltin="1"/>
@@ -4208,10 +4226,10 @@
     <cellStyle name="Название" xfId="18" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29" xr:uid="{6FCD1B65-0F80-4AB2-890D-D155893417CB}"/>
-    <cellStyle name="Обычный_Балки БТ50" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30" xr:uid="{90D43BDC-AC2A-4C42-AA4E-F2595C977C68}"/>
+    <cellStyle name="Обычный 2" xfId="20"/>
+    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29"/>
+    <cellStyle name="Обычный_Балки БТ50" xfId="28"/>
+    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30"/>
     <cellStyle name="Плохой" xfId="21" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="23" builtinId="10" customBuiltin="1"/>
@@ -4325,7 +4343,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,7 +4393,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4425,7 +4443,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4493,7 @@
         <xdr:cNvPr id="67" name="Рисунок 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4543,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4575,7 +4593,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4625,7 +4643,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4675,7 +4693,7 @@
         <xdr:cNvPr id="72" name="Рисунок 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,7 +4743,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4793,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,7 +4843,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4875,7 +4893,7 @@
         <xdr:cNvPr id="73" name="Рисунок 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4925,7 +4943,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +4993,7 @@
         <xdr:cNvPr id="74" name="Рисунок 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,7 +5043,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5075,7 +5093,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,7 +5143,7 @@
         <xdr:cNvPr id="76" name="Рисунок 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5175,7 +5193,7 @@
         <xdr:cNvPr id="78" name="Рисунок 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5225,7 +5243,7 @@
         <xdr:cNvPr id="79" name="Рисунок 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5275,7 +5293,7 @@
         <xdr:cNvPr id="81" name="Рисунок 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5325,7 +5343,7 @@
         <xdr:cNvPr id="82" name="Рисунок 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5375,7 +5393,7 @@
         <xdr:cNvPr id="83" name="Рисунок 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5425,7 +5443,7 @@
         <xdr:cNvPr id="86" name="Рисунок 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,7 +5493,7 @@
         <xdr:cNvPr id="88" name="Рисунок 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5525,7 +5543,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5575,7 +5593,7 @@
         <xdr:cNvPr id="91" name="Рисунок 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5625,7 +5643,7 @@
         <xdr:cNvPr id="93" name="Рисунок 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5675,7 +5693,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5725,7 +5743,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5775,7 +5793,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5825,7 +5843,7 @@
         <xdr:cNvPr id="100" name="Рисунок 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5875,7 +5893,7 @@
         <xdr:cNvPr id="101" name="Рисунок 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5925,7 +5943,7 @@
         <xdr:cNvPr id="102" name="Рисунок 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5975,7 +5993,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6025,7 +6043,7 @@
         <xdr:cNvPr id="106" name="Рисунок 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6075,7 +6093,7 @@
         <xdr:cNvPr id="107" name="Рисунок 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6125,7 +6143,7 @@
         <xdr:cNvPr id="109" name="Рисунок 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6175,7 +6193,7 @@
         <xdr:cNvPr id="110" name="Рисунок 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6225,7 +6243,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6275,7 +6293,7 @@
         <xdr:cNvPr id="113" name="Рисунок 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6325,7 +6343,7 @@
         <xdr:cNvPr id="114" name="Рисунок 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,7 +6393,7 @@
         <xdr:cNvPr id="44" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6454,7 +6472,7 @@
         <xdr:cNvPr id="2" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6528,7 +6546,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6578,7 +6596,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6628,7 +6646,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6678,7 +6696,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6728,7 +6746,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6778,7 +6796,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6828,7 +6846,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6878,7 +6896,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6928,7 +6946,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6978,7 +6996,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7028,7 +7046,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7078,7 +7096,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7128,7 +7146,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7178,7 +7196,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7228,7 +7246,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7278,7 +7296,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7346,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7383,7 +7401,7 @@
         <xdr:cNvPr id="18" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7457,7 +7475,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7518,7 @@
         <xdr:cNvPr id="90" name="Рисунок 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7544,7 +7562,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7588,7 +7606,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7632,7 +7650,7 @@
         <xdr:cNvPr id="97" name="Рисунок 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7675,7 +7693,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7718,7 +7736,7 @@
         <xdr:cNvPr id="99" name="Рисунок 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7762,7 +7780,7 @@
         <xdr:cNvPr id="100" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7836,7 +7854,7 @@
         <xdr:cNvPr id="101" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7910,7 +7928,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7954,7 +7972,7 @@
         <xdr:cNvPr id="105" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8029,7 +8047,7 @@
 Ð¾Ð»Ð¾Ð´&quot; Ð² Ð¡Ð°Ð¼Ð°ÑÐµ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8088,7 +8106,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8132,7 +8150,7 @@
         <xdr:cNvPr id="116" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8206,7 +8224,7 @@
         <xdr:cNvPr id="119" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8280,7 +8298,7 @@
         <xdr:cNvPr id="121" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8354,7 +8372,7 @@
         <xdr:cNvPr id="136" name="Рисунок 135" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÑÑÑÐºÐ° ÐÐÐ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8413,7 +8431,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8457,7 +8475,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8857,15 +8875,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8874,7 +8892,7 @@
     <col min="2" max="2" width="29.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="21" customWidth="1"/>
     <col min="4" max="4" width="53.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="199" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="195" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="37" customWidth="1"/>
@@ -8899,21 +8917,21 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="198"/>
+      <c r="F1" s="194"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
@@ -8922,8 +8940,8 @@
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="177"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -8935,1669 +8953,1812 @@
       </c>
       <c r="G3" s="27">
         <f>G56+Бонеты!H28</f>
-        <v>0</v>
+        <v>2992182289714.7993</v>
       </c>
       <c r="H3" s="38">
         <f>H56+Бонеты!I28</f>
-        <v>0</v>
+        <v>58850950355405.609</v>
       </c>
       <c r="I3" s="38">
         <f>I56+Бонеты!J28</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="176"/>
-      <c r="O3" s="178"/>
+        <v>706996511.51999998</v>
+      </c>
+      <c r="N3" s="172"/>
+      <c r="O3" s="174"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
       <c r="D4" s="116"/>
-      <c r="E4" s="205"/>
+      <c r="E4" s="201"/>
       <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="33">
         <f>G56</f>
-        <v>0</v>
+        <v>2992182289714.7993</v>
       </c>
       <c r="H4" s="39">
         <f>H56</f>
-        <v>0</v>
+        <v>58850950355405.609</v>
       </c>
       <c r="I4" s="39">
         <f>I56</f>
-        <v>0</v>
+        <v>706996511.51999998</v>
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="4"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="179"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="175"/>
     </row>
     <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="200" t="s">
+      <c r="E5" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="147" t="s">
+      <c r="J5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="148" t="s">
+      <c r="K5" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="180"/>
-      <c r="O5" s="177"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="173"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="209" t="s">
+        <v>189</v>
+      </c>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
       <c r="I6" s="124"/>
       <c r="J6" s="124"/>
-      <c r="K6" s="149"/>
+      <c r="K6" s="146"/>
       <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="150">
+      <c r="A7" s="147">
         <v>1</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="188" t="s">
+      <c r="B7" s="210"/>
+      <c r="C7" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="184" t="s">
+      <c r="D7" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="206">
+      <c r="E7" s="213">
         <v>199927</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="127">
+      <c r="F7" s="214">
+        <f>E7-E7*4%</f>
+        <v>191929.92</v>
+      </c>
+      <c r="G7" s="126">
         <f>E7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="128">
+        <v>38371973115.840004</v>
+      </c>
+      <c r="H7" s="127">
         <f>J7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="128">
+        <v>77386.143744000001</v>
+      </c>
+      <c r="I7" s="127">
         <f>K7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="129">
+        <v>9212636.1600000001</v>
+      </c>
+      <c r="J7" s="128">
         <f>0.84*0.6*0.8</f>
         <v>0.4032</v>
       </c>
-      <c r="K7" s="151">
+      <c r="K7" s="148">
         <v>48</v>
       </c>
       <c r="L7" s="22"/>
       <c r="N7" s="65"/>
     </row>
     <row r="8" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="150">
+      <c r="A8" s="147">
         <v>2</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="188" t="s">
+      <c r="B8" s="210"/>
+      <c r="C8" s="211" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="184" t="s">
+      <c r="D8" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="206">
+      <c r="E8" s="213">
         <v>218712</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127">
+      <c r="F8" s="214">
+        <f>E8-E8*4%</f>
+        <v>209963.51999999999</v>
+      </c>
+      <c r="G8" s="126">
         <f t="shared" ref="G8:G37" si="0">E8*F8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="128">
+        <v>45921541386.239998</v>
+      </c>
+      <c r="H8" s="127">
         <f t="shared" ref="H8:H30" si="1">J8*F8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="128">
+        <v>123458.54975999998</v>
+      </c>
+      <c r="I8" s="127">
         <f t="shared" ref="I8:I30" si="2">K8*F8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="129">
+        <v>14067555.84</v>
+      </c>
+      <c r="J8" s="128">
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K8" s="151">
+      <c r="K8" s="148">
         <v>67</v>
       </c>
       <c r="L8" s="22"/>
       <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="150">
+      <c r="A9" s="147">
         <v>3</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="188" t="s">
+      <c r="B9" s="210"/>
+      <c r="C9" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="184" t="s">
+      <c r="D9" s="212" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="206">
+      <c r="E9" s="213">
         <v>243067.5</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="127">
+      <c r="F9" s="214">
+        <f t="shared" ref="F9:F53" si="3">E9-E9*4%</f>
+        <v>233344.8</v>
+      </c>
+      <c r="G9" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="128">
+        <v>56718537174</v>
+      </c>
+      <c r="H9" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="128">
+        <v>164648.09087999997</v>
+      </c>
+      <c r="I9" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="129">
+        <v>14467377.6</v>
+      </c>
+      <c r="J9" s="128">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="148">
         <v>62</v>
       </c>
       <c r="L9" s="22"/>
       <c r="N9" s="59"/>
     </row>
     <row r="10" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="150">
+      <c r="A10" s="147">
         <v>4</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="188" t="s">
+      <c r="B10" s="210"/>
+      <c r="C10" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="184" t="s">
+      <c r="D10" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="206">
+      <c r="E10" s="213">
         <v>266545.5</v>
       </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="127">
+      <c r="F10" s="214">
+        <f t="shared" si="3"/>
+        <v>255883.68</v>
+      </c>
+      <c r="G10" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="128">
+        <v>68204643427.439995</v>
+      </c>
+      <c r="H10" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="128">
+        <v>210643.44537599999</v>
+      </c>
+      <c r="I10" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="129">
+        <v>17911857.599999998</v>
+      </c>
+      <c r="J10" s="128">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K10" s="151">
+      <c r="K10" s="148">
         <v>70</v>
       </c>
       <c r="L10" s="22"/>
       <c r="N10" s="65"/>
     </row>
     <row r="11" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="150">
+      <c r="A11" s="147">
         <v>5</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="188" t="s">
+      <c r="B11" s="210"/>
+      <c r="C11" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="184" t="s">
+      <c r="D11" s="212" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="206">
+      <c r="E11" s="213">
         <v>293949.5</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127">
+      <c r="F11" s="214">
+        <f t="shared" si="3"/>
+        <v>282191.52</v>
+      </c>
+      <c r="G11" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="128">
+        <v>82950056208.240005</v>
+      </c>
+      <c r="H11" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="128">
+        <v>265485.78201600001</v>
+      </c>
+      <c r="I11" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="129">
+        <v>21164364</v>
+      </c>
+      <c r="J11" s="128">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="148">
         <v>75</v>
       </c>
       <c r="L11" s="22"/>
       <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="150">
+      <c r="A12" s="147">
         <v>6</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="188" t="s">
+      <c r="B12" s="210"/>
+      <c r="C12" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="206">
+      <c r="E12" s="213">
         <v>332793.5</v>
       </c>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127">
+      <c r="F12" s="214">
+        <f t="shared" si="3"/>
+        <v>319481.76</v>
+      </c>
+      <c r="G12" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="128">
+        <v>106321453096.56</v>
+      </c>
+      <c r="H12" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="128">
+        <v>289833.85267200001</v>
+      </c>
+      <c r="I12" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="129">
+        <v>27475431.359999999</v>
+      </c>
+      <c r="J12" s="128">
         <f>0.84*0.6*1.8</f>
         <v>0.90720000000000001</v>
       </c>
-      <c r="K12" s="151">
+      <c r="K12" s="148">
         <v>86</v>
       </c>
       <c r="L12" s="22"/>
       <c r="N12" s="59"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="216" t="s">
+      <c r="A13" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="129"/>
       <c r="H13" s="124"/>
       <c r="I13" s="124"/>
       <c r="J13" s="124"/>
-      <c r="K13" s="149"/>
+      <c r="K13" s="146"/>
       <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="150">
+      <c r="A14" s="147">
         <v>7</v>
       </c>
-      <c r="B14" s="185"/>
-      <c r="C14" s="195" t="s">
+      <c r="B14" s="181"/>
+      <c r="C14" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="181" t="s">
+      <c r="D14" s="177" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="206">
+      <c r="E14" s="202">
         <v>164521.5</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127">
+      <c r="F14" s="208">
+        <f t="shared" si="3"/>
+        <v>157940.64000000001</v>
+      </c>
+      <c r="G14" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="128">
+        <v>25984631003.760002</v>
+      </c>
+      <c r="H14" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="128">
+        <v>65008.367424000004</v>
+      </c>
+      <c r="I14" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="129">
+        <v>6791447.5200000005</v>
+      </c>
+      <c r="J14" s="128">
         <f>0.84*0.7*0.7</f>
         <v>0.41159999999999997</v>
       </c>
-      <c r="K14" s="151">
+      <c r="K14" s="148">
         <v>43</v>
       </c>
       <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="150">
+      <c r="A15" s="147">
         <v>8</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="195" t="s">
+      <c r="B15" s="181"/>
+      <c r="C15" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="181" t="s">
+      <c r="D15" s="177" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="206">
+      <c r="E15" s="202">
         <v>174460</v>
       </c>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127">
+      <c r="F15" s="208">
+        <f t="shared" si="3"/>
+        <v>167481.60000000001</v>
+      </c>
+      <c r="G15" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="128">
+        <v>29218839936</v>
+      </c>
+      <c r="H15" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="128">
+        <v>78783.344639999996</v>
+      </c>
+      <c r="I15" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="129">
+        <v>7536672</v>
+      </c>
+      <c r="J15" s="128">
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K15" s="151">
+      <c r="K15" s="148">
         <v>45</v>
       </c>
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="150">
+      <c r="A16" s="147">
         <v>9</v>
       </c>
-      <c r="B16" s="185"/>
-      <c r="C16" s="196" t="s">
+      <c r="B16" s="181"/>
+      <c r="C16" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="181" t="s">
+      <c r="D16" s="177" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="206">
+      <c r="E16" s="202">
         <v>192010</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127">
+      <c r="F16" s="208">
+        <f t="shared" si="3"/>
+        <v>184329.60000000001</v>
+      </c>
+      <c r="G16" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="128">
+        <v>35393126496</v>
+      </c>
+      <c r="H16" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="128">
+        <v>86708.643840000004</v>
+      </c>
+      <c r="I16" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="129">
+        <v>8847820.8000000007</v>
+      </c>
+      <c r="J16" s="128">
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K16" s="151">
+      <c r="K16" s="148">
         <v>48</v>
       </c>
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="150">
+      <c r="A17" s="147">
         <v>10</v>
       </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="196" t="s">
+      <c r="B17" s="181"/>
+      <c r="C17" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="177" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="206">
+      <c r="E17" s="202">
         <v>210086.5</v>
       </c>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127">
+      <c r="F17" s="208">
+        <f t="shared" si="3"/>
+        <v>201683.04</v>
+      </c>
+      <c r="G17" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="128">
+        <v>42370883982.959999</v>
+      </c>
+      <c r="H17" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="128">
+        <v>118589.62751999999</v>
+      </c>
+      <c r="I17" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="129">
+        <v>10689201.120000001</v>
+      </c>
+      <c r="J17" s="128">
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K17" s="151">
+      <c r="K17" s="148">
         <v>53</v>
       </c>
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="150">
+      <c r="A18" s="147">
         <v>11</v>
       </c>
-      <c r="B18" s="185"/>
-      <c r="C18" s="196" t="s">
+      <c r="B18" s="181"/>
+      <c r="C18" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="177" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="206">
+      <c r="E18" s="202">
         <v>233369.5</v>
       </c>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127">
+      <c r="F18" s="208">
+        <f t="shared" si="3"/>
+        <v>224034.72</v>
+      </c>
+      <c r="G18" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="128">
+        <v>52282870589.040001</v>
+      </c>
+      <c r="H18" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="128">
+        <v>158078.89843199999</v>
+      </c>
+      <c r="I18" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="129">
+        <v>12994013.76</v>
+      </c>
+      <c r="J18" s="128">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K18" s="151">
+      <c r="K18" s="148">
         <v>58</v>
       </c>
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="150"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="196" t="s">
+      <c r="A19" s="147"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="206">
+      <c r="E19" s="202">
         <v>255989.5</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="127">
+      <c r="F19" s="208">
+        <f t="shared" si="3"/>
+        <v>245749.92</v>
+      </c>
+      <c r="G19" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="128">
+        <v>62909399145.840004</v>
+      </c>
+      <c r="H19" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="128">
+        <v>202301.33414399999</v>
+      </c>
+      <c r="I19" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="193">
+        <v>15482244.960000001</v>
+      </c>
+      <c r="J19" s="189">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K19" s="151">
+      <c r="K19" s="148">
         <v>63</v>
       </c>
       <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="150"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="196" t="s">
+      <c r="A20" s="147"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="181" t="s">
+      <c r="D20" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="206">
+      <c r="E20" s="202">
         <v>282314.5</v>
       </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="127">
+      <c r="F20" s="208">
+        <f t="shared" si="3"/>
+        <v>271021.92</v>
+      </c>
+      <c r="G20" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="128">
+        <v>76513417833.839996</v>
+      </c>
+      <c r="H20" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="128">
+        <v>254977.42233599999</v>
+      </c>
+      <c r="I20" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="129">
+        <v>18429490.559999999</v>
+      </c>
+      <c r="J20" s="128">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K20" s="151">
+      <c r="K20" s="148">
         <v>68</v>
       </c>
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="150"/>
-      <c r="B21" s="185"/>
-      <c r="C21" s="195" t="s">
+      <c r="A21" s="147"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="206">
+      <c r="E21" s="202">
         <v>319631</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127">
+      <c r="F21" s="208">
+        <f t="shared" si="3"/>
+        <v>306845.76</v>
+      </c>
+      <c r="G21" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="128">
+        <v>98077417114.559998</v>
+      </c>
+      <c r="H21" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="128">
+        <v>324765.55238400004</v>
+      </c>
+      <c r="I21" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="129">
+        <v>22399740.48</v>
+      </c>
+      <c r="J21" s="128">
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K21" s="151">
+      <c r="K21" s="148">
         <v>73</v>
       </c>
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="150">
+      <c r="A22" s="147">
         <v>12</v>
       </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="195" t="s">
+      <c r="B22" s="181"/>
+      <c r="C22" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="206">
+      <c r="E22" s="202">
         <v>361114</v>
       </c>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127">
+      <c r="F22" s="208">
+        <f t="shared" si="3"/>
+        <v>346669.44</v>
+      </c>
+      <c r="G22" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="128">
+        <v>125187188156.16</v>
+      </c>
+      <c r="H22" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="128">
+        <v>407683.26143999997</v>
+      </c>
+      <c r="I22" s="127">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="129">
+        <v>27040216.32</v>
+      </c>
+      <c r="J22" s="128">
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K22" s="151">
+      <c r="K22" s="148">
         <v>78</v>
       </c>
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="182" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="124"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="131"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="129"/>
       <c r="H23" s="124"/>
       <c r="I23" s="124"/>
       <c r="J23" s="124"/>
-      <c r="K23" s="149"/>
+      <c r="K23" s="146"/>
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="153"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="131"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="150"/>
       <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="150">
+      <c r="A25" s="147">
         <v>13</v>
       </c>
-      <c r="B25" s="185"/>
-      <c r="C25" s="195" t="s">
+      <c r="B25" s="181"/>
+      <c r="C25" s="191" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="177" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="206">
+      <c r="E25" s="202">
         <v>213544.5</v>
       </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127">
+      <c r="F25" s="208">
+        <f t="shared" si="3"/>
+        <v>205002.72</v>
+      </c>
+      <c r="G25" s="126">
+        <f t="shared" si="0"/>
+        <v>43777203341.040001</v>
+      </c>
+      <c r="H25" s="127">
+        <f t="shared" si="1"/>
+        <v>98729.309952000011</v>
+      </c>
+      <c r="I25" s="127">
+        <f t="shared" si="2"/>
+        <v>9840130.5600000005</v>
+      </c>
+      <c r="J25" s="128">
+        <f>0.86*0.7*0.8</f>
+        <v>0.48160000000000003</v>
+      </c>
+      <c r="K25" s="148">
+        <v>48</v>
+      </c>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="147">
+        <v>14</v>
+      </c>
+      <c r="B26" s="181"/>
+      <c r="C26" s="191" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="177" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="202">
+        <v>229099</v>
+      </c>
+      <c r="F26" s="208">
+        <f t="shared" si="3"/>
+        <v>219935.04</v>
+      </c>
+      <c r="G26" s="126">
+        <f t="shared" si="0"/>
+        <v>50386897728.959999</v>
+      </c>
+      <c r="H26" s="127">
+        <f t="shared" si="1"/>
+        <v>132400.89408</v>
+      </c>
+      <c r="I26" s="127">
+        <f t="shared" si="2"/>
+        <v>12096427.200000001</v>
+      </c>
+      <c r="J26" s="128">
+        <f>0.86*0.7*1</f>
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K26" s="148">
+        <v>55</v>
+      </c>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="147">
+        <v>15</v>
+      </c>
+      <c r="B27" s="181"/>
+      <c r="C27" s="192" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="202">
+        <v>253942</v>
+      </c>
+      <c r="F27" s="208">
+        <f t="shared" si="3"/>
+        <v>243784.32000000001</v>
+      </c>
+      <c r="G27" s="126">
+        <f t="shared" si="0"/>
+        <v>61907077789.440002</v>
+      </c>
+      <c r="H27" s="127">
+        <f t="shared" si="1"/>
+        <v>176109.79276799998</v>
+      </c>
+      <c r="I27" s="127">
+        <f t="shared" si="2"/>
+        <v>15358412.16</v>
+      </c>
+      <c r="J27" s="128">
+        <f>0.86*0.7*1.2</f>
+        <v>0.72239999999999993</v>
+      </c>
+      <c r="K27" s="148">
+        <v>63</v>
+      </c>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="147">
+        <v>16</v>
+      </c>
+      <c r="B28" s="181"/>
+      <c r="C28" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="177" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="202">
+        <v>279909.5</v>
+      </c>
+      <c r="F28" s="208">
+        <f t="shared" si="3"/>
+        <v>268713.12</v>
+      </c>
+      <c r="G28" s="126">
+        <f t="shared" si="0"/>
+        <v>75215355062.639999</v>
+      </c>
+      <c r="H28" s="127">
+        <f t="shared" si="1"/>
+        <v>226471.41753599996</v>
+      </c>
+      <c r="I28" s="127">
+        <f t="shared" si="2"/>
+        <v>19078631.52</v>
+      </c>
+      <c r="J28" s="128">
+        <f>0.86*0.7*1.4</f>
+        <v>0.84279999999999988</v>
+      </c>
+      <c r="K28" s="148">
+        <v>71</v>
+      </c>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="147">
+        <v>17</v>
+      </c>
+      <c r="B29" s="181"/>
+      <c r="C29" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="177" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="202">
+        <v>318753.5</v>
+      </c>
+      <c r="F29" s="208">
+        <f t="shared" si="3"/>
+        <v>306003.36</v>
+      </c>
+      <c r="G29" s="126">
+        <f t="shared" si="0"/>
+        <v>97539642011.759995</v>
+      </c>
+      <c r="H29" s="127">
+        <f t="shared" si="1"/>
+        <v>294742.43635199999</v>
+      </c>
+      <c r="I29" s="127">
+        <f t="shared" si="2"/>
+        <v>22950252</v>
+      </c>
+      <c r="J29" s="128">
+        <f>0.86*0.7*1.6</f>
+        <v>0.96320000000000006</v>
+      </c>
+      <c r="K29" s="148">
+        <v>75</v>
+      </c>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="147">
+        <v>18</v>
+      </c>
+      <c r="B30" s="181"/>
+      <c r="C30" s="191" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="177" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="202">
+        <v>344025.5</v>
+      </c>
+      <c r="F30" s="208">
+        <f t="shared" si="3"/>
+        <v>330264.48</v>
+      </c>
+      <c r="G30" s="126">
+        <f t="shared" si="0"/>
+        <v>113619402864.23999</v>
+      </c>
+      <c r="H30" s="127">
+        <f t="shared" si="1"/>
+        <v>357874.59052799997</v>
+      </c>
+      <c r="I30" s="127">
+        <f t="shared" si="2"/>
+        <v>28402745.279999997</v>
+      </c>
+      <c r="J30" s="128">
+        <f>0.86*0.7*1.8</f>
+        <v>1.0835999999999999</v>
+      </c>
+      <c r="K30" s="148">
+        <v>86</v>
+      </c>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="129">
-        <f>0.86*0.7*0.8</f>
-        <v>0.48160000000000003</v>
-      </c>
-      <c r="K25" s="151">
-        <v>48</v>
-      </c>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="150">
-        <v>14</v>
-      </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="195" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="181" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="206">
-        <v>229099</v>
-      </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="127">
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="147">
+        <v>20</v>
+      </c>
+      <c r="B32" s="181"/>
+      <c r="C32" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="202">
+        <v>221045.5</v>
+      </c>
+      <c r="F32" s="208">
+        <f t="shared" si="3"/>
+        <v>212203.68</v>
+      </c>
+      <c r="G32" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="129">
-        <f>0.86*0.7*1</f>
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="K26" s="151">
-        <v>55</v>
-      </c>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="150">
-        <v>15</v>
-      </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="196" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="181" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="206">
-        <v>253942</v>
-      </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="127">
+        <v>46906668547.439995</v>
+      </c>
+      <c r="H32" s="127">
+        <f t="shared" ref="H32:H37" si="4">J32*F32</f>
+        <v>103474.7584416</v>
+      </c>
+      <c r="I32" s="127">
+        <f t="shared" ref="I32:I37" si="5">K32*F32</f>
+        <v>11034591.359999999</v>
+      </c>
+      <c r="J32" s="128">
+        <f>0.86*0.7*0.81</f>
+        <v>0.48762</v>
+      </c>
+      <c r="K32" s="148">
+        <v>52</v>
+      </c>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="147">
+        <v>21</v>
+      </c>
+      <c r="B33" s="181"/>
+      <c r="C33" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="177" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="202">
+        <v>255320</v>
+      </c>
+      <c r="F33" s="208">
+        <f t="shared" si="3"/>
+        <v>245107.20000000001</v>
+      </c>
+      <c r="G33" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="129">
-        <f>0.86*0.7*1.2</f>
-        <v>0.72239999999999993</v>
-      </c>
-      <c r="K27" s="151">
-        <v>63</v>
-      </c>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="150">
-        <v>16</v>
-      </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="195" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="181" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="206">
-        <v>279909.5</v>
-      </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127">
+        <v>62580770304</v>
+      </c>
+      <c r="H33" s="127">
+        <f t="shared" si="4"/>
+        <v>162309.98784000002</v>
+      </c>
+      <c r="I33" s="127">
+        <f t="shared" si="5"/>
+        <v>14216217.600000001</v>
+      </c>
+      <c r="J33" s="128">
+        <f>0.86*0.7*1.1</f>
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="K33" s="148">
+        <v>58</v>
+      </c>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="147">
+        <v>22</v>
+      </c>
+      <c r="B34" s="181"/>
+      <c r="C34" s="191" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="177" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="202">
+        <v>283946</v>
+      </c>
+      <c r="F34" s="208">
+        <f t="shared" si="3"/>
+        <v>272588.15999999997</v>
+      </c>
+      <c r="G34" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="129">
+        <v>77400317679.359985</v>
+      </c>
+      <c r="H34" s="127">
+        <f t="shared" si="4"/>
+        <v>213327.49401599998</v>
+      </c>
+      <c r="I34" s="127">
+        <f t="shared" si="5"/>
+        <v>17718230.399999999</v>
+      </c>
+      <c r="J34" s="128">
+        <f>0.86*0.7*1.3</f>
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="K34" s="148">
+        <v>65</v>
+      </c>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="147">
+        <v>23</v>
+      </c>
+      <c r="B35" s="181"/>
+      <c r="C35" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="177" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="202">
+        <v>312403</v>
+      </c>
+      <c r="F35" s="208">
+        <f t="shared" si="3"/>
+        <v>299906.88</v>
+      </c>
+      <c r="G35" s="126">
+        <f t="shared" si="0"/>
+        <v>93691809032.639999</v>
+      </c>
+      <c r="H35" s="127">
+        <f t="shared" si="4"/>
+        <v>252761.51846399996</v>
+      </c>
+      <c r="I35" s="127">
+        <f t="shared" si="5"/>
+        <v>21893202.240000002</v>
+      </c>
+      <c r="J35" s="128">
         <f>0.86*0.7*1.4</f>
         <v>0.84279999999999988</v>
       </c>
-      <c r="K28" s="151">
-        <v>71</v>
-      </c>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="150">
-        <v>17</v>
-      </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="195" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="181" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="206">
-        <v>318753.5</v>
-      </c>
-      <c r="F29" s="126"/>
-      <c r="G29" s="127">
+      <c r="K35" s="148">
+        <v>73</v>
+      </c>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="147">
+        <v>24</v>
+      </c>
+      <c r="B36" s="181"/>
+      <c r="C36" s="191" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="177" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="202">
+        <v>340619.5</v>
+      </c>
+      <c r="F36" s="208">
+        <f t="shared" si="3"/>
+        <v>326994.71999999997</v>
+      </c>
+      <c r="G36" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="129">
+        <v>111380778029.03999</v>
+      </c>
+      <c r="H36" s="127">
+        <f t="shared" si="4"/>
+        <v>314961.314304</v>
+      </c>
+      <c r="I36" s="127">
+        <f t="shared" si="5"/>
+        <v>26159577.599999998</v>
+      </c>
+      <c r="J36" s="128">
         <f>0.86*0.7*1.6</f>
         <v>0.96320000000000006</v>
       </c>
-      <c r="K29" s="151">
-        <v>75</v>
-      </c>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="150">
-        <v>18</v>
-      </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="195" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="181" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="206">
-        <v>344025.5</v>
-      </c>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127">
+      <c r="K36" s="148">
+        <v>80</v>
+      </c>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="147">
+        <v>25</v>
+      </c>
+      <c r="B37" s="181"/>
+      <c r="C37" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="177" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="202">
+        <v>386210.5</v>
+      </c>
+      <c r="F37" s="208">
+        <f t="shared" si="3"/>
+        <v>370762.08</v>
+      </c>
+      <c r="G37" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="129">
+        <v>143192208297.84</v>
+      </c>
+      <c r="H37" s="127">
+        <f t="shared" si="4"/>
+        <v>401757.789888</v>
+      </c>
+      <c r="I37" s="127">
+        <f t="shared" si="5"/>
+        <v>32256300.960000001</v>
+      </c>
+      <c r="J37" s="128">
         <f>0.86*0.7*1.8</f>
         <v>1.0835999999999999</v>
       </c>
-      <c r="K30" s="151">
-        <v>86</v>
-      </c>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="150">
-        <v>20</v>
-      </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="195" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="181" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="206">
-        <v>221045.5</v>
-      </c>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="128">
-        <f t="shared" ref="H32:H37" si="3">J32*F32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="128">
-        <f t="shared" ref="I32:I37" si="4">K32*F32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="129">
-        <f>0.86*0.7*0.81</f>
-        <v>0.48762</v>
-      </c>
-      <c r="K32" s="151">
-        <v>52</v>
-      </c>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="150">
-        <v>21</v>
-      </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="196" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="181" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="206">
-        <v>255320</v>
-      </c>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="128">
+      <c r="K37" s="148">
+        <v>87</v>
+      </c>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="129">
-        <f>0.86*0.7*1.1</f>
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="K33" s="151">
-        <v>58</v>
-      </c>
-      <c r="L33" s="22"/>
-    </row>
-    <row r="34" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="150">
-        <v>22</v>
-      </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="195" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="181" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="206">
-        <v>283946</v>
-      </c>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="128">
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="147">
+        <v>26</v>
+      </c>
+      <c r="B39" s="133"/>
+      <c r="C39" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="202">
+        <v>169708.5</v>
+      </c>
+      <c r="F39" s="208">
+        <f t="shared" si="3"/>
+        <v>162920.16</v>
+      </c>
+      <c r="G39" s="126">
+        <f>F39*E39</f>
+        <v>27648935973.360001</v>
+      </c>
+      <c r="H39" s="127">
+        <f>F39*I39</f>
+        <v>1061719141377.024</v>
+      </c>
+      <c r="I39" s="127">
+        <f>F39*K39</f>
+        <v>6516806.4000000004</v>
+      </c>
+      <c r="J39" s="128">
+        <f>0.84*0.7*0.6</f>
+        <v>0.35279999999999995</v>
+      </c>
+      <c r="K39" s="148">
+        <v>40</v>
+      </c>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="147">
+        <v>27</v>
+      </c>
+      <c r="B40" s="133"/>
+      <c r="C40" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="178" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="202">
+        <v>179965.5</v>
+      </c>
+      <c r="F40" s="208">
+        <f t="shared" si="3"/>
+        <v>172766.88</v>
+      </c>
+      <c r="G40" s="126">
+        <f t="shared" ref="G40:G53" si="6">F40*E40</f>
+        <v>31092077942.639999</v>
+      </c>
+      <c r="H40" s="127">
+        <f t="shared" ref="H40:H47" si="7">F40*I40</f>
+        <v>1253632582647.2449</v>
+      </c>
+      <c r="I40" s="127">
+        <f t="shared" ref="I40:I47" si="8">F40*K40</f>
+        <v>7256208.96</v>
+      </c>
+      <c r="J40" s="128">
+        <f>0.84*0.7*0.7</f>
+        <v>0.41159999999999997</v>
+      </c>
+      <c r="K40" s="148">
+        <v>42</v>
+      </c>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="147">
+        <v>28</v>
+      </c>
+      <c r="B41" s="133"/>
+      <c r="C41" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="178" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="202">
+        <v>198061.5</v>
+      </c>
+      <c r="F41" s="208">
+        <f t="shared" si="3"/>
+        <v>190139.04</v>
+      </c>
+      <c r="G41" s="126">
+        <f t="shared" si="6"/>
+        <v>37659223470.959999</v>
+      </c>
+      <c r="H41" s="127">
+        <f t="shared" si="7"/>
+        <v>1663031308477.5937</v>
+      </c>
+      <c r="I41" s="127">
+        <f t="shared" si="8"/>
+        <v>8746395.8399999999</v>
+      </c>
+      <c r="J41" s="128">
+        <f>0.84*0.7*0.8</f>
+        <v>0.47039999999999998</v>
+      </c>
+      <c r="K41" s="148">
+        <v>46</v>
+      </c>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="147">
+        <v>29</v>
+      </c>
+      <c r="B42" s="133"/>
+      <c r="C42" s="191" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="202">
+        <v>216710</v>
+      </c>
+      <c r="F42" s="208">
+        <f t="shared" si="3"/>
+        <v>208041.60000000001</v>
+      </c>
+      <c r="G42" s="126">
+        <f t="shared" si="6"/>
+        <v>45084695136</v>
+      </c>
+      <c r="H42" s="127">
+        <f t="shared" si="7"/>
+        <v>2293909288519.6802</v>
+      </c>
+      <c r="I42" s="127">
+        <f t="shared" si="8"/>
+        <v>11026204.800000001</v>
+      </c>
+      <c r="J42" s="128">
+        <f>0.84*0.7*1</f>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="K42" s="148">
+        <v>53</v>
+      </c>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="147">
+        <v>30</v>
+      </c>
+      <c r="B43" s="133"/>
+      <c r="C43" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="178" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="202">
+        <v>240727.5</v>
+      </c>
+      <c r="F43" s="208">
+        <f t="shared" si="3"/>
+        <v>231098.4</v>
+      </c>
+      <c r="G43" s="126">
+        <f t="shared" si="6"/>
+        <v>55631740086</v>
+      </c>
+      <c r="H43" s="127">
+        <f t="shared" si="7"/>
+        <v>480658234343.03998</v>
+      </c>
+      <c r="I43" s="127">
+        <f t="shared" si="8"/>
+        <v>2079885.5999999999</v>
+      </c>
+      <c r="J43" s="128">
+        <f>0.84*0.7*1.2</f>
+        <v>0.70559999999999989</v>
+      </c>
+      <c r="K43" s="148">
+        <v>9</v>
+      </c>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="147">
+        <v>31</v>
+      </c>
+      <c r="B44" s="133"/>
+      <c r="C44" s="191" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="178" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="202">
+        <v>264069</v>
+      </c>
+      <c r="F44" s="208">
+        <f t="shared" si="3"/>
+        <v>253506.24</v>
+      </c>
+      <c r="G44" s="126">
+        <f t="shared" si="6"/>
+        <v>66943139290.559998</v>
+      </c>
+      <c r="H44" s="127">
+        <f t="shared" si="7"/>
+        <v>4241517305449.8813</v>
+      </c>
+      <c r="I44" s="127">
+        <f t="shared" si="8"/>
+        <v>16731411.84</v>
+      </c>
+      <c r="J44" s="128">
+        <f>0.84*0.7*1.4</f>
+        <v>0.82319999999999993</v>
+      </c>
+      <c r="K44" s="148">
+        <v>66</v>
+      </c>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="147">
+        <v>32</v>
+      </c>
+      <c r="B45" s="133"/>
+      <c r="C45" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="202">
+        <v>291213</v>
+      </c>
+      <c r="F45" s="208">
+        <f t="shared" si="3"/>
+        <v>279564.48</v>
+      </c>
+      <c r="G45" s="126">
+        <f t="shared" si="6"/>
+        <v>81412810914.23999</v>
+      </c>
+      <c r="H45" s="127">
+        <f t="shared" si="7"/>
+        <v>5549097191914.5977</v>
+      </c>
+      <c r="I45" s="127">
+        <f t="shared" si="8"/>
+        <v>19849078.079999998</v>
+      </c>
+      <c r="J45" s="128">
+        <f>0.84*0.7*1.6</f>
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="K45" s="148">
+        <v>71</v>
+      </c>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="147">
+        <v>33</v>
+      </c>
+      <c r="B46" s="133"/>
+      <c r="C46" s="191" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="178" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="202">
+        <v>329719</v>
+      </c>
+      <c r="F46" s="208">
+        <f t="shared" si="3"/>
+        <v>316530.24</v>
+      </c>
+      <c r="G46" s="126">
+        <f t="shared" si="6"/>
+        <v>104366034202.56</v>
+      </c>
+      <c r="H46" s="127">
+        <f t="shared" si="7"/>
+        <v>8015311426756.6074</v>
+      </c>
+      <c r="I46" s="127">
+        <f t="shared" si="8"/>
+        <v>25322419.199999999</v>
+      </c>
+      <c r="J46" s="128">
+        <f>0.84*0.7*1.8</f>
+        <v>1.0584</v>
+      </c>
+      <c r="K46" s="148">
+        <v>80</v>
+      </c>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="147">
+        <v>34</v>
+      </c>
+      <c r="B47" s="133"/>
+      <c r="C47" s="191" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="202">
+        <v>372502</v>
+      </c>
+      <c r="F47" s="208">
+        <f t="shared" si="3"/>
+        <v>357601.92</v>
+      </c>
+      <c r="G47" s="126">
+        <f t="shared" si="6"/>
+        <v>133207430403.84</v>
+      </c>
+      <c r="H47" s="127">
+        <f t="shared" si="7"/>
+        <v>11637001120079.461</v>
+      </c>
+      <c r="I47" s="127">
+        <f t="shared" si="8"/>
+        <v>32541774.719999999</v>
+      </c>
+      <c r="J47" s="128">
+        <f>0.84*0.7*2</f>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="K47" s="148">
+        <v>91</v>
+      </c>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="217" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="218"/>
+      <c r="C48" s="218"/>
+      <c r="D48" s="218"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="129">
-        <f>0.86*0.7*1.3</f>
-        <v>0.78259999999999996</v>
-      </c>
-      <c r="K34" s="151">
-        <v>65</v>
-      </c>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="150">
-        <v>23</v>
-      </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="196" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="181" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="206">
-        <v>312403</v>
-      </c>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="128">
+      <c r="G48" s="129"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="147">
+        <v>35</v>
+      </c>
+      <c r="B49" s="133"/>
+      <c r="C49" s="191" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="202">
+        <v>255866</v>
+      </c>
+      <c r="F49" s="208">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="129">
-        <f>0.86*0.7*1.4</f>
-        <v>0.84279999999999988</v>
-      </c>
-      <c r="K35" s="151">
-        <v>73</v>
-      </c>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="150">
-        <v>24</v>
-      </c>
-      <c r="B36" s="185"/>
-      <c r="C36" s="195" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="181" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="206">
-        <v>340619.5</v>
-      </c>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="129">
-        <f>0.86*0.7*1.6</f>
-        <v>0.96320000000000006</v>
-      </c>
-      <c r="K36" s="151">
-        <v>80</v>
-      </c>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="150">
-        <v>25</v>
-      </c>
-      <c r="B37" s="185"/>
-      <c r="C37" s="195" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="181" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="206">
-        <v>386210.5</v>
-      </c>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="128">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="129">
-        <f>0.86*0.7*1.8</f>
-        <v>1.0835999999999999</v>
-      </c>
-      <c r="K37" s="151">
-        <v>87</v>
-      </c>
-      <c r="L37" s="22"/>
-    </row>
-    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="135"/>
-      <c r="I38" s="135"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="150">
-        <v>26</v>
-      </c>
-      <c r="B39" s="136"/>
-      <c r="C39" s="195" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="182" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="206">
-        <v>169708.5</v>
-      </c>
-      <c r="F39" s="126"/>
-      <c r="G39" s="127">
-        <f>F39*E39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="128">
-        <f>F39*I39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="128">
-        <f>F39*K39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="129">
-        <f>0.84*0.7*0.6</f>
-        <v>0.35279999999999995</v>
-      </c>
-      <c r="K39" s="151">
-        <v>40</v>
-      </c>
-      <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="150">
-        <v>27</v>
-      </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="195" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="182" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="206">
-        <v>179965.5</v>
-      </c>
-      <c r="F40" s="126"/>
-      <c r="G40" s="127">
-        <f t="shared" ref="G40:G53" si="5">F40*E40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="128">
-        <f t="shared" ref="H40:H47" si="6">F40*I40</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="128">
-        <f t="shared" ref="I40:I47" si="7">F40*K40</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="129">
-        <f>0.84*0.7*0.7</f>
-        <v>0.41159999999999997</v>
-      </c>
-      <c r="K40" s="151">
-        <v>42</v>
-      </c>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="150">
-        <v>28</v>
-      </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="195" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="182" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="206">
-        <v>198061.5</v>
-      </c>
-      <c r="F41" s="126"/>
-      <c r="G41" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="128">
+        <v>245631.35999999999</v>
+      </c>
+      <c r="G49" s="126">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="129">
-        <f>0.84*0.7*0.8</f>
-        <v>0.47039999999999998</v>
-      </c>
-      <c r="K41" s="151">
-        <v>46</v>
-      </c>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="150">
-        <v>29</v>
-      </c>
-      <c r="B42" s="136"/>
-      <c r="C42" s="195" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="182" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="206">
-        <v>216710</v>
-      </c>
-      <c r="F42" s="126"/>
-      <c r="G42" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="129">
-        <f>0.84*0.7*1</f>
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="K42" s="151">
-        <v>53</v>
-      </c>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="150">
-        <v>30</v>
-      </c>
-      <c r="B43" s="136"/>
-      <c r="C43" s="195" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="182" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="206">
-        <v>240727.5</v>
-      </c>
-      <c r="F43" s="126"/>
-      <c r="G43" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="128">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="129">
+        <v>62848713557.759995</v>
+      </c>
+      <c r="H49" s="127">
+        <f>F49*I49</f>
+        <v>3559751135911.5259</v>
+      </c>
+      <c r="I49" s="127">
+        <f>F49*K49</f>
+        <v>14492250.239999998</v>
+      </c>
+      <c r="J49" s="128">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K43" s="151">
-        <v>9</v>
-      </c>
-      <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="150">
-        <v>31</v>
-      </c>
-      <c r="B44" s="136"/>
-      <c r="C44" s="195" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="182" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="206">
-        <v>264069</v>
-      </c>
-      <c r="F44" s="126"/>
-      <c r="G44" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="128">
+      <c r="K49" s="148">
+        <v>59</v>
+      </c>
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="147">
+        <v>36</v>
+      </c>
+      <c r="B50" s="133"/>
+      <c r="C50" s="191" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="202">
+        <v>278772</v>
+      </c>
+      <c r="F50" s="208">
+        <f t="shared" si="3"/>
+        <v>267621.12</v>
+      </c>
+      <c r="G50" s="126">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="129">
+        <v>74605274864.639999</v>
+      </c>
+      <c r="H50" s="127">
+        <f>F50*I50</f>
+        <v>4225642768333.2095</v>
+      </c>
+      <c r="I50" s="127">
+        <f t="shared" ref="I50:I52" si="9">F50*K50</f>
+        <v>15789646.08</v>
+      </c>
+      <c r="J50" s="128">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K44" s="151">
-        <v>66</v>
-      </c>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="150">
-        <v>32</v>
-      </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="195" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="182" t="s">
+      <c r="K50" s="148">
+        <v>59</v>
+      </c>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="147">
+        <v>37</v>
+      </c>
+      <c r="B51" s="133"/>
+      <c r="C51" s="191" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="206">
-        <v>291213</v>
-      </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="128">
+      <c r="E51" s="202">
+        <v>305916</v>
+      </c>
+      <c r="F51" s="208">
+        <f t="shared" si="3"/>
+        <v>293679.35999999999</v>
+      </c>
+      <c r="G51" s="126">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="129">
+        <v>89841215093.759995</v>
+      </c>
+      <c r="H51" s="127">
+        <f t="shared" ref="H51:H52" si="10">F51*I51</f>
+        <v>6123577220790.6807</v>
+      </c>
+      <c r="I51" s="127">
+        <f t="shared" si="9"/>
+        <v>20851234.559999999</v>
+      </c>
+      <c r="J51" s="128">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K45" s="151">
+      <c r="K51" s="148">
         <v>71</v>
       </c>
-      <c r="L45" s="22"/>
-    </row>
-    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="150">
-        <v>33</v>
-      </c>
-      <c r="B46" s="136"/>
-      <c r="C46" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="182" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="206">
-        <v>329719</v>
-      </c>
-      <c r="F46" s="126"/>
-      <c r="G46" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="128">
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="147">
+        <v>38</v>
+      </c>
+      <c r="B52" s="133"/>
+      <c r="C52" s="191" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="178" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="202">
+        <v>344422</v>
+      </c>
+      <c r="F52" s="208">
+        <f t="shared" si="3"/>
+        <v>330645.12</v>
+      </c>
+      <c r="G52" s="126">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="129">
+        <v>113881453520.64</v>
+      </c>
+      <c r="H52" s="127">
+        <f t="shared" si="10"/>
+        <v>8746095630385.1523</v>
+      </c>
+      <c r="I52" s="127">
+        <f t="shared" si="9"/>
+        <v>26451609.600000001</v>
+      </c>
+      <c r="J52" s="128">
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K46" s="151">
+      <c r="K52" s="148">
         <v>80</v>
       </c>
-      <c r="L46" s="22"/>
-    </row>
-    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="150">
-        <v>34</v>
-      </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="195" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="182" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="206">
-        <v>372502</v>
-      </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="128">
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="153">
+        <v>39</v>
+      </c>
+      <c r="B53" s="154"/>
+      <c r="C53" s="193" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="179" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="205">
+        <v>387211.5</v>
+      </c>
+      <c r="F53" s="208">
+        <f t="shared" si="3"/>
+        <v>371723.04</v>
+      </c>
+      <c r="G53" s="155">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="129">
+        <v>143935435902.95999</v>
+      </c>
+      <c r="H53" s="156">
+        <f t="shared" ref="H53:H55" si="11">J53*F53</f>
+        <v>437146.29503999994</v>
+      </c>
+      <c r="I53" s="156">
+        <f t="shared" ref="I53:I55" si="12">K53*F53</f>
+        <v>33826796.640000001</v>
+      </c>
+      <c r="J53" s="157">
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K47" s="151">
-        <v>91</v>
-      </c>
-      <c r="L47" s="22"/>
-    </row>
-    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="214" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="138"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="150">
-        <v>35</v>
-      </c>
-      <c r="B49" s="136"/>
-      <c r="C49" s="195" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="206">
-        <v>255866</v>
-      </c>
-      <c r="F49" s="126"/>
-      <c r="G49" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="128">
-        <f>F49*I49</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="128">
-        <f>F49*K49</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="129">
-        <f>0.84*0.7*1.2</f>
-        <v>0.70559999999999989</v>
-      </c>
-      <c r="K49" s="151">
-        <v>59</v>
-      </c>
-      <c r="L49" s="22"/>
-    </row>
-    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="150">
-        <v>36</v>
-      </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="195" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="182" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="206">
-        <v>278772</v>
-      </c>
-      <c r="F50" s="126"/>
-      <c r="G50" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="128">
-        <f>F50*I50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="128">
-        <f t="shared" ref="I50:I52" si="8">F50*K50</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="129">
-        <f>0.84*0.7*1.4</f>
-        <v>0.82319999999999993</v>
-      </c>
-      <c r="K50" s="151">
-        <v>59</v>
-      </c>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="150">
-        <v>37</v>
-      </c>
-      <c r="B51" s="136"/>
-      <c r="C51" s="195" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="206">
-        <v>305916</v>
-      </c>
-      <c r="F51" s="126"/>
-      <c r="G51" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="128">
-        <f t="shared" ref="H51:H52" si="9">F51*I51</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="128">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="129">
-        <f>0.84*0.7*1.6</f>
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="K51" s="151">
-        <v>71</v>
-      </c>
-      <c r="L51" s="22"/>
-    </row>
-    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="150">
-        <v>38</v>
-      </c>
-      <c r="B52" s="136"/>
-      <c r="C52" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="182" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" s="206">
-        <v>344422</v>
-      </c>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="128">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="128">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="129">
-        <f>0.84*0.7*1.8</f>
-        <v>1.0584</v>
-      </c>
-      <c r="K52" s="151">
-        <v>80</v>
-      </c>
-      <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="156">
-        <v>39</v>
-      </c>
-      <c r="B53" s="157"/>
-      <c r="C53" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="183" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="209">
-        <v>387211.5</v>
-      </c>
-      <c r="F53" s="158"/>
-      <c r="G53" s="159">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="160">
-        <f t="shared" ref="H53:H55" si="10">J53*F53</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="160">
-        <f t="shared" ref="I53:I55" si="11">K53*F53</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="161">
-        <f>0.84*0.7*2</f>
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="K53" s="162">
+      <c r="K53" s="158">
         <v>91</v>
       </c>
       <c r="L53" s="22"/>
@@ -10613,24 +10774,24 @@
       <c r="D54" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="210" t="e">
+      <c r="E54" s="206" t="e">
         <v>#REF!</v>
       </c>
       <c r="F54" s="123"/>
       <c r="G54" s="44" t="e">
-        <f t="shared" ref="G54" si="12">E54*F54</f>
+        <f t="shared" ref="G54" si="13">E54*F54</f>
         <v>#REF!</v>
       </c>
       <c r="H54" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="I54" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="J54" s="100">
-        <f t="shared" ref="J54:J55" si="13">0.85*0.65*2.05</f>
+        <f t="shared" ref="J54:J55" si="14">0.85*0.65*2.05</f>
         <v>1.132625</v>
       </c>
       <c r="K54" s="101">
@@ -10649,7 +10810,7 @@
       <c r="D55" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="211" t="e">
+      <c r="E55" s="207" t="e">
         <v>#REF!</v>
       </c>
       <c r="F55" s="107"/>
@@ -10658,15 +10819,15 @@
         <v>#REF!</v>
       </c>
       <c r="H55" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="I55" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="J55" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.132625</v>
       </c>
       <c r="K55" s="42">
@@ -10676,18 +10837,18 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D56" s="104"/>
-      <c r="F56" s="174"/>
-      <c r="G56" s="140">
+      <c r="F56" s="170"/>
+      <c r="G56" s="137">
         <f>SUM(G7:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="139">
+        <v>2992182289714.7993</v>
+      </c>
+      <c r="H56" s="136">
         <f>SUM(H7:H55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="139">
+        <v>58850950355405.609</v>
+      </c>
+      <c r="I56" s="136">
         <f>SUM(I7:I55)</f>
-        <v>0</v>
+        <v>706996511.51999998</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -10727,7 +10888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -10742,7 +10903,7 @@
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="104" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="199" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="195" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="21" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="37" customWidth="1"/>
@@ -10774,18 +10935,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="198"/>
+      <c r="F1" s="194"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
       <c r="Y1" s="117"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -10812,15 +10973,15 @@
       </c>
       <c r="H3" s="27">
         <f>H28+Лари!G56</f>
-        <v>0</v>
+        <v>2992182289714.7993</v>
       </c>
       <c r="I3" s="39">
         <f>I28+Лари!H56</f>
-        <v>0</v>
+        <v>58850950355405.609</v>
       </c>
       <c r="J3" s="39">
         <f>J28+Лари!I56</f>
-        <v>0</v>
+        <v>706996511.51999998</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="57"/>
@@ -10862,40 +11023,40 @@
       <c r="X4" s="63"/>
     </row>
     <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="200" t="s">
+      <c r="F5" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="145" t="s">
+      <c r="I5" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="146" t="s">
+      <c r="J5" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="147" t="s">
+      <c r="K5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="148" t="s">
+      <c r="L5" s="145" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="57"/>
@@ -10906,723 +11067,723 @@
       <c r="X5" s="64"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="155"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="152"/>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="167">
+      <c r="A7" s="163">
         <v>1</v>
       </c>
       <c r="B7" s="125"/>
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="189" t="s">
+      <c r="D7" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="184" t="s">
+      <c r="E7" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="202">
+      <c r="F7" s="198">
         <v>619242</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="164">
+      <c r="G7" s="159"/>
+      <c r="H7" s="160">
         <f>F7*G7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="128">
+      <c r="I7" s="127">
         <f t="shared" ref="I7:I27" si="0">K7*G7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="128">
+      <c r="J7" s="127">
         <f t="shared" ref="J7:J27" si="1">L7*G7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="129">
+      <c r="K7" s="128">
         <f>0.82*0.9*2</f>
         <v>1.476</v>
       </c>
-      <c r="L7" s="151">
+      <c r="L7" s="148">
         <v>125</v>
       </c>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="167">
+      <c r="A8" s="163">
         <v>2</v>
       </c>
       <c r="B8" s="125"/>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="202">
+      <c r="F8" s="198">
         <v>689799.5</v>
       </c>
-      <c r="G8" s="163"/>
-      <c r="H8" s="164">
+      <c r="G8" s="159"/>
+      <c r="H8" s="160">
         <f t="shared" ref="H8:H27" si="2">F8*G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="128">
+      <c r="I8" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="129">
+      <c r="K8" s="128">
         <f>0.82*0.9*2.5</f>
         <v>1.845</v>
       </c>
-      <c r="L8" s="151">
+      <c r="L8" s="148">
         <v>148</v>
       </c>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="220" t="s">
+      <c r="A9" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="221"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="155"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="152"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:25" ht="126" x14ac:dyDescent="0.25">
-      <c r="A10" s="167">
+      <c r="A10" s="163">
         <v>3</v>
       </c>
       <c r="B10" s="125"/>
-      <c r="C10" s="188" t="s">
+      <c r="C10" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="189" t="s">
+      <c r="D10" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="180" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="202">
+      <c r="F10" s="198">
         <v>691099.5</v>
       </c>
-      <c r="G10" s="163"/>
-      <c r="H10" s="164">
+      <c r="G10" s="159"/>
+      <c r="H10" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="128">
+      <c r="I10" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="128">
+      <c r="J10" s="127">
         <f>L10*G10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="129">
+      <c r="K10" s="128">
         <f>0.82*0.9*2</f>
         <v>1.476</v>
       </c>
-      <c r="L10" s="151">
+      <c r="L10" s="148">
         <v>134</v>
       </c>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="126" x14ac:dyDescent="0.25">
-      <c r="A11" s="167">
+      <c r="A11" s="163">
         <v>4</v>
       </c>
       <c r="B11" s="125"/>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="189" t="s">
+      <c r="D11" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="184" t="s">
+      <c r="E11" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="202">
+      <c r="F11" s="198">
         <v>751016.5</v>
       </c>
-      <c r="G11" s="163"/>
-      <c r="H11" s="164">
+      <c r="G11" s="159"/>
+      <c r="H11" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="128">
+      <c r="I11" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="128">
+      <c r="J11" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="129">
+      <c r="K11" s="128">
         <f>0.82*0.9*2.5</f>
         <v>1.845</v>
       </c>
-      <c r="L11" s="151">
+      <c r="L11" s="148">
         <v>156</v>
       </c>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="221"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="155"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="152"/>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="167">
+      <c r="A13" s="163">
         <v>5</v>
       </c>
       <c r="B13" s="125"/>
-      <c r="C13" s="188" t="s">
+      <c r="C13" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="189" t="s">
+      <c r="D13" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="184" t="s">
+      <c r="E13" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="202">
+      <c r="F13" s="198">
         <v>713654.5</v>
       </c>
-      <c r="G13" s="163"/>
-      <c r="H13" s="164">
+      <c r="G13" s="159"/>
+      <c r="H13" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="128">
+      <c r="I13" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="128">
+      <c r="J13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="129">
+      <c r="K13" s="128">
         <f>0.8*0.9*1.9</f>
         <v>1.3680000000000001</v>
       </c>
-      <c r="L13" s="151">
+      <c r="L13" s="148">
         <v>103</v>
       </c>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="167">
+      <c r="A14" s="163">
         <v>6</v>
       </c>
       <c r="B14" s="125"/>
-      <c r="C14" s="188" t="s">
+      <c r="C14" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="190" t="s">
+      <c r="E14" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="202">
+      <c r="F14" s="198">
         <v>713654.5</v>
       </c>
-      <c r="G14" s="163"/>
-      <c r="H14" s="164">
+      <c r="G14" s="159"/>
+      <c r="H14" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="128">
+      <c r="J14" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="129">
+      <c r="K14" s="128">
         <f>8.5*0.9*1.9</f>
         <v>14.535</v>
       </c>
-      <c r="L14" s="151">
+      <c r="L14" s="148">
         <v>103</v>
       </c>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="167">
+      <c r="A15" s="163">
         <v>7</v>
       </c>
       <c r="B15" s="125"/>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="184" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="189" t="s">
+      <c r="D15" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="190" t="s">
+      <c r="E15" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="202">
+      <c r="F15" s="198">
         <v>735676.5</v>
       </c>
-      <c r="G15" s="163"/>
-      <c r="H15" s="164">
+      <c r="G15" s="159"/>
+      <c r="H15" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I15" s="128">
+      <c r="I15" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="128">
+      <c r="J15" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="129">
+      <c r="K15" s="128">
         <f>0.85*0.9*2.1</f>
         <v>1.6065</v>
       </c>
-      <c r="L15" s="151">
+      <c r="L15" s="148">
         <v>113</v>
       </c>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="167">
+      <c r="A16" s="163">
         <v>8</v>
       </c>
       <c r="B16" s="125"/>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="189" t="s">
+      <c r="D16" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="202">
+      <c r="F16" s="198">
         <v>760454.5</v>
       </c>
-      <c r="G16" s="163"/>
-      <c r="H16" s="164">
+      <c r="G16" s="159"/>
+      <c r="H16" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="128">
+      <c r="I16" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="128">
+      <c r="J16" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="129">
+      <c r="K16" s="128">
         <f>0.85*0.9*2.5</f>
         <v>1.9125000000000001</v>
       </c>
-      <c r="L16" s="151">
+      <c r="L16" s="148">
         <v>162</v>
       </c>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="220" t="s">
+      <c r="A17" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="221"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="155"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="152"/>
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="167">
+      <c r="A18" s="163">
         <v>9</v>
       </c>
       <c r="B18" s="125"/>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="189" t="s">
+      <c r="D18" s="185" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="190" t="s">
+      <c r="E18" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="202">
+      <c r="F18" s="198">
         <v>770770</v>
       </c>
-      <c r="G18" s="163"/>
-      <c r="H18" s="164">
+      <c r="G18" s="159"/>
+      <c r="H18" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="128">
+      <c r="J18" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="129">
+      <c r="K18" s="128">
         <f>0.8*0.9*1.9</f>
         <v>1.3680000000000001</v>
       </c>
-      <c r="L18" s="151">
+      <c r="L18" s="148">
         <v>103</v>
       </c>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="167">
+      <c r="A19" s="163">
         <v>10</v>
       </c>
       <c r="B19" s="125"/>
-      <c r="C19" s="188" t="s">
+      <c r="C19" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="189" t="s">
+      <c r="D19" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="184" t="s">
+      <c r="E19" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="202">
+      <c r="F19" s="198">
         <v>770770</v>
       </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="164">
+      <c r="G19" s="159"/>
+      <c r="H19" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I19" s="128">
+      <c r="I19" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="128">
+      <c r="J19" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="129">
+      <c r="K19" s="128">
         <f>0.85*0.9*1.9</f>
         <v>1.4535</v>
       </c>
-      <c r="L19" s="151">
+      <c r="L19" s="148">
         <v>103</v>
       </c>
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="167">
+      <c r="A20" s="163">
         <v>11</v>
       </c>
       <c r="B20" s="125"/>
-      <c r="C20" s="188" t="s">
+      <c r="C20" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="189" t="s">
+      <c r="D20" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="184" t="s">
+      <c r="E20" s="180" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="202">
+      <c r="F20" s="198">
         <v>787982</v>
       </c>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164">
+      <c r="G20" s="159"/>
+      <c r="H20" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="128">
+      <c r="I20" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="128">
+      <c r="J20" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="129">
+      <c r="K20" s="128">
         <f>0.85*0.9*2.1</f>
         <v>1.6065</v>
       </c>
-      <c r="L20" s="151">
+      <c r="L20" s="148">
         <v>113</v>
       </c>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="167">
+      <c r="A21" s="163">
         <v>12</v>
       </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="188" t="s">
+      <c r="B21" s="161"/>
+      <c r="C21" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="189" t="s">
+      <c r="D21" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="184" t="s">
+      <c r="E21" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="202">
+      <c r="F21" s="198">
         <v>814814</v>
       </c>
-      <c r="G21" s="163"/>
-      <c r="H21" s="164">
+      <c r="G21" s="159"/>
+      <c r="H21" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="128">
+      <c r="I21" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="128">
+      <c r="J21" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="129">
+      <c r="K21" s="128">
         <f>0.85*0.9*2.5</f>
         <v>1.9125000000000001</v>
       </c>
-      <c r="L21" s="151">
+      <c r="L21" s="148">
         <v>162</v>
       </c>
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="224"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="155"/>
+      <c r="B22" s="227"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="152"/>
       <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="167">
+      <c r="A23" s="163">
         <v>11</v>
       </c>
       <c r="B23" s="125"/>
-      <c r="C23" s="223" t="s">
+      <c r="C23" s="226" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="223"/>
-      <c r="E23" s="194" t="s">
+      <c r="D23" s="226"/>
+      <c r="E23" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="202">
+      <c r="F23" s="198">
         <v>196937</v>
       </c>
-      <c r="G23" s="163"/>
-      <c r="H23" s="164">
+      <c r="G23" s="159"/>
+      <c r="H23" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I23" s="128">
+      <c r="I23" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="128">
+      <c r="J23" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="129"/>
-      <c r="L23" s="151"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="148"/>
       <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="167">
+      <c r="A24" s="163">
         <v>12</v>
       </c>
       <c r="B24" s="125"/>
-      <c r="C24" s="223" t="s">
+      <c r="C24" s="226" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="223"/>
-      <c r="E24" s="194" t="s">
+      <c r="D24" s="226"/>
+      <c r="E24" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="202">
+      <c r="F24" s="198">
         <v>223262</v>
       </c>
-      <c r="G24" s="163"/>
-      <c r="H24" s="164">
+      <c r="G24" s="159"/>
+      <c r="H24" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="128">
+      <c r="I24" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="128">
+      <c r="J24" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="151"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="148"/>
       <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="167">
+      <c r="A25" s="163">
         <v>13</v>
       </c>
       <c r="B25" s="125"/>
-      <c r="C25" s="223" t="s">
+      <c r="C25" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="223"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="202">
+      <c r="D25" s="226"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="198">
         <v>202039.5</v>
       </c>
-      <c r="G25" s="163"/>
-      <c r="H25" s="164">
+      <c r="G25" s="159"/>
+      <c r="H25" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I25" s="128">
+      <c r="I25" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="128">
+      <c r="J25" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="129"/>
-      <c r="L25" s="151"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="148"/>
       <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="167">
+      <c r="A26" s="163">
         <v>14</v>
       </c>
       <c r="B26" s="125"/>
-      <c r="C26" s="223" t="s">
+      <c r="C26" s="226" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="223"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="202">
+      <c r="D26" s="226"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="198">
         <v>207129</v>
       </c>
-      <c r="G26" s="163"/>
-      <c r="H26" s="164">
+      <c r="G26" s="159"/>
+      <c r="H26" s="160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I26" s="128">
+      <c r="I26" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="128">
+      <c r="J26" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="151"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="148"/>
       <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="168">
+      <c r="A27" s="164">
         <v>15</v>
       </c>
-      <c r="B27" s="169"/>
-      <c r="C27" s="222" t="s">
+      <c r="B27" s="165"/>
+      <c r="C27" s="225" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="222"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="204">
+      <c r="D27" s="225"/>
+      <c r="E27" s="188"/>
+      <c r="F27" s="200">
         <v>233441</v>
       </c>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171">
+      <c r="G27" s="166"/>
+      <c r="H27" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="160">
+      <c r="I27" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="160">
+      <c r="J27" s="156">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="161"/>
-      <c r="L27" s="162"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="205"/>
-      <c r="H28" s="172">
+      <c r="F28" s="201"/>
+      <c r="H28" s="168">
         <f>SUM(H6:H27)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="173">
+      <c r="I28" s="169">
         <f>SUM(I6:I27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="173">
+      <c r="J28" s="169">
         <f>SUM(J6:J27)</f>
         <v>0</v>
       </c>
@@ -11655,7 +11816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11881,13 +12042,13 @@
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="225" t="s">
+      <c r="A11" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -11939,13 +12100,13 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="227" t="s">
+      <c r="A13" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="228"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12056,7 +12217,7 @@
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="229"/>
+      <c r="B17" s="232"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12089,7 +12250,7 @@
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="230"/>
+      <c r="B18" s="233"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12122,7 +12283,7 @@
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="231"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12152,13 +12313,13 @@
       <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="228"/>
-      <c r="C20" s="228"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="228"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="231"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12365,13 +12526,13 @@
       <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="227" t="s">
+      <c r="A27" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="228"/>
-      <c r="C27" s="228"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="228"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12383,7 +12544,7 @@
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="232"/>
+      <c r="B28" s="235"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12416,7 +12577,7 @@
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="234"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12449,7 +12610,7 @@
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="232"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12482,7 +12643,7 @@
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="234"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12515,7 +12676,7 @@
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="232"/>
+      <c r="B32" s="235"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12548,7 +12709,7 @@
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="233"/>
+      <c r="B33" s="236"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12581,7 +12742,7 @@
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="233"/>
+      <c r="B34" s="236"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12614,7 +12775,7 @@
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="233"/>
+      <c r="B35" s="236"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12647,7 +12808,7 @@
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="233"/>
+      <c r="B36" s="236"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12680,7 +12841,7 @@
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="233"/>
+      <c r="B37" s="236"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -12713,7 +12874,7 @@
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="234"/>
+      <c r="B38" s="237"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -12743,13 +12904,13 @@
       <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="227" t="s">
+      <c r="A39" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="228"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
+      <c r="B39" s="231"/>
+      <c r="C39" s="231"/>
+      <c r="D39" s="231"/>
+      <c r="E39" s="231"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>

--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -2740,7 +2740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2858,6 +2858,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3567,7 +3573,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4135,6 +4141,18 @@
     <xf numFmtId="3" fontId="35" fillId="20" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="35" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4202,6 +4220,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="21" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8881,9 +8902,9 @@
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8924,14 +8945,14 @@
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
@@ -9030,12 +9051,12 @@
       <c r="O5" s="173"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="219" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
       <c r="E6" s="197"/>
       <c r="F6" s="209" t="s">
         <v>189</v>
@@ -9288,13 +9309,13 @@
       <c r="N12" s="59"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="223" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="221"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="225"/>
       <c r="F13" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9310,18 +9331,18 @@
       <c r="A14" s="147">
         <v>7</v>
       </c>
-      <c r="B14" s="181"/>
-      <c r="C14" s="191" t="s">
+      <c r="B14" s="215"/>
+      <c r="C14" s="216" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="217" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="202">
+      <c r="E14" s="218">
         <v>164521.5</v>
       </c>
-      <c r="F14" s="208">
-        <f t="shared" si="3"/>
+      <c r="F14" s="242">
+        <f>E14-E14*4%</f>
         <v>157940.64000000001</v>
       </c>
       <c r="G14" s="126">
@@ -9349,17 +9370,17 @@
       <c r="A15" s="147">
         <v>8</v>
       </c>
-      <c r="B15" s="181"/>
-      <c r="C15" s="191" t="s">
+      <c r="B15" s="215"/>
+      <c r="C15" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="177" t="s">
+      <c r="D15" s="217" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="202">
+      <c r="E15" s="218">
         <v>174460</v>
       </c>
-      <c r="F15" s="208">
+      <c r="F15" s="242">
         <f t="shared" si="3"/>
         <v>167481.60000000001</v>
       </c>
@@ -9388,17 +9409,17 @@
       <c r="A16" s="147">
         <v>9</v>
       </c>
-      <c r="B16" s="181"/>
-      <c r="C16" s="192" t="s">
+      <c r="B16" s="215"/>
+      <c r="C16" s="216" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="177" t="s">
+      <c r="D16" s="217" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="202">
+      <c r="E16" s="218">
         <v>192010</v>
       </c>
-      <c r="F16" s="208">
+      <c r="F16" s="242">
         <f t="shared" si="3"/>
         <v>184329.60000000001</v>
       </c>
@@ -9427,17 +9448,17 @@
       <c r="A17" s="147">
         <v>10</v>
       </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="192" t="s">
+      <c r="B17" s="215"/>
+      <c r="C17" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="217" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="202">
+      <c r="E17" s="218">
         <v>210086.5</v>
       </c>
-      <c r="F17" s="208">
+      <c r="F17" s="242">
         <f t="shared" si="3"/>
         <v>201683.04</v>
       </c>
@@ -9466,17 +9487,17 @@
       <c r="A18" s="147">
         <v>11</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="192" t="s">
+      <c r="B18" s="215"/>
+      <c r="C18" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="177" t="s">
+      <c r="D18" s="217" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="202">
+      <c r="E18" s="218">
         <v>233369.5</v>
       </c>
-      <c r="F18" s="208">
+      <c r="F18" s="242">
         <f t="shared" si="3"/>
         <v>224034.72</v>
       </c>
@@ -9503,17 +9524,17 @@
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="147"/>
-      <c r="B19" s="181"/>
-      <c r="C19" s="192" t="s">
+      <c r="B19" s="215"/>
+      <c r="C19" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="177" t="s">
+      <c r="D19" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="202">
+      <c r="E19" s="218">
         <v>255989.5</v>
       </c>
-      <c r="F19" s="208">
+      <c r="F19" s="242">
         <f t="shared" si="3"/>
         <v>245749.92</v>
       </c>
@@ -9540,17 +9561,17 @@
     </row>
     <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="147"/>
-      <c r="B20" s="181"/>
-      <c r="C20" s="192" t="s">
+      <c r="B20" s="215"/>
+      <c r="C20" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="217" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="202">
+      <c r="E20" s="218">
         <v>282314.5</v>
       </c>
-      <c r="F20" s="208">
+      <c r="F20" s="242">
         <f t="shared" si="3"/>
         <v>271021.92</v>
       </c>
@@ -9577,17 +9598,17 @@
     </row>
     <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="147"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="191" t="s">
+      <c r="B21" s="215"/>
+      <c r="C21" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="202">
+      <c r="E21" s="218">
         <v>319631</v>
       </c>
-      <c r="F21" s="208">
+      <c r="F21" s="242">
         <f t="shared" si="3"/>
         <v>306845.76</v>
       </c>
@@ -9616,17 +9637,17 @@
       <c r="A22" s="147">
         <v>12</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="191" t="s">
+      <c r="B22" s="215"/>
+      <c r="C22" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="202">
+      <c r="E22" s="218">
         <v>361114</v>
       </c>
-      <c r="F22" s="208">
+      <c r="F22" s="242">
         <f t="shared" si="3"/>
         <v>346669.44</v>
       </c>
@@ -10550,12 +10571,12 @@
       <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="217" t="s">
+      <c r="A48" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="218"/>
-      <c r="C48" s="218"/>
-      <c r="D48" s="218"/>
+      <c r="B48" s="222"/>
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
       <c r="E48" s="199"/>
       <c r="F48" s="208">
         <f t="shared" si="3"/>
@@ -10940,13 +10961,13 @@
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
+      <c r="P1" s="226"/>
+      <c r="Q1" s="226"/>
+      <c r="R1" s="226"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
       <c r="Y1" s="117"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -11067,13 +11088,13 @@
       <c r="X5" s="64"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
+      <c r="B6" s="231"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
       <c r="F6" s="197"/>
       <c r="G6" s="171"/>
       <c r="H6" s="129"/>
@@ -11162,13 +11183,13 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="227" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="224"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
       <c r="F9" s="199"/>
       <c r="G9" s="171"/>
       <c r="H9" s="129"/>
@@ -11257,13 +11278,13 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="227" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
       <c r="F12" s="199"/>
       <c r="G12" s="171"/>
       <c r="H12" s="129"/>
@@ -11430,13 +11451,13 @@
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="223" t="s">
+      <c r="A17" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
+      <c r="B17" s="228"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="228"/>
       <c r="F17" s="199"/>
       <c r="G17" s="171"/>
       <c r="H17" s="129"/>
@@ -11603,13 +11624,13 @@
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="215" t="s">
+      <c r="A22" s="219" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
       <c r="F22" s="199"/>
       <c r="G22" s="171"/>
       <c r="H22" s="129"/>
@@ -11624,10 +11645,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="125"/>
-      <c r="C23" s="226" t="s">
+      <c r="C23" s="230" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="226"/>
+      <c r="D23" s="230"/>
       <c r="E23" s="190" t="s">
         <v>150</v>
       </c>
@@ -11656,10 +11677,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="125"/>
-      <c r="C24" s="226" t="s">
+      <c r="C24" s="230" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="226"/>
+      <c r="D24" s="230"/>
       <c r="E24" s="190" t="s">
         <v>151</v>
       </c>
@@ -11688,10 +11709,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="125"/>
-      <c r="C25" s="226" t="s">
+      <c r="C25" s="230" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="226"/>
+      <c r="D25" s="230"/>
       <c r="E25" s="187"/>
       <c r="F25" s="198">
         <v>202039.5</v>
@@ -11718,10 +11739,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="125"/>
-      <c r="C26" s="226" t="s">
+      <c r="C26" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="226"/>
+      <c r="D26" s="230"/>
       <c r="E26" s="187"/>
       <c r="F26" s="198">
         <v>207129</v>
@@ -11748,10 +11769,10 @@
         <v>15</v>
       </c>
       <c r="B27" s="165"/>
-      <c r="C27" s="225" t="s">
+      <c r="C27" s="229" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="225"/>
+      <c r="D27" s="229"/>
       <c r="E27" s="188"/>
       <c r="F27" s="200">
         <v>233441</v>
@@ -12042,13 +12063,13 @@
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="229"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="229"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -12100,13 +12121,13 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="230" t="s">
+      <c r="A13" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12217,7 +12238,7 @@
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="232"/>
+      <c r="B17" s="236"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12250,7 +12271,7 @@
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="233"/>
+      <c r="B18" s="237"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12283,7 +12304,7 @@
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="234"/>
+      <c r="B19" s="238"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12313,13 +12334,13 @@
       <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="230" t="s">
+      <c r="A20" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="231"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12526,13 +12547,13 @@
       <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="230" t="s">
+      <c r="A27" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="235"/>
+      <c r="E27" s="235"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12544,7 +12565,7 @@
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="235"/>
+      <c r="B28" s="239"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12577,7 +12598,7 @@
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="237"/>
+      <c r="B29" s="241"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12610,7 +12631,7 @@
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="235"/>
+      <c r="B30" s="239"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12643,7 +12664,7 @@
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="237"/>
+      <c r="B31" s="241"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12676,7 +12697,7 @@
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="235"/>
+      <c r="B32" s="239"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12709,7 +12730,7 @@
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="236"/>
+      <c r="B33" s="240"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12742,7 +12763,7 @@
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="236"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12775,7 +12796,7 @@
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="236"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12808,7 +12829,7 @@
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="236"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12841,7 +12862,7 @@
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="236"/>
+      <c r="B37" s="240"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -12874,7 +12895,7 @@
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="237"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -12904,13 +12925,13 @@
       <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="230" t="s">
+      <c r="A39" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="231"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="231"/>
-      <c r="E39" s="231"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="235"/>
+      <c r="E39" s="235"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>

--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\OpenServer 5.4.3\domains\TimeForEeexperiments\SoftIce\ice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B805C-A7E6-4654-9D7C-E74ABBF5AEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="654"/>
+    <workbookView xWindow="12408" yWindow="2028" windowWidth="10632" windowHeight="10332" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лари" sheetId="9" r:id="rId1"/>
     <sheet name="Бонеты" sheetId="15" r:id="rId2"/>
     <sheet name="Снеж компл-е" sheetId="10" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2179,7 +2185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -2740,7 +2746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2864,6 +2870,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3573,7 +3585,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4153,6 +4165,9 @@
     <xf numFmtId="3" fontId="30" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="35" fillId="21" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4222,12 +4237,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="21" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="35" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="22" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Акцент1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="3" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="4" builtinId="37" customBuiltin="1"/>
@@ -4247,10 +4268,10 @@
     <cellStyle name="Название" xfId="18" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="20"/>
-    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29"/>
-    <cellStyle name="Обычный_Балки БТ50" xfId="28"/>
-    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30"/>
+    <cellStyle name="Обычный 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Обычный_Балки БТ50" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Плохой" xfId="21" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="23" builtinId="10" customBuiltin="1"/>
@@ -4364,7 +4385,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,7 +4435,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4464,7 +4485,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4514,7 +4535,7 @@
         <xdr:cNvPr id="67" name="Рисунок 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,7 +4585,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4614,7 +4635,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4664,7 +4685,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4714,7 +4735,7 @@
         <xdr:cNvPr id="72" name="Рисунок 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4757,14 +4778,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1728106</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1326697</xdr:rowOff>
+      <xdr:rowOff>1280977</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4814,7 +4835,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4856,15 +4877,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1920647</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1329418</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4935,7 @@
         <xdr:cNvPr id="73" name="Рисунок 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4964,7 +4985,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5014,7 +5035,7 @@
         <xdr:cNvPr id="74" name="Рисунок 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5064,7 +5085,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5106,15 +5127,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1646464</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1282699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5157,14 +5178,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1687286</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1311729</xdr:rowOff>
+      <xdr:rowOff>1281249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="76" name="Рисунок 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5207,14 +5228,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1668997</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>1318532</xdr:rowOff>
+      <xdr:rowOff>1280432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="78" name="Рисунок 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5257,14 +5278,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1723425</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1332139</xdr:rowOff>
+      <xdr:rowOff>1278799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="79" name="Рисунок 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,14 +5328,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1834222</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1318532</xdr:rowOff>
+      <xdr:rowOff>1280432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="81" name="Рисунок 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5357,14 +5378,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1875042</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>1304925</xdr:rowOff>
+      <xdr:rowOff>1282065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="82" name="Рисунок 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5414,7 +5435,7 @@
         <xdr:cNvPr id="83" name="Рисунок 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5464,7 +5485,7 @@
         <xdr:cNvPr id="86" name="Рисунок 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5507,14 +5528,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1760969</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1328057</xdr:rowOff>
+      <xdr:rowOff>1282337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="88" name="Рисунок 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5557,14 +5578,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1733755</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1328056</xdr:rowOff>
+      <xdr:rowOff>573676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,7 +5635,7 @@
         <xdr:cNvPr id="91" name="Рисунок 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5657,14 +5678,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1839515</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1315810</xdr:rowOff>
+      <xdr:rowOff>1277710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="93" name="Рисунок 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5714,7 +5735,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5764,7 +5785,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5814,7 +5835,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5864,7 +5885,7 @@
         <xdr:cNvPr id="100" name="Рисунок 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5914,7 +5935,7 @@
         <xdr:cNvPr id="101" name="Рисунок 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5964,7 +5985,7 @@
         <xdr:cNvPr id="102" name="Рисунок 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6014,7 +6035,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +6085,7 @@
         <xdr:cNvPr id="106" name="Рисунок 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6114,7 +6135,7 @@
         <xdr:cNvPr id="107" name="Рисунок 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6164,7 +6185,7 @@
         <xdr:cNvPr id="109" name="Рисунок 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6214,7 +6235,7 @@
         <xdr:cNvPr id="110" name="Рисунок 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6264,7 +6285,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6314,7 +6335,7 @@
         <xdr:cNvPr id="113" name="Рисунок 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6364,7 +6385,7 @@
         <xdr:cNvPr id="114" name="Рисунок 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6414,7 +6435,7 @@
         <xdr:cNvPr id="44" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +6514,7 @@
         <xdr:cNvPr id="2" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6567,7 +6588,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6617,7 +6638,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6667,7 +6688,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6717,7 +6738,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6767,7 +6788,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6817,7 +6838,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6867,7 +6888,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6917,7 +6938,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6967,7 +6988,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7017,7 +7038,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7067,7 +7088,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7117,7 +7138,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,7 +7188,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7217,7 +7238,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7267,7 +7288,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7317,7 +7338,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7367,7 +7388,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7422,7 +7443,7 @@
         <xdr:cNvPr id="18" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7496,7 +7517,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7539,7 +7560,7 @@
         <xdr:cNvPr id="90" name="Рисунок 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7583,7 +7604,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7648,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7671,7 +7692,7 @@
         <xdr:cNvPr id="97" name="Рисунок 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7714,7 +7735,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7778,7 @@
         <xdr:cNvPr id="99" name="Рисунок 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7801,7 +7822,7 @@
         <xdr:cNvPr id="100" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7875,7 +7896,7 @@
         <xdr:cNvPr id="101" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7949,7 +7970,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7993,7 +8014,7 @@
         <xdr:cNvPr id="105" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8068,7 +8089,7 @@
 Ð¾Ð»Ð¾Ð´&quot; Ð² Ð¡Ð°Ð¼Ð°ÑÐµ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8127,7 +8148,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8171,7 +8192,7 @@
         <xdr:cNvPr id="116" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8245,7 +8266,7 @@
         <xdr:cNvPr id="119" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8319,7 +8340,7 @@
         <xdr:cNvPr id="121" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8393,7 +8414,7 @@
         <xdr:cNvPr id="136" name="Рисунок 135" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÑÑÑÐºÐ° ÐÐÐ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8452,7 +8473,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8496,7 +8517,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8896,37 +8917,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="195" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="195" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="37" customWidth="1"/>
     <col min="10" max="10" width="10" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="9.109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8945,18 +8966,18 @@
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
@@ -8964,7 +8985,7 @@
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
@@ -8987,7 +9008,7 @@
       <c r="N3" s="172"/>
       <c r="O3" s="174"/>
     </row>
-    <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -9013,7 +9034,7 @@
       <c r="N4" s="172"/>
       <c r="O4" s="175"/>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="138" t="s">
         <v>10</v>
       </c>
@@ -9050,13 +9071,13 @@
       <c r="N5" s="176"/>
       <c r="O5" s="173"/>
     </row>
-    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="219" t="s">
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
       <c r="E6" s="197"/>
       <c r="F6" s="209" t="s">
         <v>189</v>
@@ -9068,7 +9089,7 @@
       <c r="K6" s="146"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="147">
         <v>1</v>
       </c>
@@ -9108,7 +9129,7 @@
       <c r="L7" s="22"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="147">
         <v>2</v>
       </c>
@@ -9148,7 +9169,7 @@
       <c r="L8" s="22"/>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A9" s="147">
         <v>3</v>
       </c>
@@ -9188,7 +9209,7 @@
       <c r="L9" s="22"/>
       <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="147">
         <v>4</v>
       </c>
@@ -9228,7 +9249,7 @@
       <c r="L10" s="22"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="147">
         <v>5</v>
       </c>
@@ -9268,7 +9289,7 @@
       <c r="L11" s="22"/>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A12" s="147">
         <v>6</v>
       </c>
@@ -9308,14 +9329,14 @@
       <c r="L12" s="22"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="223" t="s">
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="224" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="224"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="225"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="226"/>
       <c r="F13" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9327,7 +9348,7 @@
       <c r="K13" s="146"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="147">
         <v>7</v>
       </c>
@@ -9341,7 +9362,7 @@
       <c r="E14" s="218">
         <v>164521.5</v>
       </c>
-      <c r="F14" s="242">
+      <c r="F14" s="219">
         <f>E14-E14*4%</f>
         <v>157940.64000000001</v>
       </c>
@@ -9366,7 +9387,7 @@
       </c>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="147">
         <v>8</v>
       </c>
@@ -9380,7 +9401,7 @@
       <c r="E15" s="218">
         <v>174460</v>
       </c>
-      <c r="F15" s="242">
+      <c r="F15" s="219">
         <f t="shared" si="3"/>
         <v>167481.60000000001</v>
       </c>
@@ -9405,7 +9426,7 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="147">
         <v>9</v>
       </c>
@@ -9419,7 +9440,7 @@
       <c r="E16" s="218">
         <v>192010</v>
       </c>
-      <c r="F16" s="242">
+      <c r="F16" s="219">
         <f t="shared" si="3"/>
         <v>184329.60000000001</v>
       </c>
@@ -9444,7 +9465,7 @@
       </c>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="147">
         <v>10</v>
       </c>
@@ -9458,7 +9479,7 @@
       <c r="E17" s="218">
         <v>210086.5</v>
       </c>
-      <c r="F17" s="242">
+      <c r="F17" s="219">
         <f t="shared" si="3"/>
         <v>201683.04</v>
       </c>
@@ -9483,7 +9504,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="147">
         <v>11</v>
       </c>
@@ -9497,7 +9518,7 @@
       <c r="E18" s="218">
         <v>233369.5</v>
       </c>
-      <c r="F18" s="242">
+      <c r="F18" s="219">
         <f t="shared" si="3"/>
         <v>224034.72</v>
       </c>
@@ -9522,7 +9543,7 @@
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="147"/>
       <c r="B19" s="215"/>
       <c r="C19" s="216" t="s">
@@ -9534,7 +9555,7 @@
       <c r="E19" s="218">
         <v>255989.5</v>
       </c>
-      <c r="F19" s="242">
+      <c r="F19" s="219">
         <f t="shared" si="3"/>
         <v>245749.92</v>
       </c>
@@ -9559,7 +9580,7 @@
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="147"/>
       <c r="B20" s="215"/>
       <c r="C20" s="216" t="s">
@@ -9571,7 +9592,7 @@
       <c r="E20" s="218">
         <v>282314.5</v>
       </c>
-      <c r="F20" s="242">
+      <c r="F20" s="219">
         <f t="shared" si="3"/>
         <v>271021.92</v>
       </c>
@@ -9596,7 +9617,7 @@
       </c>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="147"/>
       <c r="B21" s="215"/>
       <c r="C21" s="216" t="s">
@@ -9608,7 +9629,7 @@
       <c r="E21" s="218">
         <v>319631</v>
       </c>
-      <c r="F21" s="242">
+      <c r="F21" s="219">
         <f t="shared" si="3"/>
         <v>306845.76</v>
       </c>
@@ -9633,7 +9654,7 @@
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="147">
         <v>12</v>
       </c>
@@ -9647,7 +9668,7 @@
       <c r="E22" s="218">
         <v>361114</v>
       </c>
-      <c r="F22" s="242">
+      <c r="F22" s="219">
         <f t="shared" si="3"/>
         <v>346669.44</v>
       </c>
@@ -9672,7 +9693,7 @@
       </c>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="182" t="s">
         <v>75</v>
       </c>
@@ -9691,7 +9712,7 @@
       <c r="K23" s="146"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="149" t="s">
         <v>76</v>
       </c>
@@ -9710,12 +9731,12 @@
       <c r="K24" s="150"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="147">
         <v>13</v>
       </c>
       <c r="B25" s="181"/>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="244" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="177" t="s">
@@ -9724,11 +9745,11 @@
       <c r="E25" s="202">
         <v>213544.5</v>
       </c>
-      <c r="F25" s="208">
+      <c r="F25" s="245">
         <f t="shared" si="3"/>
         <v>205002.72</v>
       </c>
-      <c r="G25" s="126">
+      <c r="G25" s="243">
         <f t="shared" si="0"/>
         <v>43777203341.040001</v>
       </c>
@@ -9749,7 +9770,7 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="147">
         <v>14</v>
       </c>
@@ -9763,11 +9784,11 @@
       <c r="E26" s="202">
         <v>229099</v>
       </c>
-      <c r="F26" s="208">
-        <f t="shared" si="3"/>
+      <c r="F26" s="245">
+        <f>E26-E26*4%</f>
         <v>219935.04</v>
       </c>
-      <c r="G26" s="126">
+      <c r="G26" s="243">
         <f t="shared" si="0"/>
         <v>50386897728.959999</v>
       </c>
@@ -9788,7 +9809,7 @@
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="147">
         <v>15</v>
       </c>
@@ -9802,11 +9823,11 @@
       <c r="E27" s="202">
         <v>253942</v>
       </c>
-      <c r="F27" s="208">
+      <c r="F27" s="245">
         <f t="shared" si="3"/>
         <v>243784.32000000001</v>
       </c>
-      <c r="G27" s="126">
+      <c r="G27" s="243">
         <f t="shared" si="0"/>
         <v>61907077789.440002</v>
       </c>
@@ -9827,7 +9848,7 @@
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="147">
         <v>16</v>
       </c>
@@ -9841,11 +9862,11 @@
       <c r="E28" s="202">
         <v>279909.5</v>
       </c>
-      <c r="F28" s="208">
+      <c r="F28" s="245">
         <f t="shared" si="3"/>
         <v>268713.12</v>
       </c>
-      <c r="G28" s="126">
+      <c r="G28" s="243">
         <f t="shared" si="0"/>
         <v>75215355062.639999</v>
       </c>
@@ -9866,7 +9887,7 @@
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="147">
         <v>17</v>
       </c>
@@ -9880,11 +9901,11 @@
       <c r="E29" s="202">
         <v>318753.5</v>
       </c>
-      <c r="F29" s="208">
+      <c r="F29" s="245">
         <f t="shared" si="3"/>
         <v>306003.36</v>
       </c>
-      <c r="G29" s="126">
+      <c r="G29" s="243">
         <f t="shared" si="0"/>
         <v>97539642011.759995</v>
       </c>
@@ -9905,7 +9926,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="147">
         <v>18</v>
       </c>
@@ -9919,11 +9940,11 @@
       <c r="E30" s="202">
         <v>344025.5</v>
       </c>
-      <c r="F30" s="208">
+      <c r="F30" s="245">
         <f t="shared" si="3"/>
         <v>330264.48</v>
       </c>
-      <c r="G30" s="126">
+      <c r="G30" s="243">
         <f t="shared" si="0"/>
         <v>113619402864.23999</v>
       </c>
@@ -9944,7 +9965,7 @@
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="149" t="s">
         <v>83</v>
       </c>
@@ -9966,7 +9987,7 @@
       <c r="K31" s="150"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="147">
         <v>20</v>
       </c>
@@ -9980,11 +10001,11 @@
       <c r="E32" s="202">
         <v>221045.5</v>
       </c>
-      <c r="F32" s="208">
+      <c r="F32" s="245">
         <f t="shared" si="3"/>
         <v>212203.68</v>
       </c>
-      <c r="G32" s="126">
+      <c r="G32" s="243">
         <f t="shared" si="0"/>
         <v>46906668547.439995</v>
       </c>
@@ -10005,7 +10026,7 @@
       </c>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="147">
         <v>21</v>
       </c>
@@ -10019,11 +10040,11 @@
       <c r="E33" s="202">
         <v>255320</v>
       </c>
-      <c r="F33" s="208">
+      <c r="F33" s="245">
         <f t="shared" si="3"/>
         <v>245107.20000000001</v>
       </c>
-      <c r="G33" s="126">
+      <c r="G33" s="243">
         <f t="shared" si="0"/>
         <v>62580770304</v>
       </c>
@@ -10044,7 +10065,7 @@
       </c>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="147">
         <v>22</v>
       </c>
@@ -10058,11 +10079,11 @@
       <c r="E34" s="202">
         <v>283946</v>
       </c>
-      <c r="F34" s="208">
+      <c r="F34" s="245">
         <f t="shared" si="3"/>
         <v>272588.15999999997</v>
       </c>
-      <c r="G34" s="126">
+      <c r="G34" s="243">
         <f t="shared" si="0"/>
         <v>77400317679.359985</v>
       </c>
@@ -10083,7 +10104,7 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="147">
         <v>23</v>
       </c>
@@ -10097,11 +10118,11 @@
       <c r="E35" s="202">
         <v>312403</v>
       </c>
-      <c r="F35" s="208">
+      <c r="F35" s="245">
         <f t="shared" si="3"/>
         <v>299906.88</v>
       </c>
-      <c r="G35" s="126">
+      <c r="G35" s="243">
         <f t="shared" si="0"/>
         <v>93691809032.639999</v>
       </c>
@@ -10122,7 +10143,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="147">
         <v>24</v>
       </c>
@@ -10136,11 +10157,11 @@
       <c r="E36" s="202">
         <v>340619.5</v>
       </c>
-      <c r="F36" s="208">
+      <c r="F36" s="245">
         <f t="shared" si="3"/>
         <v>326994.71999999997</v>
       </c>
-      <c r="G36" s="126">
+      <c r="G36" s="243">
         <f t="shared" si="0"/>
         <v>111380778029.03999</v>
       </c>
@@ -10161,7 +10182,7 @@
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="147">
         <v>25</v>
       </c>
@@ -10175,11 +10196,11 @@
       <c r="E37" s="202">
         <v>386210.5</v>
       </c>
-      <c r="F37" s="208">
+      <c r="F37" s="245">
         <f t="shared" si="3"/>
         <v>370762.08</v>
       </c>
-      <c r="G37" s="126">
+      <c r="G37" s="243">
         <f t="shared" si="0"/>
         <v>143192208297.84</v>
       </c>
@@ -10200,7 +10221,7 @@
       </c>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="183" t="s">
         <v>90</v>
       </c>
@@ -10219,7 +10240,7 @@
       <c r="K38" s="151"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="147">
         <v>26</v>
       </c>
@@ -10258,7 +10279,7 @@
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="147">
         <v>27</v>
       </c>
@@ -10297,7 +10318,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="147">
         <v>28</v>
       </c>
@@ -10321,7 +10342,7 @@
       </c>
       <c r="H41" s="127">
         <f t="shared" si="7"/>
-        <v>1663031308477.5937</v>
+        <v>1663031308477.5938</v>
       </c>
       <c r="I41" s="127">
         <f t="shared" si="8"/>
@@ -10336,7 +10357,7 @@
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="147">
         <v>29</v>
       </c>
@@ -10375,7 +10396,7 @@
       </c>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="147">
         <v>30</v>
       </c>
@@ -10414,7 +10435,7 @@
       </c>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="147">
         <v>31</v>
       </c>
@@ -10453,7 +10474,7 @@
       </c>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="147">
         <v>32</v>
       </c>
@@ -10492,7 +10513,7 @@
       </c>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="147">
         <v>33</v>
       </c>
@@ -10531,7 +10552,7 @@
       </c>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="147">
         <v>34</v>
       </c>
@@ -10570,13 +10591,13 @@
       </c>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="221" t="s">
+    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="222"/>
-      <c r="C48" s="222"/>
-      <c r="D48" s="222"/>
+      <c r="B48" s="223"/>
+      <c r="C48" s="223"/>
+      <c r="D48" s="223"/>
       <c r="E48" s="199"/>
       <c r="F48" s="208">
         <f t="shared" si="3"/>
@@ -10589,7 +10610,7 @@
       <c r="K48" s="152"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="147">
         <v>35</v>
       </c>
@@ -10628,7 +10649,7 @@
       </c>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="147">
         <v>36</v>
       </c>
@@ -10667,7 +10688,7 @@
       </c>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="147">
         <v>37</v>
       </c>
@@ -10706,7 +10727,7 @@
       </c>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="147">
         <v>38</v>
       </c>
@@ -10745,7 +10766,7 @@
       </c>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="153">
         <v>39</v>
       </c>
@@ -10784,7 +10805,7 @@
       </c>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="119">
         <v>30</v>
       </c>
@@ -10820,7 +10841,7 @@
       </c>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="105">
         <v>31</v>
       </c>
@@ -10856,7 +10877,7 @@
       </c>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D56" s="104"/>
       <c r="F56" s="170"/>
       <c r="G56" s="137">
@@ -10875,22 +10896,22 @@
       <c r="K56" s="7"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L62" s="22"/>
     </row>
   </sheetData>
@@ -10909,7 +10930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -10917,34 +10938,34 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="195" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="195" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="36"/>
-    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="15" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="118"/>
-    <col min="21" max="21" width="9.140625" style="7"/>
-    <col min="22" max="22" width="10.85546875" style="118" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="118" customWidth="1"/>
-    <col min="24" max="26" width="9.140625" style="118"/>
-    <col min="27" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.109375" style="36"/>
+    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="7"/>
+    <col min="15" max="15" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.109375" style="118"/>
+    <col min="21" max="21" width="9.109375" style="7"/>
+    <col min="22" max="22" width="10.88671875" style="118" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="118" customWidth="1"/>
+    <col min="24" max="26" width="9.109375" style="118"/>
+    <col min="27" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10961,16 +10982,16 @@
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
       <c r="Y1" s="117"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="95"/>
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
@@ -10983,7 +11004,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="57"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="95"/>
       <c r="B3" s="96"/>
       <c r="C3" s="97"/>
@@ -11012,7 +11033,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -11043,7 +11064,7 @@
       <c r="W4" s="62"/>
       <c r="X4" s="63"/>
     </row>
-    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="138" t="s">
         <v>10</v>
       </c>
@@ -11087,14 +11108,14 @@
       <c r="W5" s="64"/>
       <c r="X5" s="64"/>
     </row>
-    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="219" t="s">
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="231"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
       <c r="F6" s="197"/>
       <c r="G6" s="171"/>
       <c r="H6" s="129"/>
@@ -11104,7 +11125,7 @@
       <c r="L6" s="152"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="163">
         <v>1</v>
       </c>
@@ -11143,7 +11164,7 @@
       </c>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="163">
         <v>2</v>
       </c>
@@ -11182,14 +11203,14 @@
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="227" t="s">
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
       <c r="F9" s="199"/>
       <c r="G9" s="171"/>
       <c r="H9" s="129"/>
@@ -11199,7 +11220,7 @@
       <c r="L9" s="152"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:25" ht="126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A10" s="163">
         <v>3</v>
       </c>
@@ -11238,7 +11259,7 @@
       </c>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="126" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A11" s="163">
         <v>4</v>
       </c>
@@ -11277,14 +11298,14 @@
       </c>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="227" t="s">
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="228"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
       <c r="F12" s="199"/>
       <c r="G12" s="171"/>
       <c r="H12" s="129"/>
@@ -11294,7 +11315,7 @@
       <c r="L12" s="152"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A13" s="163">
         <v>5</v>
       </c>
@@ -11333,7 +11354,7 @@
       </c>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="163">
         <v>6</v>
       </c>
@@ -11372,7 +11393,7 @@
       </c>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="163">
         <v>7</v>
       </c>
@@ -11411,7 +11432,7 @@
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A16" s="163">
         <v>8</v>
       </c>
@@ -11450,14 +11471,14 @@
       </c>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="227" t="s">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="228"/>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="228"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
       <c r="F17" s="199"/>
       <c r="G17" s="171"/>
       <c r="H17" s="129"/>
@@ -11467,7 +11488,7 @@
       <c r="L17" s="152"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="163">
         <v>9</v>
       </c>
@@ -11506,7 +11527,7 @@
       </c>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A19" s="163">
         <v>10</v>
       </c>
@@ -11545,7 +11566,7 @@
       </c>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A20" s="163">
         <v>11</v>
       </c>
@@ -11584,7 +11605,7 @@
       </c>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A21" s="163">
         <v>12</v>
       </c>
@@ -11623,14 +11644,14 @@
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="219" t="s">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="220" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="231"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
       <c r="F22" s="199"/>
       <c r="G22" s="171"/>
       <c r="H22" s="129"/>
@@ -11640,15 +11661,15 @@
       <c r="L22" s="152"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="163">
         <v>11</v>
       </c>
       <c r="B23" s="125"/>
-      <c r="C23" s="230" t="s">
+      <c r="C23" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="230"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="190" t="s">
         <v>150</v>
       </c>
@@ -11672,15 +11693,15 @@
       <c r="L23" s="148"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="163">
         <v>12</v>
       </c>
       <c r="B24" s="125"/>
-      <c r="C24" s="230" t="s">
+      <c r="C24" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="230"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="190" t="s">
         <v>151</v>
       </c>
@@ -11704,15 +11725,15 @@
       <c r="L24" s="148"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="163">
         <v>13</v>
       </c>
       <c r="B25" s="125"/>
-      <c r="C25" s="230" t="s">
+      <c r="C25" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="230"/>
+      <c r="D25" s="231"/>
       <c r="E25" s="187"/>
       <c r="F25" s="198">
         <v>202039.5</v>
@@ -11734,15 +11755,15 @@
       <c r="L25" s="148"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="163">
         <v>14</v>
       </c>
       <c r="B26" s="125"/>
-      <c r="C26" s="230" t="s">
+      <c r="C26" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="230"/>
+      <c r="D26" s="231"/>
       <c r="E26" s="187"/>
       <c r="F26" s="198">
         <v>207129</v>
@@ -11764,15 +11785,15 @@
       <c r="L26" s="148"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="164">
         <v>15</v>
       </c>
       <c r="B27" s="165"/>
-      <c r="C27" s="229" t="s">
+      <c r="C27" s="230" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="229"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="188"/>
       <c r="F27" s="200">
         <v>233441</v>
@@ -11794,7 +11815,7 @@
       <c r="L27" s="158"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F28" s="201"/>
       <c r="H28" s="168">
         <f>SUM(H6:H27)</f>
@@ -11809,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="22"/>
@@ -11837,7 +11858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11848,29 +11869,29 @@
       <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="30" style="21" customWidth="1"/>
     <col min="3" max="3" width="54" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="49" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="21" customWidth="1"/>
-    <col min="9" max="10" width="18.5703125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="21" customWidth="1"/>
+    <col min="9" max="10" width="18.5546875" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="15" width="11.28515625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="35.42578125" style="7" customWidth="1"/>
-    <col min="18" max="19" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.109375" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="7"/>
+    <col min="15" max="15" width="11.33203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="35.44140625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11887,7 +11908,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -11904,7 +11925,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -11921,7 +11942,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -11938,7 +11959,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -11953,7 +11974,7 @@
       <c r="J5" s="35"/>
       <c r="P5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -11970,7 +11991,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="66"/>
@@ -11992,7 +12013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="28"/>
@@ -12022,7 +12043,7 @@
       <c r="P9" s="11"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
         <v>10</v>
       </c>
@@ -12062,14 +12083,14 @@
       <c r="O10" s="12"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="232" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -12082,7 +12103,7 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78">
         <v>1</v>
       </c>
@@ -12120,14 +12141,14 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="234" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="235" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12135,7 +12156,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="81">
         <v>2</v>
       </c>
@@ -12168,7 +12189,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81">
         <v>3</v>
       </c>
@@ -12201,7 +12222,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81">
         <v>4</v>
       </c>
@@ -12234,11 +12255,11 @@
       <c r="K16" s="55"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="236"/>
+      <c r="B17" s="237"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12267,11 +12288,11 @@
       <c r="K17" s="55"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="237"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12300,11 +12321,11 @@
       <c r="K18" s="55"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="238"/>
+      <c r="B19" s="239"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12333,14 +12354,14 @@
       <c r="K19" s="55"/>
       <c r="L19" s="42"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="234" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="235"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="235"/>
-      <c r="E20" s="235"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12348,7 +12369,7 @@
       <c r="K20" s="55"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86">
         <v>8</v>
       </c>
@@ -12381,7 +12402,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="42"/>
     </row>
-    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>9</v>
       </c>
@@ -12414,7 +12435,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78">
         <v>10</v>
       </c>
@@ -12447,7 +12468,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="42"/>
     </row>
-    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78">
         <v>11</v>
       </c>
@@ -12480,7 +12501,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78">
         <v>12</v>
       </c>
@@ -12513,7 +12534,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="42"/>
     </row>
-    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78">
         <v>13</v>
       </c>
@@ -12546,14 +12567,14 @@
       <c r="K26" s="55"/>
       <c r="L26" s="42"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="234" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="235"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="235"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12561,11 +12582,11 @@
       <c r="K27" s="55"/>
       <c r="L27" s="42"/>
     </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="239"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12594,11 +12615,11 @@
       <c r="K28" s="55"/>
       <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="241"/>
+      <c r="B29" s="242"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12627,11 +12648,11 @@
       <c r="K29" s="55"/>
       <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="239"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12660,11 +12681,11 @@
       <c r="K30" s="55"/>
       <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="241"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12693,11 +12714,11 @@
       <c r="K31" s="55"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="239"/>
+      <c r="B32" s="240"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12726,11 +12747,11 @@
       <c r="K32" s="55"/>
       <c r="L32" s="42"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="240"/>
+      <c r="B33" s="241"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12759,11 +12780,11 @@
       <c r="K33" s="55"/>
       <c r="L33" s="42"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="240"/>
+      <c r="B34" s="241"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12792,11 +12813,11 @@
       <c r="K34" s="55"/>
       <c r="L34" s="42"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="240"/>
+      <c r="B35" s="241"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12825,11 +12846,11 @@
       <c r="K35" s="55"/>
       <c r="L35" s="42"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="240"/>
+      <c r="B36" s="241"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12858,11 +12879,11 @@
       <c r="K36" s="55"/>
       <c r="L36" s="42"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="240"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -12891,11 +12912,11 @@
       <c r="K37" s="55"/>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="241"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -12924,14 +12945,14 @@
       <c r="K38" s="55"/>
       <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="234" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="235"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="235"/>
-      <c r="E39" s="235"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="236"/>
+      <c r="D39" s="236"/>
+      <c r="E39" s="236"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>
@@ -12939,7 +12960,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="81">
         <v>25</v>
       </c>
@@ -12972,7 +12993,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="42"/>
     </row>
-    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="81">
         <v>26</v>
       </c>
@@ -13005,7 +13026,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="42"/>
     </row>
-    <row r="42" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="67"/>
       <c r="H42" s="68" t="e">
         <f>SUM(H11:H41)</f>
@@ -13020,32 +13041,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="70"/>
       <c r="F54" s="31"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="70"/>
       <c r="F55" s="31"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="70"/>
       <c r="F56" s="31"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="70"/>
       <c r="F57" s="31"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="70"/>
       <c r="F58" s="31"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="70"/>
       <c r="F59" s="31"/>
       <c r="G59" s="43"/>

--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\OpenServer 5.4.3\domains\TimeForEeexperiments\SoftIce\ice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B805C-A7E6-4654-9D7C-E74ABBF5AEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12408" yWindow="2028" windowWidth="10632" windowHeight="10332" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12405" yWindow="2025" windowWidth="10635" windowHeight="10335" tabRatio="654"/>
   </bookViews>
   <sheets>
     <sheet name="Лари" sheetId="9" r:id="rId1"/>
     <sheet name="Бонеты" sheetId="15" r:id="rId2"/>
     <sheet name="Снеж компл-е" sheetId="10" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2185,7 +2179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -3585,7 +3579,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3923,9 +3917,6 @@
     <xf numFmtId="0" fontId="36" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="23" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3983,9 +3974,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4045,21 +4033,9 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4086,15 +4062,6 @@
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="38" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4114,18 +4081,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="56" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="36" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4168,6 +4129,12 @@
     <xf numFmtId="3" fontId="35" fillId="21" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="35" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="22" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4237,18 +4204,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="14" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="22" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="45" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Акцент1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="3" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="4" builtinId="37" customBuiltin="1"/>
@@ -4268,10 +4256,10 @@
     <cellStyle name="Название" xfId="18" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Обычный_Балки БТ50" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный 2" xfId="20"/>
+    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29"/>
+    <cellStyle name="Обычный_Балки БТ50" xfId="28"/>
+    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30"/>
     <cellStyle name="Плохой" xfId="21" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="23" builtinId="10" customBuiltin="1"/>
@@ -4385,7 +4373,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4435,7 +4423,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4485,7 +4473,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4535,7 +4523,7 @@
         <xdr:cNvPr id="67" name="Рисунок 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4573,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,7 +4623,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4685,7 +4673,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4735,7 +4723,7 @@
         <xdr:cNvPr id="72" name="Рисунок 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +4773,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4835,7 +4823,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +4873,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +4923,7 @@
         <xdr:cNvPr id="73" name="Рисунок 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4985,7 +4973,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5035,7 +5023,7 @@
         <xdr:cNvPr id="74" name="Рисунок 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5085,7 +5073,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5135,7 +5123,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5185,7 +5173,7 @@
         <xdr:cNvPr id="76" name="Рисунок 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5235,7 +5223,7 @@
         <xdr:cNvPr id="78" name="Рисунок 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5285,7 +5273,7 @@
         <xdr:cNvPr id="79" name="Рисунок 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5323,7 @@
         <xdr:cNvPr id="81" name="Рисунок 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5385,7 +5373,7 @@
         <xdr:cNvPr id="82" name="Рисунок 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5435,7 +5423,7 @@
         <xdr:cNvPr id="83" name="Рисунок 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5457,8 +5445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="721178" y="31201179"/>
-          <a:ext cx="1347107" cy="1334399"/>
+          <a:off x="714374" y="47178233"/>
+          <a:ext cx="1347107" cy="2286899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5485,7 +5473,7 @@
         <xdr:cNvPr id="86" name="Рисунок 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5520,22 +5508,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
+      <xdr:colOff>170089</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1292679</xdr:rowOff>
+      <xdr:rowOff>1530804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1760969</xdr:colOff>
+      <xdr:colOff>1808594</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1282337</xdr:rowOff>
+      <xdr:rowOff>1520462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="88" name="Рисунок 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5557,8 +5545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="557893" y="33813750"/>
-          <a:ext cx="1638505" cy="1368878"/>
+          <a:off x="598714" y="50981429"/>
+          <a:ext cx="1638505" cy="2085158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5585,7 +5573,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5635,7 +5623,7 @@
         <xdr:cNvPr id="91" name="Рисунок 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5685,7 +5673,7 @@
         <xdr:cNvPr id="93" name="Рисунок 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5735,7 +5723,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5785,7 +5773,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5820,22 +5808,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>367395</xdr:colOff>
+      <xdr:colOff>383270</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>99785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1336327</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1332139</xdr:rowOff>
+      <xdr:colOff>1352202</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5857,7 +5845,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="802824" y="42141321"/>
+          <a:off x="811895" y="62917160"/>
           <a:ext cx="968932" cy="1264104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5885,7 +5873,7 @@
         <xdr:cNvPr id="100" name="Рисунок 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5935,7 +5923,7 @@
         <xdr:cNvPr id="101" name="Рисунок 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5985,7 +5973,7 @@
         <xdr:cNvPr id="102" name="Рисунок 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6035,7 +6023,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6085,7 +6073,7 @@
         <xdr:cNvPr id="106" name="Рисунок 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6135,7 +6123,7 @@
         <xdr:cNvPr id="107" name="Рисунок 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6185,7 +6173,7 @@
         <xdr:cNvPr id="109" name="Рисунок 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,7 +6223,7 @@
         <xdr:cNvPr id="110" name="Рисунок 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6285,7 +6273,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6335,7 +6323,7 @@
         <xdr:cNvPr id="113" name="Рисунок 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6385,7 +6373,7 @@
         <xdr:cNvPr id="114" name="Рисунок 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6435,7 +6423,7 @@
         <xdr:cNvPr id="44" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6514,7 +6502,7 @@
         <xdr:cNvPr id="2" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6588,7 +6576,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6638,7 +6626,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6688,7 +6676,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6738,7 +6726,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6788,7 +6776,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6838,7 +6826,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6888,7 +6876,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07222039-639E-48CE-A508-42EE22195058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6938,7 +6926,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6988,7 +6976,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7038,7 +7026,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7088,7 +7076,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7138,7 +7126,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7188,7 +7176,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7238,7 +7226,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7288,7 +7276,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7338,7 +7326,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7388,7 +7376,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7443,7 +7431,7 @@
         <xdr:cNvPr id="18" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7517,7 +7505,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7560,7 +7548,7 @@
         <xdr:cNvPr id="90" name="Рисунок 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7604,7 +7592,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7648,7 +7636,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7680,7 @@
         <xdr:cNvPr id="97" name="Рисунок 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7735,7 +7723,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7778,7 +7766,7 @@
         <xdr:cNvPr id="99" name="Рисунок 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7810,7 @@
         <xdr:cNvPr id="100" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7896,7 +7884,7 @@
         <xdr:cNvPr id="101" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7970,7 +7958,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8014,7 +8002,7 @@
         <xdr:cNvPr id="105" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8089,7 +8077,7 @@
 Ð¾Ð»Ð¾Ð´&quot; Ð² Ð¡Ð°Ð¼Ð°ÑÐµ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8148,7 +8136,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8192,7 +8180,7 @@
         <xdr:cNvPr id="116" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8266,7 +8254,7 @@
         <xdr:cNvPr id="119" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8340,7 +8328,7 @@
         <xdr:cNvPr id="121" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8414,7 +8402,7 @@
         <xdr:cNvPr id="136" name="Рисунок 135" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÑÑÑÐºÐ° ÐÐÐ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8473,7 +8461,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8517,7 +8505,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8917,37 +8905,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="5" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="195" customWidth="1"/>
-    <col min="6" max="6" width="19" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="186" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="37" customWidth="1"/>
     <col min="10" max="10" width="10" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="7"/>
+    <col min="11" max="11" width="9.140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8959,33 +8947,33 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="194"/>
+      <c r="F1" s="185"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="173"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
@@ -9005,15 +8993,15 @@
         <f>I56+Бонеты!J28</f>
         <v>706996511.51999998</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="174"/>
-    </row>
-    <row r="4" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="170"/>
+      <c r="O3" s="172"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
       <c r="D4" s="116"/>
-      <c r="E4" s="201"/>
+      <c r="E4" s="192"/>
       <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9031,79 +9019,79 @@
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="4"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="175"/>
-    </row>
-    <row r="5" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="s">
+      <c r="N4" s="170"/>
+      <c r="O4" s="173"/>
+    </row>
+    <row r="5" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="196" t="s">
+      <c r="E5" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="144" t="s">
+      <c r="J5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="145" t="s">
+      <c r="K5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="176"/>
-      <c r="O5" s="173"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="s">
+      <c r="N5" s="174"/>
+      <c r="O5" s="171"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="209" t="s">
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="198" t="s">
         <v>189</v>
       </c>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
       <c r="I6" s="124"/>
       <c r="J6" s="124"/>
-      <c r="K6" s="146"/>
+      <c r="K6" s="145"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="147">
+    <row r="7" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="146">
         <v>1</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="211" t="s">
+      <c r="B7" s="199"/>
+      <c r="C7" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="212" t="s">
+      <c r="D7" s="201" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="213">
+      <c r="E7" s="202">
         <v>199927</v>
       </c>
-      <c r="F7" s="214">
+      <c r="F7" s="203">
         <f>E7-E7*4%</f>
         <v>191929.92</v>
       </c>
@@ -9123,27 +9111,27 @@
         <f>0.84*0.6*0.8</f>
         <v>0.4032</v>
       </c>
-      <c r="K7" s="148">
+      <c r="K7" s="147">
         <v>48</v>
       </c>
       <c r="L7" s="22"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="147">
+    <row r="8" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="146">
         <v>2</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="211" t="s">
+      <c r="B8" s="199"/>
+      <c r="C8" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="212" t="s">
+      <c r="D8" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="213">
+      <c r="E8" s="202">
         <v>218712</v>
       </c>
-      <c r="F8" s="214">
+      <c r="F8" s="203">
         <f>E8-E8*4%</f>
         <v>209963.51999999999</v>
       </c>
@@ -9163,27 +9151,27 @@
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K8" s="148">
+      <c r="K8" s="147">
         <v>67</v>
       </c>
       <c r="L8" s="22"/>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="147">
+    <row r="9" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="146">
         <v>3</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="211" t="s">
+      <c r="B9" s="199"/>
+      <c r="C9" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="212" t="s">
+      <c r="D9" s="201" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="213">
+      <c r="E9" s="202">
         <v>243067.5</v>
       </c>
-      <c r="F9" s="214">
+      <c r="F9" s="203">
         <f t="shared" ref="F9:F53" si="3">E9-E9*4%</f>
         <v>233344.8</v>
       </c>
@@ -9203,27 +9191,27 @@
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K9" s="148">
+      <c r="K9" s="147">
         <v>62</v>
       </c>
       <c r="L9" s="22"/>
       <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="147">
+    <row r="10" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="146">
         <v>4</v>
       </c>
-      <c r="B10" s="210"/>
-      <c r="C10" s="211" t="s">
+      <c r="B10" s="199"/>
+      <c r="C10" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="212" t="s">
+      <c r="D10" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="213">
+      <c r="E10" s="202">
         <v>266545.5</v>
       </c>
-      <c r="F10" s="214">
+      <c r="F10" s="203">
         <f t="shared" si="3"/>
         <v>255883.68</v>
       </c>
@@ -9243,27 +9231,27 @@
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K10" s="148">
+      <c r="K10" s="147">
         <v>70</v>
       </c>
       <c r="L10" s="22"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="147">
+    <row r="11" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="146">
         <v>5</v>
       </c>
-      <c r="B11" s="210"/>
-      <c r="C11" s="211" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="212" t="s">
+      <c r="D11" s="201" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="213">
+      <c r="E11" s="202">
         <v>293949.5</v>
       </c>
-      <c r="F11" s="214">
+      <c r="F11" s="203">
         <f t="shared" si="3"/>
         <v>282191.52</v>
       </c>
@@ -9283,27 +9271,27 @@
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K11" s="148">
+      <c r="K11" s="147">
         <v>75</v>
       </c>
       <c r="L11" s="22"/>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:26" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="147">
+    <row r="12" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="146">
         <v>6</v>
       </c>
-      <c r="B12" s="210"/>
-      <c r="C12" s="211" t="s">
+      <c r="B12" s="199"/>
+      <c r="C12" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="212" t="s">
+      <c r="D12" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="213">
+      <c r="E12" s="202">
         <v>332793.5</v>
       </c>
-      <c r="F12" s="214">
+      <c r="F12" s="203">
         <f t="shared" si="3"/>
         <v>319481.76</v>
       </c>
@@ -9323,21 +9311,21 @@
         <f>0.84*0.6*1.8</f>
         <v>0.90720000000000001</v>
       </c>
-      <c r="K12" s="148">
+      <c r="K12" s="147">
         <v>86</v>
       </c>
       <c r="L12" s="22"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="224" t="s">
+    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="208">
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9345,24 +9333,24 @@
       <c r="H13" s="124"/>
       <c r="I13" s="124"/>
       <c r="J13" s="124"/>
-      <c r="K13" s="146"/>
+      <c r="K13" s="145"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="147">
+    <row r="14" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="146">
         <v>7</v>
       </c>
-      <c r="B14" s="215"/>
-      <c r="C14" s="216" t="s">
+      <c r="B14" s="204"/>
+      <c r="C14" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="217" t="s">
+      <c r="D14" s="206" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="218">
+      <c r="E14" s="207">
         <v>164521.5</v>
       </c>
-      <c r="F14" s="219">
+      <c r="F14" s="208">
         <f>E14-E14*4%</f>
         <v>157940.64000000001</v>
       </c>
@@ -9382,26 +9370,26 @@
         <f>0.84*0.7*0.7</f>
         <v>0.41159999999999997</v>
       </c>
-      <c r="K14" s="148">
+      <c r="K14" s="147">
         <v>43</v>
       </c>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="147">
+    <row r="15" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="146">
         <v>8</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="216" t="s">
+      <c r="B15" s="204"/>
+      <c r="C15" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="217" t="s">
+      <c r="D15" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="218">
+      <c r="E15" s="207">
         <v>174460</v>
       </c>
-      <c r="F15" s="219">
+      <c r="F15" s="208">
         <f t="shared" si="3"/>
         <v>167481.60000000001</v>
       </c>
@@ -9421,26 +9409,26 @@
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K15" s="148">
+      <c r="K15" s="147">
         <v>45</v>
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="147">
+    <row r="16" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="146">
         <v>9</v>
       </c>
-      <c r="B16" s="215"/>
-      <c r="C16" s="216" t="s">
+      <c r="B16" s="204"/>
+      <c r="C16" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="217" t="s">
+      <c r="D16" s="206" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="218">
+      <c r="E16" s="207">
         <v>192010</v>
       </c>
-      <c r="F16" s="219">
+      <c r="F16" s="208">
         <f t="shared" si="3"/>
         <v>184329.60000000001</v>
       </c>
@@ -9460,26 +9448,26 @@
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K16" s="148">
+      <c r="K16" s="147">
         <v>48</v>
       </c>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="147">
+    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="146">
         <v>10</v>
       </c>
-      <c r="B17" s="215"/>
-      <c r="C17" s="216" t="s">
+      <c r="B17" s="204"/>
+      <c r="C17" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="217" t="s">
+      <c r="D17" s="206" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="218">
+      <c r="E17" s="207">
         <v>210086.5</v>
       </c>
-      <c r="F17" s="219">
+      <c r="F17" s="208">
         <f t="shared" si="3"/>
         <v>201683.04</v>
       </c>
@@ -9499,26 +9487,26 @@
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K17" s="148">
+      <c r="K17" s="147">
         <v>53</v>
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="147">
+    <row r="18" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="146">
         <v>11</v>
       </c>
-      <c r="B18" s="215"/>
-      <c r="C18" s="216" t="s">
+      <c r="B18" s="204"/>
+      <c r="C18" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="217" t="s">
+      <c r="D18" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="218">
+      <c r="E18" s="207">
         <v>233369.5</v>
       </c>
-      <c r="F18" s="219">
+      <c r="F18" s="208">
         <f t="shared" si="3"/>
         <v>224034.72</v>
       </c>
@@ -9538,24 +9526,24 @@
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K18" s="148">
+      <c r="K18" s="147">
         <v>58</v>
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="147"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="216" t="s">
+    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="146"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="205" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="217" t="s">
+      <c r="D19" s="206" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="218">
+      <c r="E19" s="207">
         <v>255989.5</v>
       </c>
-      <c r="F19" s="219">
+      <c r="F19" s="208">
         <f t="shared" si="3"/>
         <v>245749.92</v>
       </c>
@@ -9571,28 +9559,28 @@
         <f t="shared" si="2"/>
         <v>15482244.960000001</v>
       </c>
-      <c r="J19" s="189">
+      <c r="J19" s="183">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K19" s="148">
+      <c r="K19" s="147">
         <v>63</v>
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="216" t="s">
+    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="146"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="217" t="s">
+      <c r="D20" s="206" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="218">
+      <c r="E20" s="207">
         <v>282314.5</v>
       </c>
-      <c r="F20" s="219">
+      <c r="F20" s="208">
         <f t="shared" si="3"/>
         <v>271021.92</v>
       </c>
@@ -9612,24 +9600,24 @@
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K20" s="148">
+      <c r="K20" s="147">
         <v>68</v>
       </c>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="147"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="216" t="s">
+    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="146"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="217" t="s">
+      <c r="D21" s="206" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="218">
+      <c r="E21" s="207">
         <v>319631</v>
       </c>
-      <c r="F21" s="219">
+      <c r="F21" s="208">
         <f t="shared" si="3"/>
         <v>306845.76</v>
       </c>
@@ -9649,26 +9637,26 @@
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K21" s="148">
+      <c r="K21" s="147">
         <v>73</v>
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="147">
+    <row r="22" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="146">
         <v>12</v>
       </c>
-      <c r="B22" s="215"/>
-      <c r="C22" s="216" t="s">
+      <c r="B22" s="204"/>
+      <c r="C22" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="217" t="s">
+      <c r="D22" s="206" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="218">
+      <c r="E22" s="207">
         <v>361114</v>
       </c>
-      <c r="F22" s="219">
+      <c r="F22" s="208">
         <f t="shared" si="3"/>
         <v>346669.44</v>
       </c>
@@ -9688,20 +9676,20 @@
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K22" s="148">
+      <c r="K22" s="147">
         <v>78</v>
       </c>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="182" t="s">
+    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="176" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="124"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="208">
+      <c r="E23" s="188"/>
+      <c r="F23" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9709,18 +9697,18 @@
       <c r="H23" s="124"/>
       <c r="I23" s="124"/>
       <c r="J23" s="124"/>
-      <c r="K23" s="146"/>
+      <c r="K23" s="145"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="149" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="148" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="130"/>
       <c r="C24" s="130"/>
       <c r="D24" s="130"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="208">
+      <c r="E24" s="193"/>
+      <c r="F24" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9728,28 +9716,28 @@
       <c r="H24" s="130"/>
       <c r="I24" s="130"/>
       <c r="J24" s="130"/>
-      <c r="K24" s="150"/>
+      <c r="K24" s="149"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="147">
+    <row r="25" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="146">
         <v>13</v>
       </c>
-      <c r="B25" s="181"/>
-      <c r="C25" s="244" t="s">
+      <c r="B25" s="234"/>
+      <c r="C25" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="236" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="202">
+      <c r="E25" s="237">
         <v>213544.5</v>
       </c>
-      <c r="F25" s="245">
+      <c r="F25" s="210">
         <f t="shared" si="3"/>
         <v>205002.72</v>
       </c>
-      <c r="G25" s="243">
+      <c r="G25" s="209">
         <f t="shared" si="0"/>
         <v>43777203341.040001</v>
       </c>
@@ -9765,30 +9753,30 @@
         <f>0.86*0.7*0.8</f>
         <v>0.48160000000000003</v>
       </c>
-      <c r="K25" s="148">
+      <c r="K25" s="147">
         <v>48</v>
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="147">
+    <row r="26" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="146">
         <v>14</v>
       </c>
-      <c r="B26" s="181"/>
-      <c r="C26" s="191" t="s">
+      <c r="B26" s="234"/>
+      <c r="C26" s="235" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="236" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="202">
+      <c r="E26" s="237">
         <v>229099</v>
       </c>
-      <c r="F26" s="245">
+      <c r="F26" s="210">
         <f>E26-E26*4%</f>
         <v>219935.04</v>
       </c>
-      <c r="G26" s="243">
+      <c r="G26" s="209">
         <f t="shared" si="0"/>
         <v>50386897728.959999</v>
       </c>
@@ -9804,30 +9792,30 @@
         <f>0.86*0.7*1</f>
         <v>0.60199999999999998</v>
       </c>
-      <c r="K26" s="148">
+      <c r="K26" s="147">
         <v>55</v>
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="147">
+    <row r="27" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="146">
         <v>15</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="192" t="s">
+      <c r="B27" s="234"/>
+      <c r="C27" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="177" t="s">
+      <c r="D27" s="236" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="202">
+      <c r="E27" s="237">
         <v>253942</v>
       </c>
-      <c r="F27" s="245">
+      <c r="F27" s="210">
         <f t="shared" si="3"/>
         <v>243784.32000000001</v>
       </c>
-      <c r="G27" s="243">
+      <c r="G27" s="209">
         <f t="shared" si="0"/>
         <v>61907077789.440002</v>
       </c>
@@ -9843,30 +9831,30 @@
         <f>0.86*0.7*1.2</f>
         <v>0.72239999999999993</v>
       </c>
-      <c r="K27" s="148">
+      <c r="K27" s="147">
         <v>63</v>
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="147">
+    <row r="28" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="146">
         <v>16</v>
       </c>
-      <c r="B28" s="181"/>
-      <c r="C28" s="191" t="s">
+      <c r="B28" s="234"/>
+      <c r="C28" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="177" t="s">
+      <c r="D28" s="236" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="202">
+      <c r="E28" s="237">
         <v>279909.5</v>
       </c>
-      <c r="F28" s="245">
+      <c r="F28" s="210">
         <f t="shared" si="3"/>
         <v>268713.12</v>
       </c>
-      <c r="G28" s="243">
+      <c r="G28" s="209">
         <f t="shared" si="0"/>
         <v>75215355062.639999</v>
       </c>
@@ -9882,30 +9870,30 @@
         <f>0.86*0.7*1.4</f>
         <v>0.84279999999999988</v>
       </c>
-      <c r="K28" s="148">
+      <c r="K28" s="147">
         <v>71</v>
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="147">
+    <row r="29" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="146">
         <v>17</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="191" t="s">
+      <c r="B29" s="234"/>
+      <c r="C29" s="235" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="177" t="s">
+      <c r="D29" s="236" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="202">
+      <c r="E29" s="237">
         <v>318753.5</v>
       </c>
-      <c r="F29" s="245">
+      <c r="F29" s="210">
         <f t="shared" si="3"/>
         <v>306003.36</v>
       </c>
-      <c r="G29" s="243">
+      <c r="G29" s="209">
         <f t="shared" si="0"/>
         <v>97539642011.759995</v>
       </c>
@@ -9921,30 +9909,30 @@
         <f>0.86*0.7*1.6</f>
         <v>0.96320000000000006</v>
       </c>
-      <c r="K29" s="148">
+      <c r="K29" s="147">
         <v>75</v>
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="147">
+    <row r="30" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="146">
         <v>18</v>
       </c>
-      <c r="B30" s="181"/>
-      <c r="C30" s="191" t="s">
+      <c r="B30" s="234"/>
+      <c r="C30" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="177" t="s">
+      <c r="D30" s="236" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="202">
+      <c r="E30" s="237">
         <v>344025.5</v>
       </c>
-      <c r="F30" s="245">
+      <c r="F30" s="210">
         <f t="shared" si="3"/>
         <v>330264.48</v>
       </c>
-      <c r="G30" s="243">
+      <c r="G30" s="209">
         <f t="shared" si="0"/>
         <v>113619402864.23999</v>
       </c>
@@ -9960,20 +9948,20 @@
         <f>0.86*0.7*1.8</f>
         <v>1.0835999999999999</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="147">
         <v>86</v>
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="149" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="148" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="130"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="208">
+      <c r="E31" s="193"/>
+      <c r="F31" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9984,28 +9972,28 @@
       <c r="H31" s="130"/>
       <c r="I31" s="130"/>
       <c r="J31" s="130"/>
-      <c r="K31" s="150"/>
+      <c r="K31" s="149"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="147">
+    <row r="32" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="146">
         <v>20</v>
       </c>
-      <c r="B32" s="181"/>
-      <c r="C32" s="191" t="s">
+      <c r="B32" s="234"/>
+      <c r="C32" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="177" t="s">
+      <c r="D32" s="236" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="202">
+      <c r="E32" s="237">
         <v>221045.5</v>
       </c>
-      <c r="F32" s="245">
+      <c r="F32" s="210">
         <f t="shared" si="3"/>
         <v>212203.68</v>
       </c>
-      <c r="G32" s="243">
+      <c r="G32" s="209">
         <f t="shared" si="0"/>
         <v>46906668547.439995</v>
       </c>
@@ -10021,30 +10009,30 @@
         <f>0.86*0.7*0.81</f>
         <v>0.48762</v>
       </c>
-      <c r="K32" s="148">
+      <c r="K32" s="147">
         <v>52</v>
       </c>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="147">
+    <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="146">
         <v>21</v>
       </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="192" t="s">
+      <c r="B33" s="234"/>
+      <c r="C33" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="236" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="202">
+      <c r="E33" s="237">
         <v>255320</v>
       </c>
-      <c r="F33" s="245">
+      <c r="F33" s="210">
         <f t="shared" si="3"/>
         <v>245107.20000000001</v>
       </c>
-      <c r="G33" s="243">
+      <c r="G33" s="209">
         <f t="shared" si="0"/>
         <v>62580770304</v>
       </c>
@@ -10060,30 +10048,30 @@
         <f>0.86*0.7*1.1</f>
         <v>0.66220000000000001</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="147">
         <v>58</v>
       </c>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="147">
+    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="146">
         <v>22</v>
       </c>
-      <c r="B34" s="181"/>
-      <c r="C34" s="191" t="s">
+      <c r="B34" s="234"/>
+      <c r="C34" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="202">
+      <c r="E34" s="237">
         <v>283946</v>
       </c>
-      <c r="F34" s="245">
+      <c r="F34" s="210">
         <f t="shared" si="3"/>
         <v>272588.15999999997</v>
       </c>
-      <c r="G34" s="243">
+      <c r="G34" s="209">
         <f t="shared" si="0"/>
         <v>77400317679.359985</v>
       </c>
@@ -10099,30 +10087,30 @@
         <f>0.86*0.7*1.3</f>
         <v>0.78259999999999996</v>
       </c>
-      <c r="K34" s="148">
+      <c r="K34" s="147">
         <v>65</v>
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="147">
+    <row r="35" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="146">
         <v>23</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="192" t="s">
+      <c r="B35" s="234"/>
+      <c r="C35" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="177" t="s">
+      <c r="D35" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="202">
+      <c r="E35" s="237">
         <v>312403</v>
       </c>
-      <c r="F35" s="245">
+      <c r="F35" s="210">
         <f t="shared" si="3"/>
         <v>299906.88</v>
       </c>
-      <c r="G35" s="243">
+      <c r="G35" s="209">
         <f t="shared" si="0"/>
         <v>93691809032.639999</v>
       </c>
@@ -10138,30 +10126,30 @@
         <f>0.86*0.7*1.4</f>
         <v>0.84279999999999988</v>
       </c>
-      <c r="K35" s="148">
+      <c r="K35" s="147">
         <v>73</v>
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="147">
+    <row r="36" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="146">
         <v>24</v>
       </c>
-      <c r="B36" s="181"/>
-      <c r="C36" s="191" t="s">
+      <c r="B36" s="234"/>
+      <c r="C36" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="177" t="s">
+      <c r="D36" s="236" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="202">
+      <c r="E36" s="237">
         <v>340619.5</v>
       </c>
-      <c r="F36" s="245">
+      <c r="F36" s="210">
         <f t="shared" si="3"/>
         <v>326994.71999999997</v>
       </c>
-      <c r="G36" s="243">
+      <c r="G36" s="209">
         <f t="shared" si="0"/>
         <v>111380778029.03999</v>
       </c>
@@ -10177,30 +10165,30 @@
         <f>0.86*0.7*1.6</f>
         <v>0.96320000000000006</v>
       </c>
-      <c r="K36" s="148">
+      <c r="K36" s="147">
         <v>80</v>
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="147">
+    <row r="37" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="146">
         <v>25</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="191" t="s">
+      <c r="B37" s="234"/>
+      <c r="C37" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="177" t="s">
+      <c r="D37" s="236" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="202">
+      <c r="E37" s="237">
         <v>386210.5</v>
       </c>
-      <c r="F37" s="245">
+      <c r="F37" s="210">
         <f t="shared" si="3"/>
         <v>370762.08</v>
       </c>
-      <c r="G37" s="243">
+      <c r="G37" s="209">
         <f t="shared" si="0"/>
         <v>143192208297.84</v>
       </c>
@@ -10216,20 +10204,20 @@
         <f>0.86*0.7*1.8</f>
         <v>1.0835999999999999</v>
       </c>
-      <c r="K37" s="148">
+      <c r="K37" s="147">
         <v>87</v>
       </c>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="183" t="s">
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="177" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="132"/>
       <c r="C38" s="132"/>
       <c r="D38" s="132"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="208">
+      <c r="E38" s="194"/>
+      <c r="F38" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10237,24 +10225,24 @@
       <c r="H38" s="132"/>
       <c r="I38" s="132"/>
       <c r="J38" s="132"/>
-      <c r="K38" s="151"/>
+      <c r="K38" s="150"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="147">
+    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="146">
         <v>26</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="191" t="s">
+      <c r="B39" s="238"/>
+      <c r="C39" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="178" t="s">
+      <c r="D39" s="239" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="202">
+      <c r="E39" s="237">
         <v>169708.5</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F39" s="210">
         <f t="shared" si="3"/>
         <v>162920.16</v>
       </c>
@@ -10274,26 +10262,26 @@
         <f>0.84*0.7*0.6</f>
         <v>0.35279999999999995</v>
       </c>
-      <c r="K39" s="148">
+      <c r="K39" s="147">
         <v>40</v>
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="147">
+    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="146">
         <v>27</v>
       </c>
-      <c r="B40" s="133"/>
-      <c r="C40" s="191" t="s">
+      <c r="B40" s="238"/>
+      <c r="C40" s="235" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="178" t="s">
+      <c r="D40" s="239" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="202">
+      <c r="E40" s="237">
         <v>179965.5</v>
       </c>
-      <c r="F40" s="208">
+      <c r="F40" s="210">
         <f t="shared" si="3"/>
         <v>172766.88</v>
       </c>
@@ -10313,26 +10301,26 @@
         <f>0.84*0.7*0.7</f>
         <v>0.41159999999999997</v>
       </c>
-      <c r="K40" s="148">
+      <c r="K40" s="147">
         <v>42</v>
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="147">
+    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="146">
         <v>28</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="191" t="s">
+      <c r="B41" s="238"/>
+      <c r="C41" s="235" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="178" t="s">
+      <c r="D41" s="239" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="202">
+      <c r="E41" s="237">
         <v>198061.5</v>
       </c>
-      <c r="F41" s="208">
+      <c r="F41" s="210">
         <f t="shared" si="3"/>
         <v>190139.04</v>
       </c>
@@ -10342,7 +10330,7 @@
       </c>
       <c r="H41" s="127">
         <f t="shared" si="7"/>
-        <v>1663031308477.5938</v>
+        <v>1663031308477.5937</v>
       </c>
       <c r="I41" s="127">
         <f t="shared" si="8"/>
@@ -10352,27 +10340,27 @@
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="147">
         <v>46</v>
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="147">
+    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="146">
         <v>29</v>
       </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="191" t="s">
+      <c r="B42" s="238"/>
+      <c r="C42" s="235" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="178" t="s">
+      <c r="D42" s="239" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="202">
+      <c r="E42" s="237">
         <v>216710</v>
       </c>
-      <c r="F42" s="208">
-        <f t="shared" si="3"/>
+      <c r="F42" s="210">
+        <f>E42-E42*4%</f>
         <v>208041.60000000001</v>
       </c>
       <c r="G42" s="126">
@@ -10391,26 +10379,26 @@
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K42" s="148">
+      <c r="K42" s="147">
         <v>53</v>
       </c>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="147">
+    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="146">
         <v>30</v>
       </c>
-      <c r="B43" s="133"/>
-      <c r="C43" s="191" t="s">
+      <c r="B43" s="238"/>
+      <c r="C43" s="235" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="178" t="s">
+      <c r="D43" s="239" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="202">
+      <c r="E43" s="237">
         <v>240727.5</v>
       </c>
-      <c r="F43" s="208">
+      <c r="F43" s="210">
         <f t="shared" si="3"/>
         <v>231098.4</v>
       </c>
@@ -10430,26 +10418,26 @@
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K43" s="148">
+      <c r="K43" s="147">
         <v>9</v>
       </c>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147">
+    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="146">
         <v>31</v>
       </c>
-      <c r="B44" s="133"/>
-      <c r="C44" s="191" t="s">
+      <c r="B44" s="238"/>
+      <c r="C44" s="235" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="239" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="202">
+      <c r="E44" s="237">
         <v>264069</v>
       </c>
-      <c r="F44" s="208">
+      <c r="F44" s="210">
         <f t="shared" si="3"/>
         <v>253506.24</v>
       </c>
@@ -10469,26 +10457,26 @@
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K44" s="148">
+      <c r="K44" s="147">
         <v>66</v>
       </c>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="147">
+    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="146">
         <v>32</v>
       </c>
-      <c r="B45" s="133"/>
-      <c r="C45" s="191" t="s">
+      <c r="B45" s="238"/>
+      <c r="C45" s="235" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="178" t="s">
+      <c r="D45" s="239" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="202">
+      <c r="E45" s="237">
         <v>291213</v>
       </c>
-      <c r="F45" s="208">
+      <c r="F45" s="210">
         <f t="shared" si="3"/>
         <v>279564.48</v>
       </c>
@@ -10508,26 +10496,26 @@
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K45" s="148">
+      <c r="K45" s="147">
         <v>71</v>
       </c>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="147">
+    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="146">
         <v>33</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="191" t="s">
+      <c r="B46" s="238"/>
+      <c r="C46" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="178" t="s">
+      <c r="D46" s="239" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="202">
+      <c r="E46" s="237">
         <v>329719</v>
       </c>
-      <c r="F46" s="208">
+      <c r="F46" s="210">
         <f t="shared" si="3"/>
         <v>316530.24</v>
       </c>
@@ -10547,26 +10535,26 @@
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K46" s="148">
+      <c r="K46" s="147">
         <v>80</v>
       </c>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="147">
+    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="146">
         <v>34</v>
       </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="191" t="s">
+      <c r="B47" s="238"/>
+      <c r="C47" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="178" t="s">
+      <c r="D47" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="202">
+      <c r="E47" s="237">
         <v>372502</v>
       </c>
-      <c r="F47" s="208">
+      <c r="F47" s="210">
         <f t="shared" si="3"/>
         <v>357601.92</v>
       </c>
@@ -10586,46 +10574,46 @@
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K47" s="148">
+      <c r="K47" s="147">
         <v>91</v>
       </c>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="222" t="s">
+    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="223"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="199"/>
-      <c r="F48" s="208">
+      <c r="B48" s="214"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G48" s="129"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="135"/>
-      <c r="K48" s="152"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="151"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="147">
+    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="146">
         <v>35</v>
       </c>
-      <c r="B49" s="133"/>
-      <c r="C49" s="191" t="s">
+      <c r="B49" s="238"/>
+      <c r="C49" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="178" t="s">
+      <c r="D49" s="239" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="202">
+      <c r="E49" s="237">
         <v>255866</v>
       </c>
-      <c r="F49" s="208">
-        <f t="shared" si="3"/>
+      <c r="F49" s="210">
+        <f>E49-E49*4%</f>
         <v>245631.35999999999</v>
       </c>
       <c r="G49" s="126">
@@ -10644,26 +10632,26 @@
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K49" s="148">
+      <c r="K49" s="147">
         <v>59</v>
       </c>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="147">
+    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="146">
         <v>36</v>
       </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="191" t="s">
+      <c r="B50" s="238"/>
+      <c r="C50" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="178" t="s">
+      <c r="D50" s="239" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="202">
+      <c r="E50" s="237">
         <v>278772</v>
       </c>
-      <c r="F50" s="208">
+      <c r="F50" s="210">
         <f t="shared" si="3"/>
         <v>267621.12</v>
       </c>
@@ -10683,26 +10671,26 @@
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K50" s="148">
+      <c r="K50" s="147">
         <v>59</v>
       </c>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="147">
+    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="146">
         <v>37</v>
       </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="191" t="s">
+      <c r="B51" s="238"/>
+      <c r="C51" s="235" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="178" t="s">
+      <c r="D51" s="239" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="202">
+      <c r="E51" s="237">
         <v>305916</v>
       </c>
-      <c r="F51" s="208">
+      <c r="F51" s="210">
         <f t="shared" si="3"/>
         <v>293679.35999999999</v>
       </c>
@@ -10722,26 +10710,26 @@
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K51" s="148">
+      <c r="K51" s="147">
         <v>71</v>
       </c>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="147">
+    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="146">
         <v>38</v>
       </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="191" t="s">
+      <c r="B52" s="238"/>
+      <c r="C52" s="235" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="178" t="s">
+      <c r="D52" s="239" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="202">
+      <c r="E52" s="237">
         <v>344422</v>
       </c>
-      <c r="F52" s="208">
+      <c r="F52" s="210">
         <f t="shared" si="3"/>
         <v>330645.12</v>
       </c>
@@ -10761,51 +10749,51 @@
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K52" s="148">
+      <c r="K52" s="147">
         <v>80</v>
       </c>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="153">
+    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="152">
         <v>39</v>
       </c>
-      <c r="B53" s="154"/>
-      <c r="C53" s="193" t="s">
+      <c r="B53" s="240"/>
+      <c r="C53" s="241" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="179" t="s">
+      <c r="D53" s="242" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="205">
+      <c r="E53" s="243">
         <v>387211.5</v>
       </c>
-      <c r="F53" s="208">
+      <c r="F53" s="210">
         <f t="shared" si="3"/>
         <v>371723.04</v>
       </c>
-      <c r="G53" s="155">
+      <c r="G53" s="153">
         <f t="shared" si="6"/>
         <v>143935435902.95999</v>
       </c>
-      <c r="H53" s="156">
+      <c r="H53" s="154">
         <f t="shared" ref="H53:H55" si="11">J53*F53</f>
         <v>437146.29503999994</v>
       </c>
-      <c r="I53" s="156">
+      <c r="I53" s="154">
         <f t="shared" ref="I53:I55" si="12">K53*F53</f>
         <v>33826796.640000001</v>
       </c>
-      <c r="J53" s="157">
+      <c r="J53" s="155">
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K53" s="158">
+      <c r="K53" s="156">
         <v>91</v>
       </c>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="119">
         <v>30</v>
       </c>
@@ -10816,7 +10804,7 @@
       <c r="D54" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="206" t="e">
+      <c r="E54" s="195" t="e">
         <v>#REF!</v>
       </c>
       <c r="F54" s="123"/>
@@ -10841,7 +10829,7 @@
       </c>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105">
         <v>31</v>
       </c>
@@ -10852,7 +10840,7 @@
       <c r="D55" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="207" t="e">
+      <c r="E55" s="196" t="e">
         <v>#REF!</v>
       </c>
       <c r="F55" s="107"/>
@@ -10877,18 +10865,18 @@
       </c>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D56" s="104"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="137">
+      <c r="F56" s="168"/>
+      <c r="G56" s="136">
         <f>SUM(G7:G53)</f>
         <v>2992182289714.7993</v>
       </c>
-      <c r="H56" s="136">
+      <c r="H56" s="135">
         <f>SUM(H7:H55)</f>
         <v>58850950355405.609</v>
       </c>
-      <c r="I56" s="136">
+      <c r="I56" s="135">
         <f>SUM(I7:I55)</f>
         <v>706996511.51999998</v>
       </c>
@@ -10896,22 +10884,22 @@
       <c r="K56" s="7"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L62" s="22"/>
     </row>
   </sheetData>
@@ -10930,7 +10918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -10938,34 +10926,34 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="195" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="186" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="36"/>
-    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="7"/>
-    <col min="15" max="15" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="118" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.109375" style="118"/>
-    <col min="21" max="21" width="9.109375" style="7"/>
-    <col min="22" max="22" width="10.88671875" style="118" customWidth="1"/>
-    <col min="23" max="23" width="12.44140625" style="118" customWidth="1"/>
-    <col min="24" max="26" width="9.109375" style="118"/>
-    <col min="27" max="16384" width="9.109375" style="7"/>
+    <col min="12" max="12" width="9.140625" style="36"/>
+    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="118"/>
+    <col min="21" max="21" width="9.140625" style="7"/>
+    <col min="22" max="22" width="10.85546875" style="118" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="118" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" style="118"/>
+    <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10977,21 +10965,21 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="194"/>
+      <c r="F1" s="185"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="218"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
       <c r="Y1" s="117"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
@@ -11004,7 +10992,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="57"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
       <c r="B3" s="96"/>
       <c r="C3" s="97"/>
@@ -11033,7 +11021,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -11064,41 +11052,41 @@
       <c r="W4" s="62"/>
       <c r="X4" s="63"/>
     </row>
-    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="s">
+    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="196" t="s">
+      <c r="F5" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="141" t="s">
+      <c r="H5" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="142" t="s">
+      <c r="I5" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="143" t="s">
+      <c r="J5" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="145" t="s">
+      <c r="L5" s="144" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="57"/>
@@ -11108,42 +11096,42 @@
       <c r="W5" s="64"/>
       <c r="X5" s="64"/>
     </row>
-    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="220" t="s">
+    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="211" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="171"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="169"/>
       <c r="H6" s="129"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="152"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="151"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="163">
+    <row r="7" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="161">
         <v>1</v>
       </c>
       <c r="B7" s="125"/>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="185" t="s">
+      <c r="D7" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="198">
+      <c r="F7" s="189">
         <v>619242</v>
       </c>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160">
+      <c r="G7" s="157"/>
+      <c r="H7" s="158">
         <f>F7*G7</f>
         <v>0</v>
       </c>
@@ -11159,30 +11147,30 @@
         <f>0.82*0.9*2</f>
         <v>1.476</v>
       </c>
-      <c r="L7" s="148">
+      <c r="L7" s="147">
         <v>125</v>
       </c>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="163">
+    <row r="8" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="161">
         <v>2</v>
       </c>
       <c r="B8" s="125"/>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="180" t="s">
+      <c r="E8" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="189">
         <v>689799.5</v>
       </c>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160">
+      <c r="G8" s="157"/>
+      <c r="H8" s="158">
         <f t="shared" ref="H8:H27" si="2">F8*G8</f>
         <v>0</v>
       </c>
@@ -11198,47 +11186,47 @@
         <f>0.82*0.9*2.5</f>
         <v>1.845</v>
       </c>
-      <c r="L8" s="148">
+      <c r="L8" s="147">
         <v>148</v>
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="228" t="s">
+    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="171"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="129"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="152"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="151"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="163">
+    <row r="10" spans="1:25" ht="126" x14ac:dyDescent="0.25">
+      <c r="A10" s="161">
         <v>3</v>
       </c>
       <c r="B10" s="125"/>
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="185" t="s">
+      <c r="D10" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="189">
         <v>691099.5</v>
       </c>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160">
+      <c r="G10" s="157"/>
+      <c r="H10" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11254,30 +11242,30 @@
         <f>0.82*0.9*2</f>
         <v>1.476</v>
       </c>
-      <c r="L10" s="148">
+      <c r="L10" s="147">
         <v>134</v>
       </c>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="163">
+    <row r="11" spans="1:25" ht="126" x14ac:dyDescent="0.25">
+      <c r="A11" s="161">
         <v>4</v>
       </c>
       <c r="B11" s="125"/>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="185" t="s">
+      <c r="D11" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="198">
+      <c r="F11" s="189">
         <v>751016.5</v>
       </c>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160">
+      <c r="G11" s="157"/>
+      <c r="H11" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11293,47 +11281,47 @@
         <f>0.82*0.9*2.5</f>
         <v>1.845</v>
       </c>
-      <c r="L11" s="148">
+      <c r="L11" s="147">
         <v>156</v>
       </c>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="228" t="s">
+    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="219" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="229"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="171"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="169"/>
       <c r="H12" s="129"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="152"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="151"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="163">
+    <row r="13" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="161">
         <v>5</v>
       </c>
       <c r="B13" s="125"/>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="185" t="s">
+      <c r="D13" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="180" t="s">
+      <c r="E13" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="198">
+      <c r="F13" s="189">
         <v>713654.5</v>
       </c>
-      <c r="G13" s="159"/>
-      <c r="H13" s="160">
+      <c r="G13" s="157"/>
+      <c r="H13" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11349,30 +11337,30 @@
         <f>0.8*0.9*1.9</f>
         <v>1.3680000000000001</v>
       </c>
-      <c r="L13" s="148">
+      <c r="L13" s="147">
         <v>103</v>
       </c>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="163">
+    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="161">
         <v>6</v>
       </c>
       <c r="B14" s="125"/>
-      <c r="C14" s="184" t="s">
+      <c r="C14" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="185" t="s">
+      <c r="D14" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="186" t="s">
+      <c r="E14" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="198">
+      <c r="F14" s="189">
         <v>713654.5</v>
       </c>
-      <c r="G14" s="159"/>
-      <c r="H14" s="160">
+      <c r="G14" s="157"/>
+      <c r="H14" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11388,30 +11376,30 @@
         <f>8.5*0.9*1.9</f>
         <v>14.535</v>
       </c>
-      <c r="L14" s="148">
+      <c r="L14" s="147">
         <v>103</v>
       </c>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="163">
+    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="161">
         <v>7</v>
       </c>
       <c r="B15" s="125"/>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="185" t="s">
+      <c r="D15" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="186" t="s">
+      <c r="E15" s="180" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="198">
+      <c r="F15" s="189">
         <v>735676.5</v>
       </c>
-      <c r="G15" s="159"/>
-      <c r="H15" s="160">
+      <c r="G15" s="157"/>
+      <c r="H15" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11427,30 +11415,30 @@
         <f>0.85*0.9*2.1</f>
         <v>1.6065</v>
       </c>
-      <c r="L15" s="148">
+      <c r="L15" s="147">
         <v>113</v>
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="163">
+    <row r="16" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="161">
         <v>8</v>
       </c>
       <c r="B16" s="125"/>
-      <c r="C16" s="184" t="s">
+      <c r="C16" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="185" t="s">
+      <c r="D16" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="189">
         <v>760454.5</v>
       </c>
-      <c r="G16" s="159"/>
-      <c r="H16" s="160">
+      <c r="G16" s="157"/>
+      <c r="H16" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11466,47 +11454,47 @@
         <f>0.85*0.9*2.5</f>
         <v>1.9125000000000001</v>
       </c>
-      <c r="L16" s="148">
+      <c r="L16" s="147">
         <v>162</v>
       </c>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="228" t="s">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="219" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="229"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="171"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="220"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="169"/>
       <c r="H17" s="129"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="152"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="151"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="163">
+    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="161">
         <v>9</v>
       </c>
       <c r="B18" s="125"/>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="179" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="186" t="s">
+      <c r="E18" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="198">
+      <c r="F18" s="189">
         <v>770770</v>
       </c>
-      <c r="G18" s="159"/>
-      <c r="H18" s="160">
+      <c r="G18" s="157"/>
+      <c r="H18" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11522,30 +11510,30 @@
         <f>0.8*0.9*1.9</f>
         <v>1.3680000000000001</v>
       </c>
-      <c r="L18" s="148">
+      <c r="L18" s="147">
         <v>103</v>
       </c>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="163">
+    <row r="19" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="161">
         <v>10</v>
       </c>
       <c r="B19" s="125"/>
-      <c r="C19" s="184" t="s">
+      <c r="C19" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="185" t="s">
+      <c r="D19" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="180" t="s">
+      <c r="E19" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="189">
         <v>770770</v>
       </c>
-      <c r="G19" s="159"/>
-      <c r="H19" s="160">
+      <c r="G19" s="157"/>
+      <c r="H19" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11561,30 +11549,30 @@
         <f>0.85*0.9*1.9</f>
         <v>1.4535</v>
       </c>
-      <c r="L19" s="148">
+      <c r="L19" s="147">
         <v>103</v>
       </c>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="163">
+    <row r="20" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="161">
         <v>11</v>
       </c>
       <c r="B20" s="125"/>
-      <c r="C20" s="184" t="s">
+      <c r="C20" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="185" t="s">
+      <c r="D20" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="198">
+      <c r="F20" s="189">
         <v>787982</v>
       </c>
-      <c r="G20" s="159"/>
-      <c r="H20" s="160">
+      <c r="G20" s="157"/>
+      <c r="H20" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11600,30 +11588,30 @@
         <f>0.85*0.9*2.1</f>
         <v>1.6065</v>
       </c>
-      <c r="L20" s="148">
+      <c r="L20" s="147">
         <v>113</v>
       </c>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="163">
+    <row r="21" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="161">
         <v>12</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="184" t="s">
+      <c r="B21" s="159"/>
+      <c r="C21" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="185" t="s">
+      <c r="D21" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="175" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="189">
         <v>814814</v>
       </c>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160">
+      <c r="G21" s="157"/>
+      <c r="H21" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11639,45 +11627,45 @@
         <f>0.85*0.9*2.5</f>
         <v>1.9125000000000001</v>
       </c>
-      <c r="L21" s="148">
+      <c r="L21" s="147">
         <v>162</v>
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="220" t="s">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="171"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="169"/>
       <c r="H22" s="129"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="152"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="151"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="163">
+    <row r="23" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="161">
         <v>11</v>
       </c>
       <c r="B23" s="125"/>
-      <c r="C23" s="231" t="s">
+      <c r="C23" s="222" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="231"/>
-      <c r="E23" s="190" t="s">
+      <c r="D23" s="222"/>
+      <c r="E23" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="198">
+      <c r="F23" s="189">
         <v>196937</v>
       </c>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160">
+      <c r="G23" s="157"/>
+      <c r="H23" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11690,26 +11678,26 @@
         <v>0</v>
       </c>
       <c r="K23" s="128"/>
-      <c r="L23" s="148"/>
+      <c r="L23" s="147"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="163">
+    <row r="24" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="161">
         <v>12</v>
       </c>
       <c r="B24" s="125"/>
-      <c r="C24" s="231" t="s">
+      <c r="C24" s="222" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="231"/>
-      <c r="E24" s="190" t="s">
+      <c r="D24" s="222"/>
+      <c r="E24" s="184" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="198">
+      <c r="F24" s="189">
         <v>223262</v>
       </c>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160">
+      <c r="G24" s="157"/>
+      <c r="H24" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11722,24 +11710,24 @@
         <v>0</v>
       </c>
       <c r="K24" s="128"/>
-      <c r="L24" s="148"/>
+      <c r="L24" s="147"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="163">
+    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="161">
         <v>13</v>
       </c>
       <c r="B25" s="125"/>
-      <c r="C25" s="231" t="s">
+      <c r="C25" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="231"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="198">
+      <c r="D25" s="222"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="189">
         <v>202039.5</v>
       </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160">
+      <c r="G25" s="157"/>
+      <c r="H25" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11752,24 +11740,24 @@
         <v>0</v>
       </c>
       <c r="K25" s="128"/>
-      <c r="L25" s="148"/>
+      <c r="L25" s="147"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="163">
+    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="161">
         <v>14</v>
       </c>
       <c r="B26" s="125"/>
-      <c r="C26" s="231" t="s">
+      <c r="C26" s="222" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="231"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="198">
+      <c r="D26" s="222"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="189">
         <v>207129</v>
       </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160">
+      <c r="G26" s="157"/>
+      <c r="H26" s="158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11782,55 +11770,55 @@
         <v>0</v>
       </c>
       <c r="K26" s="128"/>
-      <c r="L26" s="148"/>
+      <c r="L26" s="147"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="164">
+    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="162">
         <v>15</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="230" t="s">
+      <c r="B27" s="163"/>
+      <c r="C27" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="230"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="200">
+      <c r="D27" s="221"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="191">
         <v>233441</v>
       </c>
-      <c r="G27" s="166"/>
-      <c r="H27" s="167">
+      <c r="G27" s="164"/>
+      <c r="H27" s="165">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="156">
+      <c r="I27" s="154">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="156">
+      <c r="J27" s="154">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="156"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="201"/>
-      <c r="H28" s="168">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="192"/>
+      <c r="H28" s="166">
         <f>SUM(H6:H27)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="169">
+      <c r="I28" s="167">
         <f>SUM(I6:I27)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="169">
+      <c r="J28" s="167">
         <f>SUM(J6:J27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="22"/>
@@ -11858,7 +11846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11869,29 +11857,29 @@
       <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="30" style="21" customWidth="1"/>
     <col min="3" max="3" width="54" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="49" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="21" customWidth="1"/>
-    <col min="9" max="10" width="18.5546875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="21" customWidth="1"/>
+    <col min="9" max="10" width="18.5703125" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="7"/>
-    <col min="15" max="15" width="11.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="35.44140625" style="7" customWidth="1"/>
-    <col min="18" max="19" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="7"/>
+    <col min="12" max="12" width="9.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="11.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" style="7" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11908,7 +11896,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -11925,7 +11913,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -11942,7 +11930,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -11959,7 +11947,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -11974,7 +11962,7 @@
       <c r="J5" s="35"/>
       <c r="P5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -11991,7 +11979,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="66"/>
@@ -12013,7 +12001,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="28"/>
@@ -12043,7 +12031,7 @@
       <c r="P9" s="11"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>10</v>
       </c>
@@ -12083,14 +12071,14 @@
       <c r="O10" s="12"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="233" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -12103,7 +12091,7 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <v>1</v>
       </c>
@@ -12141,14 +12129,14 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="235" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="226" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12156,7 +12144,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81">
         <v>2</v>
       </c>
@@ -12189,7 +12177,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81">
         <v>3</v>
       </c>
@@ -12222,7 +12210,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81">
         <v>4</v>
       </c>
@@ -12255,11 +12243,11 @@
       <c r="K16" s="55"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="237"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12288,11 +12276,11 @@
       <c r="K17" s="55"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="238"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12321,11 +12309,11 @@
       <c r="K18" s="55"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="239"/>
+      <c r="B19" s="230"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12354,14 +12342,14 @@
       <c r="K19" s="55"/>
       <c r="L19" s="42"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="235" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="236"/>
+      <c r="B20" s="227"/>
+      <c r="C20" s="227"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12369,7 +12357,7 @@
       <c r="K20" s="55"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86">
         <v>8</v>
       </c>
@@ -12402,7 +12390,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="42"/>
     </row>
-    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <v>9</v>
       </c>
@@ -12435,7 +12423,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>10</v>
       </c>
@@ -12468,7 +12456,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="42"/>
     </row>
-    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <v>11</v>
       </c>
@@ -12501,7 +12489,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <v>12</v>
       </c>
@@ -12534,7 +12522,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="42"/>
     </row>
-    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <v>13</v>
       </c>
@@ -12567,14 +12555,14 @@
       <c r="K26" s="55"/>
       <c r="L26" s="42"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="235" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12582,11 +12570,11 @@
       <c r="K27" s="55"/>
       <c r="L27" s="42"/>
     </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="240"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12615,11 +12603,11 @@
       <c r="K28" s="55"/>
       <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="242"/>
+      <c r="B29" s="233"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12648,11 +12636,11 @@
       <c r="K29" s="55"/>
       <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="240"/>
+      <c r="B30" s="231"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12681,11 +12669,11 @@
       <c r="K30" s="55"/>
       <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="242"/>
+      <c r="B31" s="233"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12714,11 +12702,11 @@
       <c r="K31" s="55"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="240"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12747,11 +12735,11 @@
       <c r="K32" s="55"/>
       <c r="L32" s="42"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="241"/>
+      <c r="B33" s="232"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12780,11 +12768,11 @@
       <c r="K33" s="55"/>
       <c r="L33" s="42"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="241"/>
+      <c r="B34" s="232"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12813,11 +12801,11 @@
       <c r="K34" s="55"/>
       <c r="L34" s="42"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="241"/>
+      <c r="B35" s="232"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12846,11 +12834,11 @@
       <c r="K35" s="55"/>
       <c r="L35" s="42"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="241"/>
+      <c r="B36" s="232"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12879,11 +12867,11 @@
       <c r="K36" s="55"/>
       <c r="L36" s="42"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="241"/>
+      <c r="B37" s="232"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -12912,11 +12900,11 @@
       <c r="K37" s="55"/>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="242"/>
+      <c r="B38" s="233"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -12945,14 +12933,14 @@
       <c r="K38" s="55"/>
       <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="235" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="226" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="236"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
-      <c r="E39" s="236"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="227"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>
@@ -12960,7 +12948,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81">
         <v>25</v>
       </c>
@@ -12993,7 +12981,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="42"/>
     </row>
-    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="81">
         <v>26</v>
       </c>
@@ -13026,7 +13014,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="42"/>
     </row>
-    <row r="42" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="H42" s="68" t="e">
         <f>SUM(H11:H41)</f>
@@ -13041,32 +13029,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="70"/>
       <c r="F54" s="31"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="70"/>
       <c r="F55" s="31"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" s="70"/>
       <c r="F56" s="31"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="70"/>
       <c r="F57" s="31"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" s="70"/>
       <c r="F58" s="31"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" s="70"/>
       <c r="F59" s="31"/>
       <c r="G59" s="43"/>

--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -2740,7 +2740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2870,6 +2870,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,9 +4014,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4135,6 +4138,36 @@
     <xf numFmtId="3" fontId="35" fillId="22" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="35" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="45" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4204,35 +4237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="18" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="18" borderId="45" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -4373,7 +4379,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4423,7 +4429,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,7 +4479,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,7 +4529,7 @@
         <xdr:cNvPr id="67" name="Рисунок 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4573,7 +4579,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4623,7 +4629,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4673,7 +4679,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4723,7 +4729,7 @@
         <xdr:cNvPr id="72" name="Рисунок 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4773,7 +4779,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4823,7 +4829,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4873,7 +4879,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4923,7 +4929,7 @@
         <xdr:cNvPr id="73" name="Рисунок 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,7 +4979,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5023,7 +5029,7 @@
         <xdr:cNvPr id="74" name="Рисунок 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5073,7 +5079,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5123,7 +5129,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5173,7 +5179,7 @@
         <xdr:cNvPr id="76" name="Рисунок 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,7 +5229,7 @@
         <xdr:cNvPr id="78" name="Рисунок 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5273,7 +5279,7 @@
         <xdr:cNvPr id="79" name="Рисунок 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,7 +5329,7 @@
         <xdr:cNvPr id="81" name="Рисунок 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5373,7 +5379,7 @@
         <xdr:cNvPr id="82" name="Рисунок 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5423,7 +5429,7 @@
         <xdr:cNvPr id="83" name="Рисунок 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5473,7 +5479,7 @@
         <xdr:cNvPr id="86" name="Рисунок 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5523,7 +5529,7 @@
         <xdr:cNvPr id="88" name="Рисунок 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5573,7 +5579,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5623,7 +5629,7 @@
         <xdr:cNvPr id="91" name="Рисунок 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +5679,7 @@
         <xdr:cNvPr id="93" name="Рисунок 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5723,7 +5729,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5773,7 +5779,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5823,7 +5829,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5873,7 +5879,7 @@
         <xdr:cNvPr id="100" name="Рисунок 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5923,7 +5929,7 @@
         <xdr:cNvPr id="101" name="Рисунок 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5973,7 +5979,7 @@
         <xdr:cNvPr id="102" name="Рисунок 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6023,7 +6029,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6073,7 +6079,7 @@
         <xdr:cNvPr id="106" name="Рисунок 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6123,7 +6129,7 @@
         <xdr:cNvPr id="107" name="Рисунок 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6173,7 +6179,7 @@
         <xdr:cNvPr id="109" name="Рисунок 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6223,7 +6229,7 @@
         <xdr:cNvPr id="110" name="Рисунок 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6273,7 +6279,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6323,7 +6329,7 @@
         <xdr:cNvPr id="113" name="Рисунок 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6379,7 @@
         <xdr:cNvPr id="114" name="Рисунок 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6423,7 +6429,7 @@
         <xdr:cNvPr id="44" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6502,7 +6508,7 @@
         <xdr:cNvPr id="2" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6576,7 +6582,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6626,7 +6632,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6676,7 +6682,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6726,7 +6732,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6776,7 +6782,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6826,7 +6832,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6866,8 +6872,8 @@
       <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>87256</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2338620</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1257299</xdr:rowOff>
     </xdr:to>
@@ -6876,7 +6882,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07222039-639E-48CE-A508-42EE22195058}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6916,8 +6922,8 @@
       <xdr:rowOff>207818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>87256</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2338620</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1361209</xdr:rowOff>
     </xdr:to>
@@ -6926,7 +6932,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6976,7 +6982,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7026,7 +7032,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7066,8 +7072,8 @@
       <xdr:rowOff>346364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>52619</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2303983</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>1499755</xdr:rowOff>
     </xdr:to>
@@ -7076,7 +7082,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7116,8 +7122,8 @@
       <xdr:rowOff>311727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>69938</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2321302</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1465118</xdr:rowOff>
     </xdr:to>
@@ -7126,7 +7132,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7176,7 +7182,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7226,7 +7232,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7276,7 +7282,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7326,7 +7332,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7376,7 +7382,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7431,7 +7437,7 @@
         <xdr:cNvPr id="18" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7505,7 +7511,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7548,7 +7554,7 @@
         <xdr:cNvPr id="90" name="Рисунок 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7592,7 +7598,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7636,7 +7642,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7680,7 +7686,7 @@
         <xdr:cNvPr id="97" name="Рисунок 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7723,7 +7729,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000062000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7766,7 +7772,7 @@
         <xdr:cNvPr id="99" name="Рисунок 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7810,7 +7816,7 @@
         <xdr:cNvPr id="100" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7884,7 +7890,7 @@
         <xdr:cNvPr id="101" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7958,7 +7964,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8002,7 +8008,7 @@
         <xdr:cNvPr id="105" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8077,7 +8083,7 @@
 Ð¾Ð»Ð¾Ð´&quot; Ð² Ð¡Ð°Ð¼Ð°ÑÐµ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8136,7 +8142,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8180,7 +8186,7 @@
         <xdr:cNvPr id="116" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8254,7 +8260,7 @@
         <xdr:cNvPr id="119" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8328,7 +8334,7 @@
         <xdr:cNvPr id="121" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8402,7 +8408,7 @@
         <xdr:cNvPr id="136" name="Рисунок 135" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÑÑÑÐºÐ° ÐÐÐ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8461,7 +8467,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8505,7 +8511,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8913,7 +8919,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R51" sqref="R51"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8922,7 +8928,7 @@
     <col min="2" max="2" width="29.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="21" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="186" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="185" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="20" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="37" customWidth="1"/>
@@ -8947,21 +8953,21 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="185"/>
+      <c r="F1" s="184"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
@@ -8970,8 +8976,8 @@
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="171"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -8983,25 +8989,25 @@
       </c>
       <c r="G3" s="27">
         <f>G56+Бонеты!H28</f>
-        <v>2992182289714.7993</v>
+        <v>9461528416033.1992</v>
       </c>
       <c r="H3" s="38">
         <f>H56+Бонеты!I28</f>
-        <v>58850950355405.609</v>
+        <v>58850972989136.516</v>
       </c>
       <c r="I3" s="38">
         <f>I56+Бонеты!J28</f>
-        <v>706996511.51999998</v>
-      </c>
-      <c r="N3" s="170"/>
-      <c r="O3" s="172"/>
+        <v>1784519555.52</v>
+      </c>
+      <c r="N3" s="169"/>
+      <c r="O3" s="171"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
       <c r="D4" s="116"/>
-      <c r="E4" s="192"/>
+      <c r="E4" s="191"/>
       <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9019,10 +9025,10 @@
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="4"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="173"/>
-    </row>
-    <row r="5" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N4" s="169"/>
+      <c r="O4" s="172"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
         <v>10</v>
       </c>
@@ -9035,7 +9041,7 @@
       <c r="D5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="186" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="139" t="s">
@@ -9056,18 +9062,18 @@
       <c r="K5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="174"/>
-      <c r="O5" s="171"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="170"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="198" t="s">
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="197" t="s">
         <v>189</v>
       </c>
       <c r="G6" s="124"/>
@@ -9077,21 +9083,21 @@
       <c r="K6" s="145"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="146">
         <v>1</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="200" t="s">
+      <c r="B7" s="198"/>
+      <c r="C7" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="202">
+      <c r="E7" s="201">
         <v>199927</v>
       </c>
-      <c r="F7" s="203">
+      <c r="F7" s="202">
         <f>E7-E7*4%</f>
         <v>191929.92</v>
       </c>
@@ -9117,21 +9123,21 @@
       <c r="L7" s="22"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="146">
         <v>2</v>
       </c>
-      <c r="B8" s="199"/>
-      <c r="C8" s="200" t="s">
+      <c r="B8" s="198"/>
+      <c r="C8" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="202">
+      <c r="E8" s="201">
         <v>218712</v>
       </c>
-      <c r="F8" s="203">
+      <c r="F8" s="202">
         <f>E8-E8*4%</f>
         <v>209963.51999999999</v>
       </c>
@@ -9157,21 +9163,21 @@
       <c r="L8" s="22"/>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" s="146">
         <v>3</v>
       </c>
-      <c r="B9" s="199"/>
-      <c r="C9" s="200" t="s">
+      <c r="B9" s="198"/>
+      <c r="C9" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="201" t="s">
+      <c r="D9" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="202">
+      <c r="E9" s="201">
         <v>243067.5</v>
       </c>
-      <c r="F9" s="203">
+      <c r="F9" s="202">
         <f t="shared" ref="F9:F53" si="3">E9-E9*4%</f>
         <v>233344.8</v>
       </c>
@@ -9197,21 +9203,21 @@
       <c r="L9" s="22"/>
       <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="146">
         <v>4</v>
       </c>
-      <c r="B10" s="199"/>
-      <c r="C10" s="200" t="s">
+      <c r="B10" s="198"/>
+      <c r="C10" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="200" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="202">
+      <c r="E10" s="201">
         <v>266545.5</v>
       </c>
-      <c r="F10" s="203">
+      <c r="F10" s="202">
         <f t="shared" si="3"/>
         <v>255883.68</v>
       </c>
@@ -9237,21 +9243,21 @@
       <c r="L10" s="22"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="146">
         <v>5</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="200" t="s">
+      <c r="B11" s="198"/>
+      <c r="C11" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="201" t="s">
+      <c r="D11" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="202">
+      <c r="E11" s="201">
         <v>293949.5</v>
       </c>
-      <c r="F11" s="203">
+      <c r="F11" s="202">
         <f t="shared" si="3"/>
         <v>282191.52</v>
       </c>
@@ -9277,21 +9283,21 @@
       <c r="L11" s="22"/>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:26" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="146">
         <v>6</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200" t="s">
+      <c r="B12" s="198"/>
+      <c r="C12" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="201" t="s">
+      <c r="D12" s="200" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="202">
+      <c r="E12" s="201">
         <v>332793.5</v>
       </c>
-      <c r="F12" s="203">
+      <c r="F12" s="202">
         <f t="shared" si="3"/>
         <v>319481.76</v>
       </c>
@@ -9318,14 +9324,14 @@
       <c r="N12" s="59"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="215" t="s">
+      <c r="A13" s="224" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="197">
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9336,21 +9342,21 @@
       <c r="K13" s="145"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="146">
         <v>7</v>
       </c>
-      <c r="B14" s="204"/>
-      <c r="C14" s="205" t="s">
+      <c r="B14" s="203"/>
+      <c r="C14" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="205" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="207">
+      <c r="E14" s="206">
         <v>164521.5</v>
       </c>
-      <c r="F14" s="208">
+      <c r="F14" s="207">
         <f>E14-E14*4%</f>
         <v>157940.64000000001</v>
       </c>
@@ -9375,21 +9381,21 @@
       </c>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="146">
         <v>8</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="205" t="s">
+      <c r="B15" s="203"/>
+      <c r="C15" s="204" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="D15" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="207">
+      <c r="E15" s="206">
         <v>174460</v>
       </c>
-      <c r="F15" s="208">
+      <c r="F15" s="207">
         <f t="shared" si="3"/>
         <v>167481.60000000001</v>
       </c>
@@ -9414,21 +9420,21 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="146">
         <v>9</v>
       </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="205" t="s">
+      <c r="B16" s="203"/>
+      <c r="C16" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="206" t="s">
+      <c r="D16" s="205" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="207">
+      <c r="E16" s="206">
         <v>192010</v>
       </c>
-      <c r="F16" s="208">
+      <c r="F16" s="207">
         <f t="shared" si="3"/>
         <v>184329.60000000001</v>
       </c>
@@ -9453,21 +9459,21 @@
       </c>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="146">
         <v>10</v>
       </c>
-      <c r="B17" s="204"/>
-      <c r="C17" s="205" t="s">
+      <c r="B17" s="203"/>
+      <c r="C17" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="206" t="s">
+      <c r="D17" s="205" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="207">
+      <c r="E17" s="206">
         <v>210086.5</v>
       </c>
-      <c r="F17" s="208">
+      <c r="F17" s="207">
         <f t="shared" si="3"/>
         <v>201683.04</v>
       </c>
@@ -9492,21 +9498,21 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="146">
         <v>11</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="205" t="s">
+      <c r="B18" s="203"/>
+      <c r="C18" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="206" t="s">
+      <c r="D18" s="205" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="207">
+      <c r="E18" s="206">
         <v>233369.5</v>
       </c>
-      <c r="F18" s="208">
+      <c r="F18" s="207">
         <f t="shared" si="3"/>
         <v>224034.72</v>
       </c>
@@ -9533,17 +9539,17 @@
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="146"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="205" t="s">
+      <c r="B19" s="203"/>
+      <c r="C19" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="206" t="s">
+      <c r="D19" s="205" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="207">
+      <c r="E19" s="206">
         <v>255989.5</v>
       </c>
-      <c r="F19" s="208">
+      <c r="F19" s="207">
         <f t="shared" si="3"/>
         <v>245749.92</v>
       </c>
@@ -9559,7 +9565,7 @@
         <f t="shared" si="2"/>
         <v>15482244.960000001</v>
       </c>
-      <c r="J19" s="183">
+      <c r="J19" s="182">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
@@ -9570,17 +9576,17 @@
     </row>
     <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="146"/>
-      <c r="B20" s="204"/>
-      <c r="C20" s="205" t="s">
+      <c r="B20" s="203"/>
+      <c r="C20" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="206" t="s">
+      <c r="D20" s="205" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="207">
+      <c r="E20" s="206">
         <v>282314.5</v>
       </c>
-      <c r="F20" s="208">
+      <c r="F20" s="207">
         <f t="shared" si="3"/>
         <v>271021.92</v>
       </c>
@@ -9607,17 +9613,17 @@
     </row>
     <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="146"/>
-      <c r="B21" s="204"/>
-      <c r="C21" s="205" t="s">
+      <c r="B21" s="203"/>
+      <c r="C21" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="206" t="s">
+      <c r="D21" s="205" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="207">
+      <c r="E21" s="206">
         <v>319631</v>
       </c>
-      <c r="F21" s="208">
+      <c r="F21" s="207">
         <f t="shared" si="3"/>
         <v>306845.76</v>
       </c>
@@ -9642,21 +9648,21 @@
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="146">
         <v>12</v>
       </c>
-      <c r="B22" s="204"/>
-      <c r="C22" s="205" t="s">
+      <c r="B22" s="203"/>
+      <c r="C22" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="206" t="s">
+      <c r="D22" s="205" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="207">
+      <c r="E22" s="206">
         <v>361114</v>
       </c>
-      <c r="F22" s="208">
+      <c r="F22" s="207">
         <f t="shared" si="3"/>
         <v>346669.44</v>
       </c>
@@ -9682,14 +9688,14 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="175" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="124"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="197">
+      <c r="E23" s="187"/>
+      <c r="F23" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9707,8 +9713,8 @@
       <c r="B24" s="130"/>
       <c r="C24" s="130"/>
       <c r="D24" s="130"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="197">
+      <c r="E24" s="192"/>
+      <c r="F24" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9723,21 +9729,21 @@
       <c r="A25" s="146">
         <v>13</v>
       </c>
-      <c r="B25" s="234"/>
-      <c r="C25" s="235" t="s">
+      <c r="B25" s="210"/>
+      <c r="C25" s="211" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="236" t="s">
+      <c r="D25" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="237">
+      <c r="E25" s="213">
         <v>213544.5</v>
       </c>
-      <c r="F25" s="210">
+      <c r="F25" s="209">
         <f t="shared" si="3"/>
         <v>205002.72</v>
       </c>
-      <c r="G25" s="209">
+      <c r="G25" s="208">
         <f t="shared" si="0"/>
         <v>43777203341.040001</v>
       </c>
@@ -9758,25 +9764,25 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="146">
         <v>14</v>
       </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="235" t="s">
+      <c r="B26" s="210"/>
+      <c r="C26" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="236" t="s">
+      <c r="D26" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="237">
+      <c r="E26" s="213">
         <v>229099</v>
       </c>
-      <c r="F26" s="210">
+      <c r="F26" s="209">
         <f>E26-E26*4%</f>
         <v>219935.04</v>
       </c>
-      <c r="G26" s="209">
+      <c r="G26" s="208">
         <f t="shared" si="0"/>
         <v>50386897728.959999</v>
       </c>
@@ -9797,25 +9803,25 @@
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="146">
         <v>15</v>
       </c>
-      <c r="B27" s="234"/>
-      <c r="C27" s="235" t="s">
+      <c r="B27" s="210"/>
+      <c r="C27" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="236" t="s">
+      <c r="D27" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="237">
+      <c r="E27" s="213">
         <v>253942</v>
       </c>
-      <c r="F27" s="210">
+      <c r="F27" s="209">
         <f t="shared" si="3"/>
         <v>243784.32000000001</v>
       </c>
-      <c r="G27" s="209">
+      <c r="G27" s="208">
         <f t="shared" si="0"/>
         <v>61907077789.440002</v>
       </c>
@@ -9836,25 +9842,25 @@
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="146">
         <v>16</v>
       </c>
-      <c r="B28" s="234"/>
-      <c r="C28" s="235" t="s">
+      <c r="B28" s="210"/>
+      <c r="C28" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="236" t="s">
+      <c r="D28" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="237">
+      <c r="E28" s="213">
         <v>279909.5</v>
       </c>
-      <c r="F28" s="210">
+      <c r="F28" s="209">
         <f t="shared" si="3"/>
         <v>268713.12</v>
       </c>
-      <c r="G28" s="209">
+      <c r="G28" s="208">
         <f t="shared" si="0"/>
         <v>75215355062.639999</v>
       </c>
@@ -9875,25 +9881,25 @@
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="146">
         <v>17</v>
       </c>
-      <c r="B29" s="234"/>
-      <c r="C29" s="235" t="s">
+      <c r="B29" s="210"/>
+      <c r="C29" s="211" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="236" t="s">
+      <c r="D29" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="237">
+      <c r="E29" s="213">
         <v>318753.5</v>
       </c>
-      <c r="F29" s="210">
+      <c r="F29" s="209">
         <f t="shared" si="3"/>
         <v>306003.36</v>
       </c>
-      <c r="G29" s="209">
+      <c r="G29" s="208">
         <f t="shared" si="0"/>
         <v>97539642011.759995</v>
       </c>
@@ -9914,25 +9920,25 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="146">
         <v>18</v>
       </c>
-      <c r="B30" s="234"/>
-      <c r="C30" s="235" t="s">
+      <c r="B30" s="210"/>
+      <c r="C30" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="236" t="s">
+      <c r="D30" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="237">
+      <c r="E30" s="213">
         <v>344025.5</v>
       </c>
-      <c r="F30" s="210">
+      <c r="F30" s="209">
         <f t="shared" si="3"/>
         <v>330264.48</v>
       </c>
-      <c r="G30" s="209">
+      <c r="G30" s="208">
         <f t="shared" si="0"/>
         <v>113619402864.23999</v>
       </c>
@@ -9960,8 +9966,8 @@
       <c r="B31" s="130"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="197">
+      <c r="E31" s="192"/>
+      <c r="F31" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9975,25 +9981,25 @@
       <c r="K31" s="149"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="146">
         <v>20</v>
       </c>
-      <c r="B32" s="234"/>
-      <c r="C32" s="235" t="s">
+      <c r="B32" s="210"/>
+      <c r="C32" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="236" t="s">
+      <c r="D32" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="237">
+      <c r="E32" s="213">
         <v>221045.5</v>
       </c>
-      <c r="F32" s="210">
+      <c r="F32" s="209">
         <f t="shared" si="3"/>
         <v>212203.68</v>
       </c>
-      <c r="G32" s="209">
+      <c r="G32" s="208">
         <f t="shared" si="0"/>
         <v>46906668547.439995</v>
       </c>
@@ -10014,25 +10020,25 @@
       </c>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="146">
         <v>21</v>
       </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="235" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="236" t="s">
+      <c r="D33" s="212" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="237">
+      <c r="E33" s="213">
         <v>255320</v>
       </c>
-      <c r="F33" s="210">
+      <c r="F33" s="209">
         <f t="shared" si="3"/>
         <v>245107.20000000001</v>
       </c>
-      <c r="G33" s="209">
+      <c r="G33" s="208">
         <f t="shared" si="0"/>
         <v>62580770304</v>
       </c>
@@ -10053,25 +10059,25 @@
       </c>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="146">
         <v>22</v>
       </c>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235" t="s">
+      <c r="B34" s="210"/>
+      <c r="C34" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="212" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="237">
+      <c r="E34" s="213">
         <v>283946</v>
       </c>
-      <c r="F34" s="210">
+      <c r="F34" s="209">
         <f t="shared" si="3"/>
         <v>272588.15999999997</v>
       </c>
-      <c r="G34" s="209">
+      <c r="G34" s="208">
         <f t="shared" si="0"/>
         <v>77400317679.359985</v>
       </c>
@@ -10092,25 +10098,25 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="146">
         <v>23</v>
       </c>
-      <c r="B35" s="234"/>
-      <c r="C35" s="235" t="s">
+      <c r="B35" s="210"/>
+      <c r="C35" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="236" t="s">
+      <c r="D35" s="212" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="237">
+      <c r="E35" s="213">
         <v>312403</v>
       </c>
-      <c r="F35" s="210">
+      <c r="F35" s="209">
         <f t="shared" si="3"/>
         <v>299906.88</v>
       </c>
-      <c r="G35" s="209">
+      <c r="G35" s="208">
         <f t="shared" si="0"/>
         <v>93691809032.639999</v>
       </c>
@@ -10131,25 +10137,25 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="146">
         <v>24</v>
       </c>
-      <c r="B36" s="234"/>
-      <c r="C36" s="235" t="s">
+      <c r="B36" s="210"/>
+      <c r="C36" s="211" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="236" t="s">
+      <c r="D36" s="212" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="237">
+      <c r="E36" s="213">
         <v>340619.5</v>
       </c>
-      <c r="F36" s="210">
+      <c r="F36" s="209">
         <f t="shared" si="3"/>
         <v>326994.71999999997</v>
       </c>
-      <c r="G36" s="209">
+      <c r="G36" s="208">
         <f t="shared" si="0"/>
         <v>111380778029.03999</v>
       </c>
@@ -10170,25 +10176,25 @@
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="146">
         <v>25</v>
       </c>
-      <c r="B37" s="234"/>
-      <c r="C37" s="235" t="s">
+      <c r="B37" s="210"/>
+      <c r="C37" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="236" t="s">
+      <c r="D37" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="237">
+      <c r="E37" s="213">
         <v>386210.5</v>
       </c>
-      <c r="F37" s="210">
+      <c r="F37" s="209">
         <f t="shared" si="3"/>
         <v>370762.08</v>
       </c>
-      <c r="G37" s="209">
+      <c r="G37" s="208">
         <f t="shared" si="0"/>
         <v>143192208297.84</v>
       </c>
@@ -10210,14 +10216,14 @@
       <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="177" t="s">
+      <c r="A38" s="176" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="132"/>
       <c r="C38" s="132"/>
       <c r="D38" s="132"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="197">
+      <c r="E38" s="193"/>
+      <c r="F38" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10232,17 +10238,17 @@
       <c r="A39" s="146">
         <v>26</v>
       </c>
-      <c r="B39" s="238"/>
-      <c r="C39" s="235" t="s">
+      <c r="B39" s="214"/>
+      <c r="C39" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="239" t="s">
+      <c r="D39" s="215" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="237">
+      <c r="E39" s="213">
         <v>169708.5</v>
       </c>
-      <c r="F39" s="210">
+      <c r="F39" s="209">
         <f t="shared" si="3"/>
         <v>162920.16</v>
       </c>
@@ -10271,17 +10277,17 @@
       <c r="A40" s="146">
         <v>27</v>
       </c>
-      <c r="B40" s="238"/>
-      <c r="C40" s="235" t="s">
+      <c r="B40" s="214"/>
+      <c r="C40" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="239" t="s">
+      <c r="D40" s="215" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="237">
+      <c r="E40" s="213">
         <v>179965.5</v>
       </c>
-      <c r="F40" s="210">
+      <c r="F40" s="209">
         <f t="shared" si="3"/>
         <v>172766.88</v>
       </c>
@@ -10310,17 +10316,17 @@
       <c r="A41" s="146">
         <v>28</v>
       </c>
-      <c r="B41" s="238"/>
-      <c r="C41" s="235" t="s">
+      <c r="B41" s="214"/>
+      <c r="C41" s="211" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="239" t="s">
+      <c r="D41" s="215" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="237">
+      <c r="E41" s="213">
         <v>198061.5</v>
       </c>
-      <c r="F41" s="210">
+      <c r="F41" s="209">
         <f t="shared" si="3"/>
         <v>190139.04</v>
       </c>
@@ -10349,17 +10355,17 @@
       <c r="A42" s="146">
         <v>29</v>
       </c>
-      <c r="B42" s="238"/>
-      <c r="C42" s="235" t="s">
+      <c r="B42" s="214"/>
+      <c r="C42" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="239" t="s">
+      <c r="D42" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="237">
+      <c r="E42" s="213">
         <v>216710</v>
       </c>
-      <c r="F42" s="210">
+      <c r="F42" s="209">
         <f>E42-E42*4%</f>
         <v>208041.60000000001</v>
       </c>
@@ -10388,17 +10394,17 @@
       <c r="A43" s="146">
         <v>30</v>
       </c>
-      <c r="B43" s="238"/>
-      <c r="C43" s="235" t="s">
+      <c r="B43" s="214"/>
+      <c r="C43" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="239" t="s">
+      <c r="D43" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="237">
+      <c r="E43" s="213">
         <v>240727.5</v>
       </c>
-      <c r="F43" s="210">
+      <c r="F43" s="209">
         <f t="shared" si="3"/>
         <v>231098.4</v>
       </c>
@@ -10427,17 +10433,17 @@
       <c r="A44" s="146">
         <v>31</v>
       </c>
-      <c r="B44" s="238"/>
-      <c r="C44" s="235" t="s">
+      <c r="B44" s="214"/>
+      <c r="C44" s="211" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="239" t="s">
+      <c r="D44" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="237">
+      <c r="E44" s="213">
         <v>264069</v>
       </c>
-      <c r="F44" s="210">
+      <c r="F44" s="209">
         <f t="shared" si="3"/>
         <v>253506.24</v>
       </c>
@@ -10466,17 +10472,17 @@
       <c r="A45" s="146">
         <v>32</v>
       </c>
-      <c r="B45" s="238"/>
-      <c r="C45" s="235" t="s">
+      <c r="B45" s="214"/>
+      <c r="C45" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="239" t="s">
+      <c r="D45" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="237">
+      <c r="E45" s="213">
         <v>291213</v>
       </c>
-      <c r="F45" s="210">
+      <c r="F45" s="209">
         <f t="shared" si="3"/>
         <v>279564.48</v>
       </c>
@@ -10505,17 +10511,17 @@
       <c r="A46" s="146">
         <v>33</v>
       </c>
-      <c r="B46" s="238"/>
-      <c r="C46" s="235" t="s">
+      <c r="B46" s="214"/>
+      <c r="C46" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="239" t="s">
+      <c r="D46" s="215" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="237">
+      <c r="E46" s="213">
         <v>329719</v>
       </c>
-      <c r="F46" s="210">
+      <c r="F46" s="209">
         <f t="shared" si="3"/>
         <v>316530.24</v>
       </c>
@@ -10544,17 +10550,17 @@
       <c r="A47" s="146">
         <v>34</v>
       </c>
-      <c r="B47" s="238"/>
-      <c r="C47" s="235" t="s">
+      <c r="B47" s="214"/>
+      <c r="C47" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="239" t="s">
+      <c r="D47" s="215" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="237">
+      <c r="E47" s="213">
         <v>372502</v>
       </c>
-      <c r="F47" s="210">
+      <c r="F47" s="209">
         <f t="shared" si="3"/>
         <v>357601.92</v>
       </c>
@@ -10580,14 +10586,14 @@
       <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="213" t="s">
+      <c r="A48" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="214"/>
-      <c r="C48" s="214"/>
-      <c r="D48" s="214"/>
-      <c r="E48" s="190"/>
-      <c r="F48" s="197">
+      <c r="B48" s="223"/>
+      <c r="C48" s="223"/>
+      <c r="D48" s="223"/>
+      <c r="E48" s="189"/>
+      <c r="F48" s="196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -10602,17 +10608,17 @@
       <c r="A49" s="146">
         <v>35</v>
       </c>
-      <c r="B49" s="238"/>
-      <c r="C49" s="235" t="s">
+      <c r="B49" s="214"/>
+      <c r="C49" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="239" t="s">
+      <c r="D49" s="215" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="237">
+      <c r="E49" s="213">
         <v>255866</v>
       </c>
-      <c r="F49" s="210">
+      <c r="F49" s="209">
         <f>E49-E49*4%</f>
         <v>245631.35999999999</v>
       </c>
@@ -10641,17 +10647,17 @@
       <c r="A50" s="146">
         <v>36</v>
       </c>
-      <c r="B50" s="238"/>
-      <c r="C50" s="235" t="s">
+      <c r="B50" s="214"/>
+      <c r="C50" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="239" t="s">
+      <c r="D50" s="215" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="237">
+      <c r="E50" s="213">
         <v>278772</v>
       </c>
-      <c r="F50" s="210">
+      <c r="F50" s="209">
         <f t="shared" si="3"/>
         <v>267621.12</v>
       </c>
@@ -10680,17 +10686,17 @@
       <c r="A51" s="146">
         <v>37</v>
       </c>
-      <c r="B51" s="238"/>
-      <c r="C51" s="235" t="s">
+      <c r="B51" s="214"/>
+      <c r="C51" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="237">
+      <c r="E51" s="213">
         <v>305916</v>
       </c>
-      <c r="F51" s="210">
+      <c r="F51" s="209">
         <f t="shared" si="3"/>
         <v>293679.35999999999</v>
       </c>
@@ -10719,17 +10725,17 @@
       <c r="A52" s="146">
         <v>38</v>
       </c>
-      <c r="B52" s="238"/>
-      <c r="C52" s="235" t="s">
+      <c r="B52" s="214"/>
+      <c r="C52" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="239" t="s">
+      <c r="D52" s="215" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="237">
+      <c r="E52" s="213">
         <v>344422</v>
       </c>
-      <c r="F52" s="210">
+      <c r="F52" s="209">
         <f t="shared" si="3"/>
         <v>330645.12</v>
       </c>
@@ -10758,17 +10764,17 @@
       <c r="A53" s="152">
         <v>39</v>
       </c>
-      <c r="B53" s="240"/>
-      <c r="C53" s="241" t="s">
+      <c r="B53" s="216"/>
+      <c r="C53" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="242" t="s">
+      <c r="D53" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="243">
+      <c r="E53" s="219">
         <v>387211.5</v>
       </c>
-      <c r="F53" s="210">
+      <c r="F53" s="209">
         <f t="shared" si="3"/>
         <v>371723.04</v>
       </c>
@@ -10804,7 +10810,7 @@
       <c r="D54" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="195" t="e">
+      <c r="E54" s="194" t="e">
         <v>#REF!</v>
       </c>
       <c r="F54" s="123"/>
@@ -10840,7 +10846,7 @@
       <c r="D55" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="196" t="e">
+      <c r="E55" s="195" t="e">
         <v>#REF!</v>
       </c>
       <c r="F55" s="107"/>
@@ -10867,7 +10873,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D56" s="104"/>
-      <c r="F56" s="168"/>
+      <c r="F56" s="167"/>
       <c r="G56" s="136">
         <f>SUM(G7:G53)</f>
         <v>2992182289714.7993</v>
@@ -10921,19 +10927,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="104" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="186" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="185" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="21" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="37" customWidth="1"/>
@@ -10965,18 +10971,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="185"/>
+      <c r="F1" s="184"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="218"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="218"/>
-      <c r="W1" s="218"/>
-      <c r="X1" s="218"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
       <c r="Y1" s="117"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -11003,15 +11009,15 @@
       </c>
       <c r="H3" s="27">
         <f>H28+Лари!G56</f>
-        <v>2992182289714.7993</v>
+        <v>9461528416033.1992</v>
       </c>
       <c r="I3" s="39">
         <f>I28+Лари!H56</f>
-        <v>58850950355405.609</v>
+        <v>58850972989136.516</v>
       </c>
       <c r="J3" s="39">
         <f>J28+Лари!I56</f>
-        <v>706996511.51999998</v>
+        <v>1784519555.52</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="57"/>
@@ -11032,15 +11038,15 @@
       </c>
       <c r="H4" s="99">
         <f>H28</f>
-        <v>0</v>
+        <v>6469346126318.4004</v>
       </c>
       <c r="I4" s="39">
         <f>I28</f>
-        <v>0</v>
+        <v>22633730.907839999</v>
       </c>
       <c r="J4" s="39">
         <f>J28</f>
-        <v>0</v>
+        <v>1077523044</v>
       </c>
       <c r="K4" s="53"/>
       <c r="L4" s="4"/>
@@ -11068,7 +11074,7 @@
       <c r="E5" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="187" t="s">
+      <c r="F5" s="186" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="160" t="s">
@@ -11097,15 +11103,15 @@
       <c r="X5" s="64"/>
     </row>
     <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="220" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="129"/>
       <c r="I6" s="133"/>
       <c r="J6" s="133"/>
@@ -11117,31 +11123,34 @@
       <c r="A7" s="161">
         <v>1</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="178" t="s">
+      <c r="B7" s="243"/>
+      <c r="C7" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="179" t="s">
+      <c r="D7" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="175" t="s">
+      <c r="E7" s="174" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="189">
+      <c r="F7" s="188">
         <v>619242</v>
       </c>
-      <c r="G7" s="157"/>
+      <c r="G7" s="157">
+        <f>F7-F7*4%</f>
+        <v>594472.31999999995</v>
+      </c>
       <c r="H7" s="158">
         <f>F7*G7</f>
-        <v>0</v>
+        <v>368122228381.43994</v>
       </c>
       <c r="I7" s="127">
         <f t="shared" ref="I7:I27" si="0">K7*G7</f>
-        <v>0</v>
+        <v>877441.14431999996</v>
       </c>
       <c r="J7" s="127">
         <f t="shared" ref="J7:J27" si="1">L7*G7</f>
-        <v>0</v>
+        <v>74309040</v>
       </c>
       <c r="K7" s="128">
         <f>0.82*0.9*2</f>
@@ -11156,31 +11165,34 @@
       <c r="A8" s="161">
         <v>2</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="178" t="s">
+      <c r="B8" s="243"/>
+      <c r="C8" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="174" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="189">
+      <c r="F8" s="188">
         <v>689799.5</v>
       </c>
-      <c r="G8" s="157"/>
+      <c r="G8" s="157">
+        <f t="shared" ref="G8:G27" si="2">F8-F8*4%</f>
+        <v>662207.52</v>
+      </c>
       <c r="H8" s="158">
-        <f t="shared" ref="H8:H27" si="2">F8*G8</f>
-        <v>0</v>
+        <f t="shared" ref="H8:H27" si="3">F8*G8</f>
+        <v>456790416192.23999</v>
       </c>
       <c r="I8" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1221772.8744000001</v>
       </c>
       <c r="J8" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98006712.960000008</v>
       </c>
       <c r="K8" s="128">
         <f>0.82*0.9*2.5</f>
@@ -11192,15 +11204,18 @@
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="129"/>
       <c r="I9" s="133"/>
       <c r="J9" s="133"/>
@@ -11212,31 +11227,34 @@
       <c r="A10" s="161">
         <v>3</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="178" t="s">
+      <c r="B10" s="243"/>
+      <c r="C10" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="189">
+      <c r="F10" s="188">
         <v>691099.5</v>
       </c>
-      <c r="G10" s="157"/>
+      <c r="G10" s="157">
+        <f t="shared" si="2"/>
+        <v>663455.52</v>
+      </c>
       <c r="H10" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>458513778144.23999</v>
       </c>
       <c r="I10" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>979260.34752000007</v>
       </c>
       <c r="J10" s="127">
         <f>L10*G10</f>
-        <v>0</v>
+        <v>88903039.680000007</v>
       </c>
       <c r="K10" s="128">
         <f>0.82*0.9*2</f>
@@ -11251,31 +11269,34 @@
       <c r="A11" s="161">
         <v>4</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="178" t="s">
+      <c r="B11" s="243"/>
+      <c r="C11" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="179" t="s">
+      <c r="D11" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="175" t="s">
+      <c r="E11" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="189">
+      <c r="F11" s="188">
         <v>751016.5</v>
       </c>
-      <c r="G11" s="157"/>
+      <c r="G11" s="157">
+        <f t="shared" si="2"/>
+        <v>720975.84</v>
+      </c>
       <c r="H11" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>541464751941.35999</v>
       </c>
       <c r="I11" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1330200.4247999999</v>
       </c>
       <c r="J11" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112472231.03999999</v>
       </c>
       <c r="K11" s="128">
         <f>0.82*0.9*2.5</f>
@@ -11287,15 +11308,18 @@
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="219" t="s">
+      <c r="A12" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="220"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="169"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="129"/>
       <c r="I12" s="133"/>
       <c r="J12" s="133"/>
@@ -11308,30 +11332,33 @@
         <v>5</v>
       </c>
       <c r="B13" s="125"/>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="179" t="s">
+      <c r="D13" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="175" t="s">
+      <c r="E13" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="189">
+      <c r="F13" s="188">
         <v>713654.5</v>
       </c>
-      <c r="G13" s="157"/>
+      <c r="G13" s="157">
+        <f t="shared" si="2"/>
+        <v>685108.32</v>
+      </c>
       <c r="H13" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>488930635555.43994</v>
       </c>
       <c r="I13" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>937228.18175999995</v>
       </c>
       <c r="J13" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70566156.959999993</v>
       </c>
       <c r="K13" s="128">
         <f>0.8*0.9*1.9</f>
@@ -11347,30 +11374,33 @@
         <v>6</v>
       </c>
       <c r="B14" s="125"/>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="179" t="s">
+      <c r="D14" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="180" t="s">
+      <c r="E14" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="189">
+      <c r="F14" s="188">
         <v>713654.5</v>
       </c>
-      <c r="G14" s="157"/>
+      <c r="G14" s="157">
+        <f t="shared" si="2"/>
+        <v>685108.32</v>
+      </c>
       <c r="H14" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>488930635555.43994</v>
       </c>
       <c r="I14" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9958049.4311999995</v>
       </c>
       <c r="J14" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70566156.959999993</v>
       </c>
       <c r="K14" s="128">
         <f>8.5*0.9*1.9</f>
@@ -11386,30 +11416,33 @@
         <v>7</v>
       </c>
       <c r="B15" s="125"/>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="179" t="s">
+      <c r="D15" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="179" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="189">
+      <c r="F15" s="188">
         <v>735676.5</v>
       </c>
-      <c r="G15" s="157"/>
+      <c r="G15" s="157">
+        <f t="shared" si="2"/>
+        <v>706249.44</v>
+      </c>
       <c r="H15" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>519571116146.15997</v>
       </c>
       <c r="I15" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1134589.72536</v>
       </c>
       <c r="J15" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79806186.719999999</v>
       </c>
       <c r="K15" s="128">
         <f>0.85*0.9*2.1</f>
@@ -11425,30 +11458,33 @@
         <v>8</v>
       </c>
       <c r="B16" s="125"/>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="177" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="179" t="s">
+      <c r="D16" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="175" t="s">
+      <c r="E16" s="174" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="189">
+      <c r="F16" s="188">
         <v>760454.5</v>
       </c>
-      <c r="G16" s="157"/>
+      <c r="G16" s="157">
+        <f t="shared" si="2"/>
+        <v>730036.32</v>
+      </c>
       <c r="H16" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>555159404707.43994</v>
       </c>
       <c r="I16" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1396194.4620000001</v>
       </c>
       <c r="J16" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>118265883.83999999</v>
       </c>
       <c r="K16" s="128">
         <f>0.85*0.9*2.5</f>
@@ -11460,15 +11496,18 @@
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="219" t="s">
+      <c r="A17" s="228" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="220"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="129"/>
       <c r="I17" s="133"/>
       <c r="J17" s="133"/>
@@ -11481,30 +11520,33 @@
         <v>9</v>
       </c>
       <c r="B18" s="125"/>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="177" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="179" t="s">
+      <c r="D18" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="180" t="s">
+      <c r="E18" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="189">
+      <c r="F18" s="188">
         <v>770770</v>
       </c>
-      <c r="G18" s="157"/>
+      <c r="G18" s="157">
+        <f t="shared" si="2"/>
+        <v>739939.2</v>
+      </c>
       <c r="H18" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>570322937184</v>
       </c>
       <c r="I18" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1012236.8256</v>
       </c>
       <c r="J18" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76213737.599999994</v>
       </c>
       <c r="K18" s="128">
         <f>0.8*0.9*1.9</f>
@@ -11520,30 +11562,33 @@
         <v>10</v>
       </c>
       <c r="B19" s="125"/>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="179" t="s">
+      <c r="D19" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="175" t="s">
+      <c r="E19" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="189">
+      <c r="F19" s="188">
         <v>770770</v>
       </c>
-      <c r="G19" s="157"/>
+      <c r="G19" s="157">
+        <f t="shared" si="2"/>
+        <v>739939.2</v>
+      </c>
       <c r="H19" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>570322937184</v>
       </c>
       <c r="I19" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1075501.6272</v>
       </c>
       <c r="J19" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76213737.599999994</v>
       </c>
       <c r="K19" s="128">
         <f>0.85*0.9*1.9</f>
@@ -11559,30 +11604,33 @@
         <v>11</v>
       </c>
       <c r="B20" s="125"/>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="179" t="s">
+      <c r="D20" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="175" t="s">
+      <c r="E20" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="189">
+      <c r="F20" s="188">
         <v>787982</v>
       </c>
-      <c r="G20" s="157"/>
+      <c r="G20" s="157">
+        <f t="shared" si="2"/>
+        <v>756462.72</v>
+      </c>
       <c r="H20" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>596079007031.03992</v>
       </c>
       <c r="I20" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1215257.35968</v>
       </c>
       <c r="J20" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85480287.359999999</v>
       </c>
       <c r="K20" s="128">
         <f>0.85*0.9*2.1</f>
@@ -11598,30 +11646,33 @@
         <v>12</v>
       </c>
       <c r="B21" s="159"/>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="177" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="D21" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="175" t="s">
+      <c r="E21" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="189">
+      <c r="F21" s="188">
         <v>814814</v>
       </c>
-      <c r="G21" s="157"/>
+      <c r="G21" s="157">
+        <f t="shared" si="2"/>
+        <v>782221.44</v>
+      </c>
       <c r="H21" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>637364980412.15991</v>
       </c>
       <c r="I21" s="127">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1495998.504</v>
       </c>
       <c r="J21" s="127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>126719873.27999999</v>
       </c>
       <c r="K21" s="128">
         <f>0.85*0.9*2.5</f>
@@ -11633,15 +11684,18 @@
       <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="211" t="s">
+      <c r="A22" s="220" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="223"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="169"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="129"/>
       <c r="I22" s="133"/>
       <c r="J22" s="133"/>
@@ -11654,20 +11708,23 @@
         <v>11</v>
       </c>
       <c r="B23" s="125"/>
-      <c r="C23" s="222" t="s">
+      <c r="C23" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="222"/>
-      <c r="E23" s="184" t="s">
+      <c r="D23" s="231"/>
+      <c r="E23" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="189">
+      <c r="F23" s="188">
         <v>196937</v>
       </c>
-      <c r="G23" s="157"/>
+      <c r="G23" s="157">
+        <f t="shared" si="2"/>
+        <v>189059.52</v>
+      </c>
       <c r="H23" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>37232814690.239998</v>
       </c>
       <c r="I23" s="127">
         <f t="shared" si="0"/>
@@ -11686,20 +11743,23 @@
         <v>12</v>
       </c>
       <c r="B24" s="125"/>
-      <c r="C24" s="222" t="s">
+      <c r="C24" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="222"/>
-      <c r="E24" s="184" t="s">
+      <c r="D24" s="231"/>
+      <c r="E24" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="189">
+      <c r="F24" s="188">
         <v>223262</v>
       </c>
-      <c r="G24" s="157"/>
+      <c r="G24" s="157">
+        <f t="shared" si="2"/>
+        <v>214331.51999999999</v>
+      </c>
       <c r="H24" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>47852083818.239998</v>
       </c>
       <c r="I24" s="127">
         <f t="shared" si="0"/>
@@ -11718,18 +11778,21 @@
         <v>13</v>
       </c>
       <c r="B25" s="125"/>
-      <c r="C25" s="222" t="s">
+      <c r="C25" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="222"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="189">
+      <c r="D25" s="231"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="188">
         <v>202039.5</v>
       </c>
-      <c r="G25" s="157"/>
+      <c r="G25" s="157">
+        <f t="shared" si="2"/>
+        <v>193957.92</v>
+      </c>
       <c r="H25" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>39187161177.840004</v>
       </c>
       <c r="I25" s="127">
         <f t="shared" si="0"/>
@@ -11748,18 +11811,21 @@
         <v>14</v>
       </c>
       <c r="B26" s="125"/>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="222"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="189">
+      <c r="D26" s="231"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="188">
         <v>207129</v>
       </c>
-      <c r="G26" s="157"/>
+      <c r="G26" s="157">
+        <f t="shared" si="2"/>
+        <v>198843.84</v>
+      </c>
       <c r="H26" s="158">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>41186325735.360001</v>
       </c>
       <c r="I26" s="127">
         <f t="shared" si="0"/>
@@ -11778,18 +11844,21 @@
         <v>15</v>
       </c>
       <c r="B27" s="163"/>
-      <c r="C27" s="221" t="s">
+      <c r="C27" s="230" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="221"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="191">
+      <c r="D27" s="230"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="190">
         <v>233441</v>
       </c>
-      <c r="G27" s="164"/>
-      <c r="H27" s="165">
+      <c r="G27" s="157">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>224103.36</v>
+      </c>
+      <c r="H27" s="164">
+        <f t="shared" si="3"/>
+        <v>52314912461.759995</v>
       </c>
       <c r="I27" s="154">
         <f t="shared" si="0"/>
@@ -11804,18 +11873,18 @@
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="192"/>
-      <c r="H28" s="166">
+      <c r="F28" s="191"/>
+      <c r="H28" s="165">
         <f>SUM(H6:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="167">
+        <v>6469346126318.4004</v>
+      </c>
+      <c r="I28" s="166">
         <f>SUM(I6:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="167">
+        <v>22633730.907839999</v>
+      </c>
+      <c r="J28" s="166">
         <f>SUM(J6:J27)</f>
-        <v>0</v>
+        <v>1077523044</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -12072,13 +12141,13 @@
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -12130,13 +12199,13 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="235" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="227"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="236"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12247,7 +12316,7 @@
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="228"/>
+      <c r="B17" s="237"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12280,7 +12349,7 @@
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="229"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12313,7 +12382,7 @@
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="230"/>
+      <c r="B19" s="239"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12343,13 +12412,13 @@
       <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="226" t="s">
+      <c r="A20" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="236"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12556,13 +12625,13 @@
       <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="226" t="s">
+      <c r="A27" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12574,7 +12643,7 @@
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="231"/>
+      <c r="B28" s="240"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12607,7 +12676,7 @@
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="233"/>
+      <c r="B29" s="242"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12640,7 +12709,7 @@
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="231"/>
+      <c r="B30" s="240"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12673,7 +12742,7 @@
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="233"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12706,7 +12775,7 @@
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="231"/>
+      <c r="B32" s="240"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12739,7 +12808,7 @@
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="232"/>
+      <c r="B33" s="241"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12772,7 +12841,7 @@
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="232"/>
+      <c r="B34" s="241"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12805,7 +12874,7 @@
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="232"/>
+      <c r="B35" s="241"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12838,7 +12907,7 @@
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="232"/>
+      <c r="B36" s="241"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12871,7 +12940,7 @@
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="232"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -12904,7 +12973,7 @@
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="233"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -12934,13 +13003,13 @@
       <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="226" t="s">
+      <c r="A39" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="236"/>
+      <c r="D39" s="236"/>
+      <c r="E39" s="236"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>

--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\OpenServer 5.4.3\domains\TimeForEeexperiments\SoftIce\ice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966D901-41DC-4792-9535-C8D19B79CA47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12405" yWindow="2025" windowWidth="10635" windowHeight="10335" tabRatio="654"/>
+    <workbookView xWindow="12408" yWindow="2028" windowWidth="10632" windowHeight="10332" tabRatio="654" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лари" sheetId="9" r:id="rId1"/>
     <sheet name="Бонеты" sheetId="15" r:id="rId2"/>
     <sheet name="Снеж компл-е" sheetId="10" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2179,7 +2185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -2740,7 +2746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2839,12 +2845,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2876,6 +2876,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3585,7 +3597,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="22" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3899,9 +3911,6 @@
     <xf numFmtId="49" fontId="56" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3914,10 +3923,10 @@
     <xf numFmtId="4" fontId="35" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="56" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3966,10 +3975,10 @@
     <xf numFmtId="4" fontId="35" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="18" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="56" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="18" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="56" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3999,9 +4008,6 @@
     <xf numFmtId="4" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -4010,9 +4016,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4036,35 +4039,14 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="35" fillId="0" borderId="38" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4074,17 +4056,11 @@
     <xf numFmtId="3" fontId="56" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="14" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="30" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="14" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="56" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="56" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="36" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4096,77 +4072,125 @@
     <xf numFmtId="3" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="35" fillId="18" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="35" fillId="19" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="56" fillId="19" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="20" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="20" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="35" fillId="21" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="45" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="22" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="23" borderId="38" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="20" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="23" borderId="38" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="21" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="21" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="35" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="22" borderId="38" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="20" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="18" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="18" borderId="45" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="18" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4198,12 +4222,6 @@
     <xf numFmtId="0" fontId="36" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="56" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4237,12 +4255,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="23" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="24" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Акцент1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="3" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="4" builtinId="37" customBuiltin="1"/>
@@ -4262,10 +4313,10 @@
     <cellStyle name="Название" xfId="18" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="20"/>
-    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29"/>
-    <cellStyle name="Обычный_Балки БТ50" xfId="28"/>
-    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30"/>
+    <cellStyle name="Обычный 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Обычный_Балки БТ50" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Плохой" xfId="21" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="23" builtinId="10" customBuiltin="1"/>
@@ -4379,7 +4430,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4429,7 +4480,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4479,7 +4530,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,7 +4580,7 @@
         <xdr:cNvPr id="67" name="Рисунок 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,7 +4630,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4629,7 +4680,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4679,7 +4730,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4729,7 +4780,7 @@
         <xdr:cNvPr id="72" name="Рисунок 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4779,7 +4830,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,7 +4880,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4879,7 +4930,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4929,7 +4980,7 @@
         <xdr:cNvPr id="73" name="Рисунок 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4979,7 +5030,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5029,7 +5080,7 @@
         <xdr:cNvPr id="74" name="Рисунок 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5079,7 +5130,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,7 +5180,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5179,7 +5230,7 @@
         <xdr:cNvPr id="76" name="Рисунок 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5229,7 +5280,7 @@
         <xdr:cNvPr id="78" name="Рисунок 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5279,7 +5330,7 @@
         <xdr:cNvPr id="79" name="Рисунок 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5329,7 +5380,7 @@
         <xdr:cNvPr id="81" name="Рисунок 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5379,7 +5430,7 @@
         <xdr:cNvPr id="82" name="Рисунок 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5429,7 +5480,7 @@
         <xdr:cNvPr id="83" name="Рисунок 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5479,7 +5530,7 @@
         <xdr:cNvPr id="86" name="Рисунок 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5529,7 +5580,7 @@
         <xdr:cNvPr id="88" name="Рисунок 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,7 +5630,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5629,7 +5680,7 @@
         <xdr:cNvPr id="91" name="Рисунок 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5730,7 @@
         <xdr:cNvPr id="93" name="Рисунок 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5729,7 +5780,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,7 +5830,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5829,7 +5880,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5879,7 +5930,7 @@
         <xdr:cNvPr id="100" name="Рисунок 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5929,7 +5980,7 @@
         <xdr:cNvPr id="101" name="Рисунок 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5979,7 +6030,7 @@
         <xdr:cNvPr id="102" name="Рисунок 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6029,7 +6080,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6079,7 +6130,7 @@
         <xdr:cNvPr id="106" name="Рисунок 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6129,7 +6180,7 @@
         <xdr:cNvPr id="107" name="Рисунок 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6230,7 @@
         <xdr:cNvPr id="109" name="Рисунок 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6229,7 +6280,7 @@
         <xdr:cNvPr id="110" name="Рисунок 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6279,7 +6330,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6329,7 +6380,7 @@
         <xdr:cNvPr id="113" name="Рисунок 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6379,7 +6430,7 @@
         <xdr:cNvPr id="114" name="Рисунок 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6429,7 +6480,7 @@
         <xdr:cNvPr id="44" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6508,7 +6559,7 @@
         <xdr:cNvPr id="2" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6582,7 +6633,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6632,7 +6683,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6682,7 +6733,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6732,7 +6783,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6782,7 +6833,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6832,7 +6883,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6882,7 +6933,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6932,7 +6983,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6982,7 +7033,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7032,7 +7083,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7133,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7132,7 +7183,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7182,7 +7233,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7232,7 +7283,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7282,7 +7333,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7332,7 +7383,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7382,7 +7433,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7437,7 +7488,7 @@
         <xdr:cNvPr id="18" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7511,7 +7562,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7554,7 +7605,7 @@
         <xdr:cNvPr id="90" name="Рисунок 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7598,7 +7649,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7642,7 +7693,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7686,7 +7737,7 @@
         <xdr:cNvPr id="97" name="Рисунок 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7729,7 +7780,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7772,7 +7823,7 @@
         <xdr:cNvPr id="99" name="Рисунок 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7816,7 +7867,7 @@
         <xdr:cNvPr id="100" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7890,7 +7941,7 @@
         <xdr:cNvPr id="101" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7964,7 +8015,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8008,7 +8059,7 @@
         <xdr:cNvPr id="105" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8083,7 +8134,7 @@
 Ð¾Ð»Ð¾Ð´&quot; Ð² Ð¡Ð°Ð¼Ð°ÑÐµ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8142,7 +8193,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8186,7 +8237,7 @@
         <xdr:cNvPr id="116" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8260,7 +8311,7 @@
         <xdr:cNvPr id="119" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8334,7 +8385,7 @@
         <xdr:cNvPr id="121" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8408,7 +8459,7 @@
         <xdr:cNvPr id="136" name="Рисунок 135" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÑÑÑÐºÐ° ÐÐÐ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,7 +8518,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8511,7 +8562,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8911,37 +8962,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="D51:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="185" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="175" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="37" customWidth="1"/>
     <col min="10" max="10" width="10" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="9.109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8953,33 +9004,33 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="184"/>
+      <c r="F1" s="174"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="170"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N2" s="166"/>
+      <c r="O2" s="167"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
@@ -8999,15 +9050,15 @@
         <f>I56+Бонеты!J28</f>
         <v>1784519555.52</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="171"/>
-    </row>
-    <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="166"/>
+      <c r="O3" s="168"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
       <c r="D4" s="116"/>
-      <c r="E4" s="191"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9025,1781 +9076,1781 @@
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="4"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="172"/>
-    </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
+      <c r="N4" s="166"/>
+      <c r="O4" s="169"/>
+    </row>
+    <row r="5" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="186" t="s">
+      <c r="E5" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="141" t="s">
+      <c r="H5" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="142" t="s">
+      <c r="I5" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="143" t="s">
+      <c r="J5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="173"/>
-      <c r="O5" s="170"/>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="220" t="s">
+      <c r="N5" s="170"/>
+      <c r="O5" s="167"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="224" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="197" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="185" t="s">
         <v>189</v>
       </c>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
       <c r="I6" s="124"/>
       <c r="J6" s="124"/>
-      <c r="K6" s="145"/>
+      <c r="K6" s="144"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="146">
+    <row r="7" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+      <c r="A7" s="145">
         <v>1</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="199" t="s">
+      <c r="B7" s="186"/>
+      <c r="C7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="188" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="201">
+      <c r="E7" s="189">
         <v>199927</v>
       </c>
-      <c r="F7" s="202">
+      <c r="F7" s="190">
         <f>E7-E7*4%</f>
         <v>191929.92</v>
       </c>
-      <c r="G7" s="126">
+      <c r="G7" s="125">
         <f>E7*F7</f>
         <v>38371973115.840004</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="126">
         <f>J7*F7</f>
         <v>77386.143744000001</v>
       </c>
-      <c r="I7" s="127">
+      <c r="I7" s="126">
         <f>K7*F7</f>
         <v>9212636.1600000001</v>
       </c>
-      <c r="J7" s="128">
+      <c r="J7" s="127">
         <f>0.84*0.6*0.8</f>
         <v>0.4032</v>
       </c>
-      <c r="K7" s="147">
+      <c r="K7" s="146">
         <v>48</v>
       </c>
       <c r="L7" s="22"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146">
+    <row r="8" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+      <c r="A8" s="145">
         <v>2</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="199" t="s">
+      <c r="B8" s="186"/>
+      <c r="C8" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="200" t="s">
+      <c r="D8" s="188" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="201">
+      <c r="E8" s="189">
         <v>218712</v>
       </c>
-      <c r="F8" s="202">
+      <c r="F8" s="190">
         <f>E8-E8*4%</f>
         <v>209963.51999999999</v>
       </c>
-      <c r="G8" s="126">
+      <c r="G8" s="125">
         <f t="shared" ref="G8:G37" si="0">E8*F8</f>
         <v>45921541386.239998</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="126">
         <f t="shared" ref="H8:H30" si="1">J8*F8</f>
         <v>123458.54975999998</v>
       </c>
-      <c r="I8" s="127">
+      <c r="I8" s="126">
         <f t="shared" ref="I8:I30" si="2">K8*F8</f>
         <v>14067555.84</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="127">
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K8" s="147">
+      <c r="K8" s="146">
         <v>67</v>
       </c>
       <c r="L8" s="22"/>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="146">
+    <row r="9" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+      <c r="A9" s="145">
         <v>3</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199" t="s">
+      <c r="B9" s="186"/>
+      <c r="C9" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="201">
+      <c r="E9" s="189">
         <v>243067.5</v>
       </c>
-      <c r="F9" s="202">
+      <c r="F9" s="190">
         <f t="shared" ref="F9:F53" si="3">E9-E9*4%</f>
         <v>233344.8</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="125">
         <f t="shared" si="0"/>
         <v>56718537174</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="126">
         <f t="shared" si="1"/>
         <v>164648.09087999997</v>
       </c>
-      <c r="I9" s="127">
+      <c r="I9" s="126">
         <f t="shared" si="2"/>
         <v>14467377.6</v>
       </c>
-      <c r="J9" s="128">
+      <c r="J9" s="127">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K9" s="147">
+      <c r="K9" s="146">
         <v>62</v>
       </c>
       <c r="L9" s="22"/>
       <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="146">
+    <row r="10" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+      <c r="A10" s="145">
         <v>4</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="199" t="s">
+      <c r="B10" s="186"/>
+      <c r="C10" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="201">
+      <c r="E10" s="189">
         <v>266545.5</v>
       </c>
-      <c r="F10" s="202">
+      <c r="F10" s="190">
         <f t="shared" si="3"/>
         <v>255883.68</v>
       </c>
-      <c r="G10" s="126">
+      <c r="G10" s="125">
         <f t="shared" si="0"/>
         <v>68204643427.439995</v>
       </c>
-      <c r="H10" s="127">
+      <c r="H10" s="126">
         <f t="shared" si="1"/>
         <v>210643.44537599999</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="126">
         <f t="shared" si="2"/>
         <v>17911857.599999998</v>
       </c>
-      <c r="J10" s="128">
+      <c r="J10" s="127">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K10" s="147">
+      <c r="K10" s="146">
         <v>70</v>
       </c>
       <c r="L10" s="22"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="146">
+    <row r="11" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+      <c r="A11" s="145">
         <v>5</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="199" t="s">
+      <c r="B11" s="186"/>
+      <c r="C11" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="201">
+      <c r="E11" s="189">
         <v>293949.5</v>
       </c>
-      <c r="F11" s="202">
+      <c r="F11" s="190">
         <f t="shared" si="3"/>
         <v>282191.52</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="125">
         <f t="shared" si="0"/>
         <v>82950056208.240005</v>
       </c>
-      <c r="H11" s="127">
+      <c r="H11" s="126">
         <f t="shared" si="1"/>
         <v>265485.78201600001</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="126">
         <f t="shared" si="2"/>
         <v>21164364</v>
       </c>
-      <c r="J11" s="128">
+      <c r="J11" s="127">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="146">
         <v>75</v>
       </c>
       <c r="L11" s="22"/>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="146">
+    <row r="12" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+      <c r="A12" s="145">
         <v>6</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="199" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="188" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="201">
+      <c r="E12" s="189">
         <v>332793.5</v>
       </c>
-      <c r="F12" s="202">
+      <c r="F12" s="190">
         <f t="shared" si="3"/>
         <v>319481.76</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="125">
         <f t="shared" si="0"/>
         <v>106321453096.56</v>
       </c>
-      <c r="H12" s="127">
+      <c r="H12" s="126">
         <f t="shared" si="1"/>
         <v>289833.85267200001</v>
       </c>
-      <c r="I12" s="127">
+      <c r="I12" s="126">
         <f t="shared" si="2"/>
         <v>27475431.359999999</v>
       </c>
-      <c r="J12" s="128">
+      <c r="J12" s="127">
         <f>0.84*0.6*1.8</f>
         <v>0.90720000000000001</v>
       </c>
-      <c r="K12" s="147">
+      <c r="K12" s="146">
         <v>86</v>
       </c>
       <c r="L12" s="22"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="224" t="s">
+    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="228" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="196">
+      <c r="B13" s="229"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="129"/>
+      <c r="G13" s="128"/>
       <c r="H13" s="124"/>
       <c r="I13" s="124"/>
       <c r="J13" s="124"/>
-      <c r="K13" s="145"/>
+      <c r="K13" s="144"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="146">
+    <row r="14" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="145">
         <v>7</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204" t="s">
+      <c r="B14" s="191"/>
+      <c r="C14" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="205" t="s">
+      <c r="D14" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="206">
+      <c r="E14" s="194">
         <v>164521.5</v>
       </c>
-      <c r="F14" s="207">
+      <c r="F14" s="195">
         <f>E14-E14*4%</f>
         <v>157940.64000000001</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="125">
         <f t="shared" si="0"/>
         <v>25984631003.760002</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="126">
         <f t="shared" si="1"/>
         <v>65008.367424000004</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="126">
         <f t="shared" si="2"/>
         <v>6791447.5200000005</v>
       </c>
-      <c r="J14" s="128">
+      <c r="J14" s="127">
         <f>0.84*0.7*0.7</f>
         <v>0.41159999999999997</v>
       </c>
-      <c r="K14" s="147">
+      <c r="K14" s="146">
         <v>43</v>
       </c>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="146">
+    <row r="15" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="145">
         <v>8</v>
       </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="204" t="s">
+      <c r="B15" s="191"/>
+      <c r="C15" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="205" t="s">
+      <c r="D15" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="206">
+      <c r="E15" s="194">
         <v>174460</v>
       </c>
-      <c r="F15" s="207">
+      <c r="F15" s="195">
         <f t="shared" si="3"/>
         <v>167481.60000000001</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="125">
         <f t="shared" si="0"/>
         <v>29218839936</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="126">
         <f t="shared" si="1"/>
         <v>78783.344639999996</v>
       </c>
-      <c r="I15" s="127">
+      <c r="I15" s="126">
         <f t="shared" si="2"/>
         <v>7536672</v>
       </c>
-      <c r="J15" s="128">
+      <c r="J15" s="127">
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K15" s="147">
+      <c r="K15" s="146">
         <v>45</v>
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="146">
+    <row r="16" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="145">
         <v>9</v>
       </c>
-      <c r="B16" s="203"/>
-      <c r="C16" s="204" t="s">
+      <c r="B16" s="191"/>
+      <c r="C16" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="205" t="s">
+      <c r="D16" s="193" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="206">
+      <c r="E16" s="194">
         <v>192010</v>
       </c>
-      <c r="F16" s="207">
+      <c r="F16" s="195">
         <f t="shared" si="3"/>
         <v>184329.60000000001</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="125">
         <f t="shared" si="0"/>
         <v>35393126496</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="126">
         <f t="shared" si="1"/>
         <v>86708.643840000004</v>
       </c>
-      <c r="I16" s="127">
+      <c r="I16" s="126">
         <f t="shared" si="2"/>
         <v>8847820.8000000007</v>
       </c>
-      <c r="J16" s="128">
+      <c r="J16" s="127">
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K16" s="147">
+      <c r="K16" s="146">
         <v>48</v>
       </c>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="146">
+    <row r="17" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="145">
         <v>10</v>
       </c>
-      <c r="B17" s="203"/>
-      <c r="C17" s="204" t="s">
+      <c r="B17" s="191"/>
+      <c r="C17" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="205" t="s">
+      <c r="D17" s="193" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="206">
+      <c r="E17" s="194">
         <v>210086.5</v>
       </c>
-      <c r="F17" s="207">
+      <c r="F17" s="195">
         <f t="shared" si="3"/>
         <v>201683.04</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="125">
         <f t="shared" si="0"/>
         <v>42370883982.959999</v>
       </c>
-      <c r="H17" s="127">
+      <c r="H17" s="126">
         <f t="shared" si="1"/>
         <v>118589.62751999999</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="126">
         <f t="shared" si="2"/>
         <v>10689201.120000001</v>
       </c>
-      <c r="J17" s="128">
+      <c r="J17" s="127">
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K17" s="147">
+      <c r="K17" s="146">
         <v>53</v>
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="146">
+    <row r="18" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="145">
         <v>11</v>
       </c>
-      <c r="B18" s="203"/>
-      <c r="C18" s="204" t="s">
+      <c r="B18" s="191"/>
+      <c r="C18" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="205" t="s">
+      <c r="D18" s="193" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="206">
+      <c r="E18" s="194">
         <v>233369.5</v>
       </c>
-      <c r="F18" s="207">
+      <c r="F18" s="195">
         <f t="shared" si="3"/>
         <v>224034.72</v>
       </c>
-      <c r="G18" s="126">
+      <c r="G18" s="125">
         <f t="shared" si="0"/>
         <v>52282870589.040001</v>
       </c>
-      <c r="H18" s="127">
+      <c r="H18" s="126">
         <f t="shared" si="1"/>
         <v>158078.89843199999</v>
       </c>
-      <c r="I18" s="127">
+      <c r="I18" s="126">
         <f t="shared" si="2"/>
         <v>12994013.76</v>
       </c>
-      <c r="J18" s="128">
+      <c r="J18" s="127">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K18" s="147">
+      <c r="K18" s="146">
         <v>58</v>
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="204" t="s">
+    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="145"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="205" t="s">
+      <c r="D19" s="193" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="206">
+      <c r="E19" s="194">
         <v>255989.5</v>
       </c>
-      <c r="F19" s="207">
+      <c r="F19" s="195">
         <f t="shared" si="3"/>
         <v>245749.92</v>
       </c>
-      <c r="G19" s="126">
+      <c r="G19" s="125">
         <f t="shared" si="0"/>
         <v>62909399145.840004</v>
       </c>
-      <c r="H19" s="127">
+      <c r="H19" s="126">
         <f t="shared" si="1"/>
         <v>202301.33414399999</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="126">
         <f t="shared" si="2"/>
         <v>15482244.960000001</v>
       </c>
-      <c r="J19" s="182">
+      <c r="J19" s="173">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K19" s="147">
+      <c r="K19" s="146">
         <v>63</v>
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="204" t="s">
+    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="145"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="205" t="s">
+      <c r="D20" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="206">
+      <c r="E20" s="194">
         <v>282314.5</v>
       </c>
-      <c r="F20" s="207">
+      <c r="F20" s="195">
         <f t="shared" si="3"/>
         <v>271021.92</v>
       </c>
-      <c r="G20" s="126">
+      <c r="G20" s="125">
         <f t="shared" si="0"/>
         <v>76513417833.839996</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="126">
         <f t="shared" si="1"/>
         <v>254977.42233599999</v>
       </c>
-      <c r="I20" s="127">
+      <c r="I20" s="126">
         <f t="shared" si="2"/>
         <v>18429490.559999999</v>
       </c>
-      <c r="J20" s="128">
+      <c r="J20" s="127">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K20" s="147">
+      <c r="K20" s="146">
         <v>68</v>
       </c>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="204" t="s">
+    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="145"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="205" t="s">
+      <c r="D21" s="193" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="206">
+      <c r="E21" s="194">
         <v>319631</v>
       </c>
-      <c r="F21" s="207">
+      <c r="F21" s="195">
         <f t="shared" si="3"/>
         <v>306845.76</v>
       </c>
-      <c r="G21" s="126">
+      <c r="G21" s="125">
         <f t="shared" si="0"/>
         <v>98077417114.559998</v>
       </c>
-      <c r="H21" s="127">
+      <c r="H21" s="126">
         <f t="shared" si="1"/>
         <v>324765.55238400004</v>
       </c>
-      <c r="I21" s="127">
+      <c r="I21" s="126">
         <f t="shared" si="2"/>
         <v>22399740.48</v>
       </c>
-      <c r="J21" s="128">
+      <c r="J21" s="127">
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K21" s="147">
+      <c r="K21" s="146">
         <v>73</v>
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="146">
+    <row r="22" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="145">
         <v>12</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="204" t="s">
+      <c r="B22" s="191"/>
+      <c r="C22" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="205" t="s">
+      <c r="D22" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="206">
+      <c r="E22" s="194">
         <v>361114</v>
       </c>
-      <c r="F22" s="207">
+      <c r="F22" s="195">
         <f t="shared" si="3"/>
         <v>346669.44</v>
       </c>
-      <c r="G22" s="126">
+      <c r="G22" s="125">
         <f t="shared" si="0"/>
         <v>125187188156.16</v>
       </c>
-      <c r="H22" s="127">
+      <c r="H22" s="126">
         <f t="shared" si="1"/>
         <v>407683.26143999997</v>
       </c>
-      <c r="I22" s="127">
+      <c r="I22" s="126">
         <f t="shared" si="2"/>
         <v>27040216.32</v>
       </c>
-      <c r="J22" s="128">
+      <c r="J22" s="127">
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K22" s="147">
+      <c r="K22" s="146">
         <v>78</v>
       </c>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="175" t="s">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="171" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="124"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="196">
+      <c r="E23" s="177"/>
+      <c r="F23" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G23" s="129"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="124"/>
       <c r="I23" s="124"/>
       <c r="J23" s="124"/>
-      <c r="K23" s="145"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="148" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="196">
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="149"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="148"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="146">
+    <row r="25" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="145">
         <v>13</v>
       </c>
-      <c r="B25" s="210"/>
-      <c r="C25" s="211" t="s">
+      <c r="B25" s="198"/>
+      <c r="C25" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="212" t="s">
+      <c r="D25" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="213">
+      <c r="E25" s="201">
         <v>213544.5</v>
       </c>
-      <c r="F25" s="209">
+      <c r="F25" s="197">
         <f t="shared" si="3"/>
         <v>205002.72</v>
       </c>
-      <c r="G25" s="208">
+      <c r="G25" s="196">
         <f t="shared" si="0"/>
         <v>43777203341.040001</v>
       </c>
-      <c r="H25" s="127">
+      <c r="H25" s="126">
         <f t="shared" si="1"/>
         <v>98729.309952000011</v>
       </c>
-      <c r="I25" s="127">
+      <c r="I25" s="126">
         <f t="shared" si="2"/>
         <v>9840130.5600000005</v>
       </c>
-      <c r="J25" s="128">
+      <c r="J25" s="127">
         <f>0.86*0.7*0.8</f>
         <v>0.48160000000000003</v>
       </c>
-      <c r="K25" s="147">
+      <c r="K25" s="146">
         <v>48</v>
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A26" s="146">
+    <row r="26" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="145">
         <v>14</v>
       </c>
-      <c r="B26" s="210"/>
-      <c r="C26" s="211" t="s">
+      <c r="B26" s="198"/>
+      <c r="C26" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="212" t="s">
+      <c r="D26" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="213">
+      <c r="E26" s="201">
         <v>229099</v>
       </c>
-      <c r="F26" s="209">
+      <c r="F26" s="197">
         <f>E26-E26*4%</f>
         <v>219935.04</v>
       </c>
-      <c r="G26" s="208">
+      <c r="G26" s="196">
         <f t="shared" si="0"/>
         <v>50386897728.959999</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H26" s="126">
         <f t="shared" si="1"/>
         <v>132400.89408</v>
       </c>
-      <c r="I26" s="127">
+      <c r="I26" s="126">
         <f t="shared" si="2"/>
         <v>12096427.200000001</v>
       </c>
-      <c r="J26" s="128">
+      <c r="J26" s="127">
         <f>0.86*0.7*1</f>
         <v>0.60199999999999998</v>
       </c>
-      <c r="K26" s="147">
+      <c r="K26" s="146">
         <v>55</v>
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="146">
+    <row r="27" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="145">
         <v>15</v>
       </c>
-      <c r="B27" s="210"/>
-      <c r="C27" s="211" t="s">
+      <c r="B27" s="198"/>
+      <c r="C27" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="212" t="s">
+      <c r="D27" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="213">
+      <c r="E27" s="201">
         <v>253942</v>
       </c>
-      <c r="F27" s="209">
+      <c r="F27" s="197">
         <f t="shared" si="3"/>
         <v>243784.32000000001</v>
       </c>
-      <c r="G27" s="208">
+      <c r="G27" s="196">
         <f t="shared" si="0"/>
         <v>61907077789.440002</v>
       </c>
-      <c r="H27" s="127">
+      <c r="H27" s="126">
         <f t="shared" si="1"/>
         <v>176109.79276799998</v>
       </c>
-      <c r="I27" s="127">
+      <c r="I27" s="126">
         <f t="shared" si="2"/>
         <v>15358412.16</v>
       </c>
-      <c r="J27" s="128">
+      <c r="J27" s="127">
         <f>0.86*0.7*1.2</f>
         <v>0.72239999999999993</v>
       </c>
-      <c r="K27" s="147">
+      <c r="K27" s="146">
         <v>63</v>
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="146">
+    <row r="28" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="145">
         <v>16</v>
       </c>
-      <c r="B28" s="210"/>
-      <c r="C28" s="211" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="212" t="s">
+      <c r="D28" s="200" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="213">
+      <c r="E28" s="201">
         <v>279909.5</v>
       </c>
-      <c r="F28" s="209">
+      <c r="F28" s="197">
         <f t="shared" si="3"/>
         <v>268713.12</v>
       </c>
-      <c r="G28" s="208">
+      <c r="G28" s="196">
         <f t="shared" si="0"/>
         <v>75215355062.639999</v>
       </c>
-      <c r="H28" s="127">
+      <c r="H28" s="126">
         <f t="shared" si="1"/>
         <v>226471.41753599996</v>
       </c>
-      <c r="I28" s="127">
+      <c r="I28" s="126">
         <f t="shared" si="2"/>
         <v>19078631.52</v>
       </c>
-      <c r="J28" s="128">
+      <c r="J28" s="127">
         <f>0.86*0.7*1.4</f>
         <v>0.84279999999999988</v>
       </c>
-      <c r="K28" s="147">
+      <c r="K28" s="146">
         <v>71</v>
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="146">
+    <row r="29" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="145">
         <v>17</v>
       </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="211" t="s">
+      <c r="B29" s="198"/>
+      <c r="C29" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="212" t="s">
+      <c r="D29" s="200" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="213">
+      <c r="E29" s="201">
         <v>318753.5</v>
       </c>
-      <c r="F29" s="209">
+      <c r="F29" s="197">
         <f t="shared" si="3"/>
         <v>306003.36</v>
       </c>
-      <c r="G29" s="208">
+      <c r="G29" s="196">
         <f t="shared" si="0"/>
         <v>97539642011.759995</v>
       </c>
-      <c r="H29" s="127">
+      <c r="H29" s="126">
         <f t="shared" si="1"/>
         <v>294742.43635199999</v>
       </c>
-      <c r="I29" s="127">
+      <c r="I29" s="126">
         <f t="shared" si="2"/>
         <v>22950252</v>
       </c>
-      <c r="J29" s="128">
+      <c r="J29" s="127">
         <f>0.86*0.7*1.6</f>
         <v>0.96320000000000006</v>
       </c>
-      <c r="K29" s="147">
+      <c r="K29" s="146">
         <v>75</v>
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="146">
+    <row r="30" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="145">
         <v>18</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="211" t="s">
+      <c r="B30" s="198"/>
+      <c r="C30" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="212" t="s">
+      <c r="D30" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="213">
+      <c r="E30" s="201">
         <v>344025.5</v>
       </c>
-      <c r="F30" s="209">
+      <c r="F30" s="197">
         <f t="shared" si="3"/>
         <v>330264.48</v>
       </c>
-      <c r="G30" s="208">
+      <c r="G30" s="196">
         <f t="shared" si="0"/>
         <v>113619402864.23999</v>
       </c>
-      <c r="H30" s="127">
+      <c r="H30" s="126">
         <f t="shared" si="1"/>
         <v>357874.59052799997</v>
       </c>
-      <c r="I30" s="127">
+      <c r="I30" s="126">
         <f t="shared" si="2"/>
         <v>28402745.279999997</v>
       </c>
-      <c r="J30" s="128">
+      <c r="J30" s="127">
         <f>0.86*0.7*1.8</f>
         <v>1.0835999999999999</v>
       </c>
-      <c r="K30" s="147">
+      <c r="K30" s="146">
         <v>86</v>
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="148" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="196">
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="131">
+      <c r="G31" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="149"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="148"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="146">
+    <row r="32" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="145">
         <v>20</v>
       </c>
-      <c r="B32" s="210"/>
-      <c r="C32" s="211" t="s">
+      <c r="B32" s="198"/>
+      <c r="C32" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="212" t="s">
+      <c r="D32" s="200" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="213">
+      <c r="E32" s="201">
         <v>221045.5</v>
       </c>
-      <c r="F32" s="209">
+      <c r="F32" s="197">
         <f t="shared" si="3"/>
         <v>212203.68</v>
       </c>
-      <c r="G32" s="208">
+      <c r="G32" s="196">
         <f t="shared" si="0"/>
         <v>46906668547.439995</v>
       </c>
-      <c r="H32" s="127">
+      <c r="H32" s="126">
         <f t="shared" ref="H32:H37" si="4">J32*F32</f>
         <v>103474.7584416</v>
       </c>
-      <c r="I32" s="127">
+      <c r="I32" s="126">
         <f t="shared" ref="I32:I37" si="5">K32*F32</f>
         <v>11034591.359999999</v>
       </c>
-      <c r="J32" s="128">
+      <c r="J32" s="127">
         <f>0.86*0.7*0.81</f>
         <v>0.48762</v>
       </c>
-      <c r="K32" s="147">
+      <c r="K32" s="146">
         <v>52</v>
       </c>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="146">
+    <row r="33" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="145">
         <v>21</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="211" t="s">
+      <c r="B33" s="198"/>
+      <c r="C33" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="212" t="s">
+      <c r="D33" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="213">
+      <c r="E33" s="201">
         <v>255320</v>
       </c>
-      <c r="F33" s="209">
+      <c r="F33" s="197">
         <f t="shared" si="3"/>
         <v>245107.20000000001</v>
       </c>
-      <c r="G33" s="208">
+      <c r="G33" s="196">
         <f t="shared" si="0"/>
         <v>62580770304</v>
       </c>
-      <c r="H33" s="127">
+      <c r="H33" s="126">
         <f t="shared" si="4"/>
         <v>162309.98784000002</v>
       </c>
-      <c r="I33" s="127">
+      <c r="I33" s="126">
         <f t="shared" si="5"/>
         <v>14216217.600000001</v>
       </c>
-      <c r="J33" s="128">
+      <c r="J33" s="127">
         <f>0.86*0.7*1.1</f>
         <v>0.66220000000000001</v>
       </c>
-      <c r="K33" s="147">
+      <c r="K33" s="146">
         <v>58</v>
       </c>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A34" s="146">
+    <row r="34" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="145">
         <v>22</v>
       </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="211" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="212" t="s">
+      <c r="D34" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="213">
+      <c r="E34" s="201">
         <v>283946</v>
       </c>
-      <c r="F34" s="209">
+      <c r="F34" s="197">
         <f t="shared" si="3"/>
         <v>272588.15999999997</v>
       </c>
-      <c r="G34" s="208">
+      <c r="G34" s="196">
         <f t="shared" si="0"/>
         <v>77400317679.359985</v>
       </c>
-      <c r="H34" s="127">
+      <c r="H34" s="126">
         <f t="shared" si="4"/>
         <v>213327.49401599998</v>
       </c>
-      <c r="I34" s="127">
+      <c r="I34" s="126">
         <f t="shared" si="5"/>
         <v>17718230.399999999</v>
       </c>
-      <c r="J34" s="128">
+      <c r="J34" s="127">
         <f>0.86*0.7*1.3</f>
         <v>0.78259999999999996</v>
       </c>
-      <c r="K34" s="147">
+      <c r="K34" s="146">
         <v>65</v>
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="146">
+    <row r="35" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="145">
         <v>23</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="211" t="s">
+      <c r="B35" s="198"/>
+      <c r="C35" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="212" t="s">
+      <c r="D35" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="213">
+      <c r="E35" s="201">
         <v>312403</v>
       </c>
-      <c r="F35" s="209">
+      <c r="F35" s="197">
         <f t="shared" si="3"/>
         <v>299906.88</v>
       </c>
-      <c r="G35" s="208">
+      <c r="G35" s="196">
         <f t="shared" si="0"/>
         <v>93691809032.639999</v>
       </c>
-      <c r="H35" s="127">
+      <c r="H35" s="126">
         <f t="shared" si="4"/>
         <v>252761.51846399996</v>
       </c>
-      <c r="I35" s="127">
+      <c r="I35" s="126">
         <f t="shared" si="5"/>
         <v>21893202.240000002</v>
       </c>
-      <c r="J35" s="128">
+      <c r="J35" s="127">
         <f>0.86*0.7*1.4</f>
         <v>0.84279999999999988</v>
       </c>
-      <c r="K35" s="147">
+      <c r="K35" s="146">
         <v>73</v>
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="146">
+    <row r="36" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="145">
         <v>24</v>
       </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="211" t="s">
+      <c r="B36" s="198"/>
+      <c r="C36" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="212" t="s">
+      <c r="D36" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="213">
+      <c r="E36" s="201">
         <v>340619.5</v>
       </c>
-      <c r="F36" s="209">
+      <c r="F36" s="197">
         <f t="shared" si="3"/>
         <v>326994.71999999997</v>
       </c>
-      <c r="G36" s="208">
+      <c r="G36" s="196">
         <f t="shared" si="0"/>
         <v>111380778029.03999</v>
       </c>
-      <c r="H36" s="127">
+      <c r="H36" s="126">
         <f t="shared" si="4"/>
         <v>314961.314304</v>
       </c>
-      <c r="I36" s="127">
+      <c r="I36" s="126">
         <f t="shared" si="5"/>
         <v>26159577.599999998</v>
       </c>
-      <c r="J36" s="128">
+      <c r="J36" s="127">
         <f>0.86*0.7*1.6</f>
         <v>0.96320000000000006</v>
       </c>
-      <c r="K36" s="147">
+      <c r="K36" s="146">
         <v>80</v>
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="146">
+    <row r="37" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="145">
         <v>25</v>
       </c>
-      <c r="B37" s="210"/>
-      <c r="C37" s="211" t="s">
+      <c r="B37" s="198"/>
+      <c r="C37" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="212" t="s">
+      <c r="D37" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="213">
+      <c r="E37" s="201">
         <v>386210.5</v>
       </c>
-      <c r="F37" s="209">
+      <c r="F37" s="197">
         <f t="shared" si="3"/>
         <v>370762.08</v>
       </c>
-      <c r="G37" s="208">
+      <c r="G37" s="196">
         <f t="shared" si="0"/>
         <v>143192208297.84</v>
       </c>
-      <c r="H37" s="127">
+      <c r="H37" s="126">
         <f t="shared" si="4"/>
         <v>401757.789888</v>
       </c>
-      <c r="I37" s="127">
+      <c r="I37" s="126">
         <f t="shared" si="5"/>
         <v>32256300.960000001</v>
       </c>
-      <c r="J37" s="128">
+      <c r="J37" s="127">
         <f>0.86*0.7*1.8</f>
         <v>1.0835999999999999</v>
       </c>
-      <c r="K37" s="147">
+      <c r="K37" s="146">
         <v>87</v>
       </c>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="196">
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="150"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="149"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="146">
+    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="145">
         <v>26</v>
       </c>
-      <c r="B39" s="214"/>
-      <c r="C39" s="211" t="s">
+      <c r="B39" s="202"/>
+      <c r="C39" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="215" t="s">
+      <c r="D39" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="E39" s="213">
+      <c r="E39" s="201">
         <v>169708.5</v>
       </c>
-      <c r="F39" s="209">
+      <c r="F39" s="197">
         <f t="shared" si="3"/>
         <v>162920.16</v>
       </c>
-      <c r="G39" s="126">
+      <c r="G39" s="125">
         <f>F39*E39</f>
         <v>27648935973.360001</v>
       </c>
-      <c r="H39" s="127">
+      <c r="H39" s="126">
         <f>F39*I39</f>
         <v>1061719141377.024</v>
       </c>
-      <c r="I39" s="127">
+      <c r="I39" s="126">
         <f>F39*K39</f>
         <v>6516806.4000000004</v>
       </c>
-      <c r="J39" s="128">
+      <c r="J39" s="127">
         <f>0.84*0.7*0.6</f>
         <v>0.35279999999999995</v>
       </c>
-      <c r="K39" s="147">
+      <c r="K39" s="146">
         <v>40</v>
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="146">
+    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="145">
         <v>27</v>
       </c>
-      <c r="B40" s="214"/>
-      <c r="C40" s="211" t="s">
+      <c r="B40" s="202"/>
+      <c r="C40" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="215" t="s">
+      <c r="D40" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="213">
+      <c r="E40" s="201">
         <v>179965.5</v>
       </c>
-      <c r="F40" s="209">
+      <c r="F40" s="197">
         <f t="shared" si="3"/>
         <v>172766.88</v>
       </c>
-      <c r="G40" s="126">
+      <c r="G40" s="125">
         <f t="shared" ref="G40:G53" si="6">F40*E40</f>
         <v>31092077942.639999</v>
       </c>
-      <c r="H40" s="127">
+      <c r="H40" s="126">
         <f t="shared" ref="H40:H47" si="7">F40*I40</f>
         <v>1253632582647.2449</v>
       </c>
-      <c r="I40" s="127">
+      <c r="I40" s="126">
         <f t="shared" ref="I40:I47" si="8">F40*K40</f>
         <v>7256208.96</v>
       </c>
-      <c r="J40" s="128">
+      <c r="J40" s="127">
         <f>0.84*0.7*0.7</f>
         <v>0.41159999999999997</v>
       </c>
-      <c r="K40" s="147">
+      <c r="K40" s="146">
         <v>42</v>
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="146">
+    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="145">
         <v>28</v>
       </c>
-      <c r="B41" s="214"/>
-      <c r="C41" s="211" t="s">
+      <c r="B41" s="202"/>
+      <c r="C41" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="215" t="s">
+      <c r="D41" s="203" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="213">
+      <c r="E41" s="201">
         <v>198061.5</v>
       </c>
-      <c r="F41" s="209">
+      <c r="F41" s="197">
         <f t="shared" si="3"/>
         <v>190139.04</v>
       </c>
-      <c r="G41" s="126">
+      <c r="G41" s="125">
         <f t="shared" si="6"/>
         <v>37659223470.959999</v>
       </c>
-      <c r="H41" s="127">
+      <c r="H41" s="126">
         <f t="shared" si="7"/>
-        <v>1663031308477.5937</v>
-      </c>
-      <c r="I41" s="127">
+        <v>1663031308477.5938</v>
+      </c>
+      <c r="I41" s="126">
         <f t="shared" si="8"/>
         <v>8746395.8399999999</v>
       </c>
-      <c r="J41" s="128">
+      <c r="J41" s="127">
         <f>0.84*0.7*0.8</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="K41" s="147">
+      <c r="K41" s="146">
         <v>46</v>
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="146">
+    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="145">
         <v>29</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="211" t="s">
+      <c r="B42" s="202"/>
+      <c r="C42" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="215" t="s">
+      <c r="D42" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="213">
+      <c r="E42" s="201">
         <v>216710</v>
       </c>
-      <c r="F42" s="209">
+      <c r="F42" s="197">
         <f>E42-E42*4%</f>
         <v>208041.60000000001</v>
       </c>
-      <c r="G42" s="126">
+      <c r="G42" s="125">
         <f t="shared" si="6"/>
         <v>45084695136</v>
       </c>
-      <c r="H42" s="127">
+      <c r="H42" s="126">
         <f t="shared" si="7"/>
         <v>2293909288519.6802</v>
       </c>
-      <c r="I42" s="127">
+      <c r="I42" s="126">
         <f t="shared" si="8"/>
         <v>11026204.800000001</v>
       </c>
-      <c r="J42" s="128">
+      <c r="J42" s="127">
         <f>0.84*0.7*1</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="K42" s="147">
+      <c r="K42" s="146">
         <v>53</v>
       </c>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="146">
+    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="145">
         <v>30</v>
       </c>
-      <c r="B43" s="214"/>
-      <c r="C43" s="211" t="s">
+      <c r="B43" s="202"/>
+      <c r="C43" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="215" t="s">
+      <c r="D43" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="213">
+      <c r="E43" s="201">
         <v>240727.5</v>
       </c>
-      <c r="F43" s="209">
+      <c r="F43" s="197">
         <f t="shared" si="3"/>
         <v>231098.4</v>
       </c>
-      <c r="G43" s="126">
+      <c r="G43" s="125">
         <f t="shared" si="6"/>
         <v>55631740086</v>
       </c>
-      <c r="H43" s="127">
+      <c r="H43" s="126">
         <f t="shared" si="7"/>
         <v>480658234343.03998</v>
       </c>
-      <c r="I43" s="127">
+      <c r="I43" s="126">
         <f t="shared" si="8"/>
         <v>2079885.5999999999</v>
       </c>
-      <c r="J43" s="128">
+      <c r="J43" s="127">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K43" s="147">
+      <c r="K43" s="146">
         <v>9</v>
       </c>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="146">
+    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="145">
         <v>31</v>
       </c>
-      <c r="B44" s="214"/>
-      <c r="C44" s="211" t="s">
+      <c r="B44" s="202"/>
+      <c r="C44" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="215" t="s">
+      <c r="D44" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="213">
+      <c r="E44" s="201">
         <v>264069</v>
       </c>
-      <c r="F44" s="209">
+      <c r="F44" s="197">
         <f t="shared" si="3"/>
         <v>253506.24</v>
       </c>
-      <c r="G44" s="126">
+      <c r="G44" s="125">
         <f t="shared" si="6"/>
         <v>66943139290.559998</v>
       </c>
-      <c r="H44" s="127">
+      <c r="H44" s="126">
         <f t="shared" si="7"/>
         <v>4241517305449.8813</v>
       </c>
-      <c r="I44" s="127">
+      <c r="I44" s="126">
         <f t="shared" si="8"/>
         <v>16731411.84</v>
       </c>
-      <c r="J44" s="128">
+      <c r="J44" s="127">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K44" s="147">
+      <c r="K44" s="146">
         <v>66</v>
       </c>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="146">
+    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="145">
         <v>32</v>
       </c>
-      <c r="B45" s="214"/>
-      <c r="C45" s="211" t="s">
+      <c r="B45" s="202"/>
+      <c r="C45" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="215" t="s">
+      <c r="D45" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="213">
+      <c r="E45" s="201">
         <v>291213</v>
       </c>
-      <c r="F45" s="209">
+      <c r="F45" s="197">
         <f t="shared" si="3"/>
         <v>279564.48</v>
       </c>
-      <c r="G45" s="126">
+      <c r="G45" s="125">
         <f t="shared" si="6"/>
         <v>81412810914.23999</v>
       </c>
-      <c r="H45" s="127">
+      <c r="H45" s="126">
         <f t="shared" si="7"/>
         <v>5549097191914.5977</v>
       </c>
-      <c r="I45" s="127">
+      <c r="I45" s="126">
         <f t="shared" si="8"/>
         <v>19849078.079999998</v>
       </c>
-      <c r="J45" s="128">
+      <c r="J45" s="127">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K45" s="147">
+      <c r="K45" s="146">
         <v>71</v>
       </c>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="146">
+    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="145">
         <v>33</v>
       </c>
-      <c r="B46" s="214"/>
-      <c r="C46" s="211" t="s">
+      <c r="B46" s="202"/>
+      <c r="C46" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="215" t="s">
+      <c r="D46" s="203" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="213">
+      <c r="E46" s="201">
         <v>329719</v>
       </c>
-      <c r="F46" s="209">
+      <c r="F46" s="197">
         <f t="shared" si="3"/>
         <v>316530.24</v>
       </c>
-      <c r="G46" s="126">
+      <c r="G46" s="125">
         <f t="shared" si="6"/>
         <v>104366034202.56</v>
       </c>
-      <c r="H46" s="127">
+      <c r="H46" s="126">
         <f t="shared" si="7"/>
         <v>8015311426756.6074</v>
       </c>
-      <c r="I46" s="127">
+      <c r="I46" s="126">
         <f t="shared" si="8"/>
         <v>25322419.199999999</v>
       </c>
-      <c r="J46" s="128">
+      <c r="J46" s="127">
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K46" s="147">
+      <c r="K46" s="146">
         <v>80</v>
       </c>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="146">
+    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="145">
         <v>34</v>
       </c>
-      <c r="B47" s="214"/>
-      <c r="C47" s="211" t="s">
+      <c r="B47" s="202"/>
+      <c r="C47" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="215" t="s">
+      <c r="D47" s="203" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="213">
+      <c r="E47" s="201">
         <v>372502</v>
       </c>
-      <c r="F47" s="209">
+      <c r="F47" s="197">
         <f t="shared" si="3"/>
         <v>357601.92</v>
       </c>
-      <c r="G47" s="126">
+      <c r="G47" s="125">
         <f t="shared" si="6"/>
         <v>133207430403.84</v>
       </c>
-      <c r="H47" s="127">
+      <c r="H47" s="126">
         <f t="shared" si="7"/>
         <v>11637001120079.461</v>
       </c>
-      <c r="I47" s="127">
+      <c r="I47" s="126">
         <f t="shared" si="8"/>
         <v>32541774.719999999</v>
       </c>
-      <c r="J47" s="128">
+      <c r="J47" s="127">
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K47" s="147">
+      <c r="K47" s="146">
         <v>91</v>
       </c>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="222" t="s">
+    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="226" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="223"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="196">
+      <c r="B48" s="227"/>
+      <c r="C48" s="227"/>
+      <c r="D48" s="227"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G48" s="129"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="151"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="150"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="146">
+    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="145">
         <v>35</v>
       </c>
-      <c r="B49" s="214"/>
-      <c r="C49" s="211" t="s">
+      <c r="B49" s="202"/>
+      <c r="C49" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="215" t="s">
+      <c r="D49" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="213">
+      <c r="E49" s="201">
         <v>255866</v>
       </c>
-      <c r="F49" s="209">
+      <c r="F49" s="197">
         <f>E49-E49*4%</f>
         <v>245631.35999999999</v>
       </c>
-      <c r="G49" s="126">
+      <c r="G49" s="125">
         <f t="shared" si="6"/>
         <v>62848713557.759995</v>
       </c>
-      <c r="H49" s="127">
+      <c r="H49" s="126">
         <f>F49*I49</f>
         <v>3559751135911.5259</v>
       </c>
-      <c r="I49" s="127">
+      <c r="I49" s="126">
         <f>F49*K49</f>
         <v>14492250.239999998</v>
       </c>
-      <c r="J49" s="128">
+      <c r="J49" s="127">
         <f>0.84*0.7*1.2</f>
         <v>0.70559999999999989</v>
       </c>
-      <c r="K49" s="147">
+      <c r="K49" s="146">
         <v>59</v>
       </c>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="146">
+    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="145">
         <v>36</v>
       </c>
-      <c r="B50" s="214"/>
-      <c r="C50" s="211" t="s">
+      <c r="B50" s="202"/>
+      <c r="C50" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="215" t="s">
+      <c r="D50" s="203" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="213">
+      <c r="E50" s="201">
         <v>278772</v>
       </c>
-      <c r="F50" s="209">
+      <c r="F50" s="197">
         <f t="shared" si="3"/>
         <v>267621.12</v>
       </c>
-      <c r="G50" s="126">
+      <c r="G50" s="125">
         <f t="shared" si="6"/>
         <v>74605274864.639999</v>
       </c>
-      <c r="H50" s="127">
+      <c r="H50" s="126">
         <f>F50*I50</f>
         <v>4225642768333.2095</v>
       </c>
-      <c r="I50" s="127">
+      <c r="I50" s="126">
         <f t="shared" ref="I50:I52" si="9">F50*K50</f>
         <v>15789646.08</v>
       </c>
-      <c r="J50" s="128">
+      <c r="J50" s="127">
         <f>0.84*0.7*1.4</f>
         <v>0.82319999999999993</v>
       </c>
-      <c r="K50" s="147">
+      <c r="K50" s="146">
         <v>59</v>
       </c>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="146">
+    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="145">
         <v>37</v>
       </c>
-      <c r="B51" s="214"/>
-      <c r="C51" s="211" t="s">
+      <c r="B51" s="202"/>
+      <c r="C51" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="215" t="s">
+      <c r="D51" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="213">
+      <c r="E51" s="201">
         <v>305916</v>
       </c>
-      <c r="F51" s="209">
+      <c r="F51" s="197">
         <f t="shared" si="3"/>
         <v>293679.35999999999</v>
       </c>
-      <c r="G51" s="126">
+      <c r="G51" s="125">
         <f t="shared" si="6"/>
         <v>89841215093.759995</v>
       </c>
-      <c r="H51" s="127">
+      <c r="H51" s="126">
         <f t="shared" ref="H51:H52" si="10">F51*I51</f>
         <v>6123577220790.6807</v>
       </c>
-      <c r="I51" s="127">
+      <c r="I51" s="126">
         <f t="shared" si="9"/>
         <v>20851234.559999999</v>
       </c>
-      <c r="J51" s="128">
+      <c r="J51" s="127">
         <f>0.84*0.7*1.6</f>
         <v>0.94079999999999997</v>
       </c>
-      <c r="K51" s="147">
+      <c r="K51" s="146">
         <v>71</v>
       </c>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="146">
+    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="145">
         <v>38</v>
       </c>
-      <c r="B52" s="214"/>
-      <c r="C52" s="211" t="s">
+      <c r="B52" s="202"/>
+      <c r="C52" s="199" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="215" t="s">
+      <c r="D52" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="213">
+      <c r="E52" s="201">
         <v>344422</v>
       </c>
-      <c r="F52" s="209">
+      <c r="F52" s="197">
         <f t="shared" si="3"/>
         <v>330645.12</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52" s="125">
         <f t="shared" si="6"/>
         <v>113881453520.64</v>
       </c>
-      <c r="H52" s="127">
+      <c r="H52" s="126">
         <f t="shared" si="10"/>
         <v>8746095630385.1523</v>
       </c>
-      <c r="I52" s="127">
+      <c r="I52" s="126">
         <f t="shared" si="9"/>
         <v>26451609.600000001</v>
       </c>
-      <c r="J52" s="128">
+      <c r="J52" s="127">
         <f>0.84*0.7*1.8</f>
         <v>1.0584</v>
       </c>
-      <c r="K52" s="147">
+      <c r="K52" s="146">
         <v>80</v>
       </c>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="152">
+    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="151">
         <v>39</v>
       </c>
-      <c r="B53" s="216"/>
-      <c r="C53" s="217" t="s">
+      <c r="B53" s="204"/>
+      <c r="C53" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="218" t="s">
+      <c r="D53" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="E53" s="219">
+      <c r="E53" s="207">
         <v>387211.5</v>
       </c>
-      <c r="F53" s="209">
+      <c r="F53" s="197">
         <f t="shared" si="3"/>
         <v>371723.04</v>
       </c>
-      <c r="G53" s="153">
+      <c r="G53" s="152">
         <f t="shared" si="6"/>
         <v>143935435902.95999</v>
       </c>
-      <c r="H53" s="154">
+      <c r="H53" s="153">
         <f t="shared" ref="H53:H55" si="11">J53*F53</f>
         <v>437146.29503999994</v>
       </c>
-      <c r="I53" s="154">
+      <c r="I53" s="153">
         <f t="shared" ref="I53:I55" si="12">K53*F53</f>
         <v>33826796.640000001</v>
       </c>
-      <c r="J53" s="155">
+      <c r="J53" s="154">
         <f>0.84*0.7*2</f>
         <v>1.1759999999999999</v>
       </c>
-      <c r="K53" s="156">
+      <c r="K53" s="155">
         <v>91</v>
       </c>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="119">
         <v>30</v>
       </c>
@@ -10810,7 +10861,7 @@
       <c r="D54" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="194" t="e">
+      <c r="E54" s="182" t="e">
         <v>#REF!</v>
       </c>
       <c r="F54" s="123"/>
@@ -10835,7 +10886,7 @@
       </c>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="105">
         <v>31</v>
       </c>
@@ -10846,7 +10897,7 @@
       <c r="D55" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="195" t="e">
+      <c r="E55" s="183" t="e">
         <v>#REF!</v>
       </c>
       <c r="F55" s="107"/>
@@ -10871,18 +10922,18 @@
       </c>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D56" s="104"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="136">
+      <c r="F56" s="164"/>
+      <c r="G56" s="135">
         <f>SUM(G7:G53)</f>
         <v>2992182289714.7993</v>
       </c>
-      <c r="H56" s="135">
+      <c r="H56" s="134">
         <f>SUM(H7:H55)</f>
         <v>58850950355405.609</v>
       </c>
-      <c r="I56" s="135">
+      <c r="I56" s="134">
         <f>SUM(I7:I55)</f>
         <v>706996511.51999998</v>
       </c>
@@ -10890,22 +10941,22 @@
       <c r="K56" s="7"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L62" s="22"/>
     </row>
   </sheetData>
@@ -10924,42 +10975,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="46" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="C25:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="185" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="104" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="175" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="36"/>
-    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="15" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="118"/>
-    <col min="21" max="21" width="9.140625" style="7"/>
-    <col min="22" max="22" width="10.85546875" style="118" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="118" customWidth="1"/>
-    <col min="24" max="26" width="9.140625" style="118"/>
-    <col min="27" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.109375" style="36"/>
+    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="7"/>
+    <col min="15" max="15" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.109375" style="118"/>
+    <col min="21" max="21" width="9.109375" style="7"/>
+    <col min="22" max="22" width="10.88671875" style="118" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="118" customWidth="1"/>
+    <col min="24" max="26" width="9.109375" style="118"/>
+    <col min="27" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10971,21 +11022,21 @@
         <v>5</v>
       </c>
       <c r="E1" s="18"/>
-      <c r="F1" s="184"/>
+      <c r="F1" s="174"/>
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
       <c r="Y1" s="117"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="95"/>
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
@@ -10998,7 +11049,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="57"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="95"/>
       <c r="B3" s="96"/>
       <c r="C3" s="97"/>
@@ -11027,7 +11078,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -11058,41 +11109,41 @@
       <c r="W4" s="62"/>
       <c r="X4" s="63"/>
     </row>
-    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="137" t="s">
+    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="186" t="s">
+      <c r="F5" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="160" t="s">
+      <c r="G5" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="141" t="s">
+      <c r="I5" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="142" t="s">
+      <c r="J5" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="143" t="s">
+      <c r="K5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="144" t="s">
+      <c r="L5" s="143" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="57"/>
@@ -11102,792 +11153,792 @@
       <c r="W5" s="64"/>
       <c r="X5" s="64"/>
     </row>
-    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="220" t="s">
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="151"/>
+      <c r="B6" s="234"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="150"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="161">
+    <row r="7" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="159">
         <v>1</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="177" t="s">
+      <c r="B7" s="208"/>
+      <c r="C7" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="E7" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="188">
+      <c r="F7" s="248">
         <v>619242</v>
       </c>
-      <c r="G7" s="157">
+      <c r="G7" s="249">
         <f>F7-F7*4%</f>
         <v>594472.31999999995</v>
       </c>
-      <c r="H7" s="158">
+      <c r="H7" s="157">
         <f>F7*G7</f>
         <v>368122228381.43994</v>
       </c>
-      <c r="I7" s="127">
+      <c r="I7" s="126">
         <f t="shared" ref="I7:I27" si="0">K7*G7</f>
         <v>877441.14431999996</v>
       </c>
-      <c r="J7" s="127">
+      <c r="J7" s="126">
         <f t="shared" ref="J7:J27" si="1">L7*G7</f>
         <v>74309040</v>
       </c>
-      <c r="K7" s="128">
+      <c r="K7" s="127">
         <f>0.82*0.9*2</f>
         <v>1.476</v>
       </c>
-      <c r="L7" s="147">
+      <c r="L7" s="146">
         <v>125</v>
       </c>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:25" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="161">
+    <row r="8" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="159">
         <v>2</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="177" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="245" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="246" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="247" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="188">
+      <c r="F8" s="248">
         <v>689799.5</v>
       </c>
-      <c r="G8" s="157">
+      <c r="G8" s="249">
         <f t="shared" ref="G8:G27" si="2">F8-F8*4%</f>
         <v>662207.52</v>
       </c>
-      <c r="H8" s="158">
+      <c r="H8" s="157">
         <f t="shared" ref="H8:H27" si="3">F8*G8</f>
         <v>456790416192.23999</v>
       </c>
-      <c r="I8" s="127">
+      <c r="I8" s="126">
         <f t="shared" si="0"/>
         <v>1221772.8744000001</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J8" s="126">
         <f t="shared" si="1"/>
         <v>98006712.960000008</v>
       </c>
-      <c r="K8" s="128">
+      <c r="K8" s="127">
         <f>0.82*0.9*2.5</f>
         <v>1.845</v>
       </c>
-      <c r="L8" s="147">
+      <c r="L8" s="146">
         <v>148</v>
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="228" t="s">
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="232" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="229"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="157">
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="151"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="150"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:25" ht="126" x14ac:dyDescent="0.25">
-      <c r="A10" s="161">
+    <row r="10" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="159">
         <v>3</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="177" t="s">
+      <c r="B10" s="208"/>
+      <c r="C10" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="174" t="s">
+      <c r="E10" s="247" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="188">
+      <c r="F10" s="248">
         <v>691099.5</v>
       </c>
-      <c r="G10" s="157">
+      <c r="G10" s="249">
         <f t="shared" si="2"/>
         <v>663455.52</v>
       </c>
-      <c r="H10" s="158">
+      <c r="H10" s="157">
         <f t="shared" si="3"/>
         <v>458513778144.23999</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="126">
         <f t="shared" si="0"/>
         <v>979260.34752000007</v>
       </c>
-      <c r="J10" s="127">
+      <c r="J10" s="126">
         <f>L10*G10</f>
         <v>88903039.680000007</v>
       </c>
-      <c r="K10" s="128">
+      <c r="K10" s="127">
         <f>0.82*0.9*2</f>
         <v>1.476</v>
       </c>
-      <c r="L10" s="147">
+      <c r="L10" s="146">
         <v>134</v>
       </c>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="126" x14ac:dyDescent="0.25">
-      <c r="A11" s="161">
+    <row r="11" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="159">
         <v>4</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="177" t="s">
+      <c r="B11" s="208"/>
+      <c r="C11" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="246" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="174" t="s">
+      <c r="E11" s="247" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="188">
+      <c r="F11" s="248">
         <v>751016.5</v>
       </c>
-      <c r="G11" s="157">
+      <c r="G11" s="249">
         <f t="shared" si="2"/>
         <v>720975.84</v>
       </c>
-      <c r="H11" s="158">
+      <c r="H11" s="157">
         <f t="shared" si="3"/>
         <v>541464751941.35999</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="126">
         <f t="shared" si="0"/>
         <v>1330200.4247999999</v>
       </c>
-      <c r="J11" s="127">
+      <c r="J11" s="126">
         <f t="shared" si="1"/>
         <v>112472231.03999999</v>
       </c>
-      <c r="K11" s="128">
+      <c r="K11" s="127">
         <f>0.82*0.9*2.5</f>
         <v>1.845</v>
       </c>
-      <c r="L11" s="147">
+      <c r="L11" s="146">
         <v>156</v>
       </c>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="228" t="s">
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="232" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="229"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="157">
+      <c r="B12" s="233"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="151"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="150"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="161">
+    <row r="13" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="210">
         <v>5</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="177" t="s">
+      <c r="B13" s="211"/>
+      <c r="C13" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="174" t="s">
+      <c r="E13" s="214" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="188">
+      <c r="F13" s="215">
         <v>713654.5</v>
       </c>
-      <c r="G13" s="157">
+      <c r="G13" s="216">
         <f t="shared" si="2"/>
         <v>685108.32</v>
       </c>
-      <c r="H13" s="158">
+      <c r="H13" s="217">
         <f t="shared" si="3"/>
         <v>488930635555.43994</v>
       </c>
-      <c r="I13" s="127">
+      <c r="I13" s="218">
         <f t="shared" si="0"/>
         <v>937228.18175999995</v>
       </c>
-      <c r="J13" s="127">
+      <c r="J13" s="218">
         <f t="shared" si="1"/>
         <v>70566156.959999993</v>
       </c>
-      <c r="K13" s="128">
+      <c r="K13" s="219">
         <f>0.8*0.9*1.9</f>
         <v>1.3680000000000001</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="220">
         <v>103</v>
       </c>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161">
+    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="159">
         <v>6</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="177" t="s">
+      <c r="B14" s="209"/>
+      <c r="C14" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="179" t="s">
+      <c r="E14" s="250" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="188">
+      <c r="F14" s="248">
         <v>713654.5</v>
       </c>
-      <c r="G14" s="157">
+      <c r="G14" s="249">
         <f t="shared" si="2"/>
         <v>685108.32</v>
       </c>
-      <c r="H14" s="158">
+      <c r="H14" s="157">
         <f t="shared" si="3"/>
         <v>488930635555.43994</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="126">
         <f t="shared" si="0"/>
         <v>9958049.4311999995</v>
       </c>
-      <c r="J14" s="127">
+      <c r="J14" s="126">
         <f t="shared" si="1"/>
         <v>70566156.959999993</v>
       </c>
-      <c r="K14" s="128">
+      <c r="K14" s="127">
         <f>8.5*0.9*1.9</f>
         <v>14.535</v>
       </c>
-      <c r="L14" s="147">
+      <c r="L14" s="146">
         <v>103</v>
       </c>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161">
+    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="159">
         <v>7</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="177" t="s">
+      <c r="B15" s="209"/>
+      <c r="C15" s="245" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="246" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="188">
+      <c r="F15" s="248">
         <v>735676.5</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="249">
         <f t="shared" si="2"/>
         <v>706249.44</v>
       </c>
-      <c r="H15" s="158">
+      <c r="H15" s="157">
         <f t="shared" si="3"/>
         <v>519571116146.15997</v>
       </c>
-      <c r="I15" s="127">
+      <c r="I15" s="126">
         <f t="shared" si="0"/>
         <v>1134589.72536</v>
       </c>
-      <c r="J15" s="127">
+      <c r="J15" s="126">
         <f t="shared" si="1"/>
         <v>79806186.719999999</v>
       </c>
-      <c r="K15" s="128">
+      <c r="K15" s="127">
         <f>0.85*0.9*2.1</f>
         <v>1.6065</v>
       </c>
-      <c r="L15" s="147">
+      <c r="L15" s="146">
         <v>113</v>
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="161">
+    <row r="16" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="159">
         <v>8</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="177" t="s">
+      <c r="B16" s="209"/>
+      <c r="C16" s="245" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="247" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="188">
+      <c r="F16" s="248">
         <v>760454.5</v>
       </c>
-      <c r="G16" s="157">
+      <c r="G16" s="249">
         <f t="shared" si="2"/>
         <v>730036.32</v>
       </c>
-      <c r="H16" s="158">
+      <c r="H16" s="157">
         <f t="shared" si="3"/>
         <v>555159404707.43994</v>
       </c>
-      <c r="I16" s="127">
+      <c r="I16" s="126">
         <f t="shared" si="0"/>
         <v>1396194.4620000001</v>
       </c>
-      <c r="J16" s="127">
+      <c r="J16" s="126">
         <f t="shared" si="1"/>
         <v>118265883.83999999</v>
       </c>
-      <c r="K16" s="128">
+      <c r="K16" s="127">
         <f>0.85*0.9*2.5</f>
         <v>1.9125000000000001</v>
       </c>
-      <c r="L16" s="147">
+      <c r="L16" s="146">
         <v>162</v>
       </c>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="228" t="s">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="232" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="229"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="157">
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="151"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="150"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161">
+    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="210">
         <v>9</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="177" t="s">
+      <c r="B18" s="211"/>
+      <c r="C18" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="178" t="s">
+      <c r="D18" s="213" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="221" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="188">
+      <c r="F18" s="215">
         <v>770770</v>
       </c>
-      <c r="G18" s="157">
+      <c r="G18" s="216">
         <f t="shared" si="2"/>
         <v>739939.2</v>
       </c>
-      <c r="H18" s="158">
+      <c r="H18" s="217">
         <f t="shared" si="3"/>
         <v>570322937184</v>
       </c>
-      <c r="I18" s="127">
+      <c r="I18" s="218">
         <f t="shared" si="0"/>
         <v>1012236.8256</v>
       </c>
-      <c r="J18" s="127">
+      <c r="J18" s="218">
         <f t="shared" si="1"/>
         <v>76213737.599999994</v>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="219">
         <f>0.8*0.9*1.9</f>
         <v>1.3680000000000001</v>
       </c>
-      <c r="L18" s="147">
+      <c r="L18" s="220">
         <v>103</v>
       </c>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="161">
+    <row r="19" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="159">
         <v>10</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="177" t="s">
+      <c r="B19" s="209"/>
+      <c r="C19" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="246" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="188">
+      <c r="F19" s="248">
         <v>770770</v>
       </c>
-      <c r="G19" s="157">
+      <c r="G19" s="249">
         <f t="shared" si="2"/>
         <v>739939.2</v>
       </c>
-      <c r="H19" s="158">
+      <c r="H19" s="157">
         <f t="shared" si="3"/>
         <v>570322937184</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="126">
         <f t="shared" si="0"/>
         <v>1075501.6272</v>
       </c>
-      <c r="J19" s="127">
+      <c r="J19" s="126">
         <f t="shared" si="1"/>
         <v>76213737.599999994</v>
       </c>
-      <c r="K19" s="128">
+      <c r="K19" s="127">
         <f>0.85*0.9*1.9</f>
         <v>1.4535</v>
       </c>
-      <c r="L19" s="147">
+      <c r="L19" s="146">
         <v>103</v>
       </c>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="161">
+    <row r="20" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="159">
         <v>11</v>
       </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="177" t="s">
+      <c r="B20" s="209"/>
+      <c r="C20" s="245" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="246" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="174" t="s">
+      <c r="E20" s="247" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="188">
+      <c r="F20" s="248">
         <v>787982</v>
       </c>
-      <c r="G20" s="157">
+      <c r="G20" s="249">
         <f t="shared" si="2"/>
         <v>756462.72</v>
       </c>
-      <c r="H20" s="158">
+      <c r="H20" s="157">
         <f t="shared" si="3"/>
         <v>596079007031.03992</v>
       </c>
-      <c r="I20" s="127">
+      <c r="I20" s="126">
         <f t="shared" si="0"/>
         <v>1215257.35968</v>
       </c>
-      <c r="J20" s="127">
+      <c r="J20" s="126">
         <f t="shared" si="1"/>
         <v>85480287.359999999</v>
       </c>
-      <c r="K20" s="128">
+      <c r="K20" s="127">
         <f>0.85*0.9*2.1</f>
         <v>1.6065</v>
       </c>
-      <c r="L20" s="147">
+      <c r="L20" s="146">
         <v>113</v>
       </c>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="161">
+    <row r="21" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="159">
         <v>12</v>
       </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="177" t="s">
+      <c r="B21" s="222"/>
+      <c r="C21" s="245" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="246" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="174" t="s">
+      <c r="E21" s="247" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="188">
+      <c r="F21" s="248">
         <v>814814</v>
       </c>
-      <c r="G21" s="157">
+      <c r="G21" s="249">
         <f t="shared" si="2"/>
         <v>782221.44</v>
       </c>
-      <c r="H21" s="158">
+      <c r="H21" s="157">
         <f t="shared" si="3"/>
         <v>637364980412.15991</v>
       </c>
-      <c r="I21" s="127">
+      <c r="I21" s="126">
         <f t="shared" si="0"/>
         <v>1495998.504</v>
       </c>
-      <c r="J21" s="127">
+      <c r="J21" s="126">
         <f t="shared" si="1"/>
         <v>126719873.27999999</v>
       </c>
-      <c r="K21" s="128">
+      <c r="K21" s="127">
         <f>0.85*0.9*2.5</f>
         <v>1.9125000000000001</v>
       </c>
-      <c r="L21" s="147">
+      <c r="L21" s="146">
         <v>162</v>
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="220" t="s">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="157">
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="129"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="151"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="150"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="161">
+    <row r="23" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="159">
         <v>11</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="231" t="s">
+      <c r="B23" s="209"/>
+      <c r="C23" s="251" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="231"/>
-      <c r="E23" s="183" t="s">
+      <c r="D23" s="251"/>
+      <c r="E23" s="252" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="188">
+      <c r="F23" s="248">
         <v>196937</v>
       </c>
-      <c r="G23" s="157">
+      <c r="G23" s="249">
         <f t="shared" si="2"/>
         <v>189059.52</v>
       </c>
-      <c r="H23" s="158">
+      <c r="H23" s="157">
         <f t="shared" si="3"/>
         <v>37232814690.239998</v>
       </c>
-      <c r="I23" s="127">
+      <c r="I23" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="127">
+      <c r="J23" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="147"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="146"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="161">
+    <row r="24" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="159">
         <v>12</v>
       </c>
-      <c r="B24" s="125"/>
-      <c r="C24" s="231" t="s">
+      <c r="B24" s="209"/>
+      <c r="C24" s="251" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="231"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="251"/>
+      <c r="E24" s="252" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="188">
+      <c r="F24" s="248">
         <v>223262</v>
       </c>
-      <c r="G24" s="157">
+      <c r="G24" s="249">
         <f t="shared" si="2"/>
         <v>214331.51999999999</v>
       </c>
-      <c r="H24" s="158">
+      <c r="H24" s="157">
         <f t="shared" si="3"/>
         <v>47852083818.239998</v>
       </c>
-      <c r="I24" s="127">
+      <c r="I24" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="127">
+      <c r="J24" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="128"/>
-      <c r="L24" s="147"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="146"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161">
+    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="159">
         <v>13</v>
       </c>
-      <c r="B25" s="125"/>
-      <c r="C25" s="231" t="s">
+      <c r="B25" s="209"/>
+      <c r="C25" s="251" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="231"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="188">
+      <c r="D25" s="251"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="248">
         <v>202039.5</v>
       </c>
-      <c r="G25" s="157">
+      <c r="G25" s="249">
         <f t="shared" si="2"/>
         <v>193957.92</v>
       </c>
-      <c r="H25" s="158">
+      <c r="H25" s="157">
         <f t="shared" si="3"/>
         <v>39187161177.840004</v>
       </c>
-      <c r="I25" s="127">
+      <c r="I25" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="127">
+      <c r="J25" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="147"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="146"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161">
+    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="159">
         <v>14</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="231" t="s">
+      <c r="B26" s="209"/>
+      <c r="C26" s="251" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="231"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="188">
+      <c r="D26" s="251"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="248">
         <v>207129</v>
       </c>
-      <c r="G26" s="157">
+      <c r="G26" s="249">
         <f t="shared" si="2"/>
         <v>198843.84</v>
       </c>
-      <c r="H26" s="158">
+      <c r="H26" s="157">
         <f t="shared" si="3"/>
         <v>41186325735.360001</v>
       </c>
-      <c r="I26" s="127">
+      <c r="I26" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="127">
+      <c r="J26" s="126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="128"/>
-      <c r="L26" s="147"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="146"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="162">
+    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="160">
         <v>15</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="230" t="s">
+      <c r="B27" s="223"/>
+      <c r="C27" s="254" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="230"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="190">
+      <c r="D27" s="254"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="256">
         <v>233441</v>
       </c>
-      <c r="G27" s="157">
+      <c r="G27" s="249">
         <f t="shared" si="2"/>
         <v>224103.36</v>
       </c>
-      <c r="H27" s="164">
+      <c r="H27" s="161">
         <f t="shared" si="3"/>
         <v>52314912461.759995</v>
       </c>
-      <c r="I27" s="154">
+      <c r="I27" s="153">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="154">
+      <c r="J27" s="153">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="191"/>
-      <c r="H28" s="165">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F28" s="179"/>
+      <c r="H28" s="162">
         <f>SUM(H6:H27)</f>
         <v>6469346126318.4004</v>
       </c>
-      <c r="I28" s="166">
+      <c r="I28" s="163">
         <f>SUM(I6:I27)</f>
         <v>22633730.907839999</v>
       </c>
-      <c r="J28" s="166">
+      <c r="J28" s="163">
         <f>SUM(J6:J27)</f>
         <v>1077523044</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="22"/>
@@ -11915,7 +11966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11926,29 +11977,29 @@
       <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="30" style="21" customWidth="1"/>
     <col min="3" max="3" width="54" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="49" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="21" customWidth="1"/>
-    <col min="9" max="10" width="18.5703125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="21" customWidth="1"/>
+    <col min="9" max="10" width="18.5546875" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
-    <col min="15" max="15" width="11.28515625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="35.42578125" style="7" customWidth="1"/>
-    <col min="18" max="19" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.109375" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="7"/>
+    <col min="15" max="15" width="11.33203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="35.44140625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11965,7 +12016,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -11982,7 +12033,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -11999,7 +12050,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -12016,7 +12067,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -12031,7 +12082,7 @@
       <c r="J5" s="35"/>
       <c r="P5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -12048,7 +12099,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="66"/>
@@ -12070,7 +12121,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="28"/>
@@ -12100,7 +12151,7 @@
       <c r="P9" s="11"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
         <v>10</v>
       </c>
@@ -12140,14 +12191,14 @@
       <c r="O10" s="12"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -12160,7 +12211,7 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78">
         <v>1</v>
       </c>
@@ -12198,14 +12249,14 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="235" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
-      <c r="E13" s="236"/>
+      <c r="B13" s="238"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="238"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12213,7 +12264,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="81">
         <v>2</v>
       </c>
@@ -12246,7 +12297,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81">
         <v>3</v>
       </c>
@@ -12279,7 +12330,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81">
         <v>4</v>
       </c>
@@ -12312,11 +12363,11 @@
       <c r="K16" s="55"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="237"/>
+      <c r="B17" s="239"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12345,11 +12396,11 @@
       <c r="K17" s="55"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="238"/>
+      <c r="B18" s="240"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12378,11 +12429,11 @@
       <c r="K18" s="55"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="239"/>
+      <c r="B19" s="241"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12411,14 +12462,14 @@
       <c r="K19" s="55"/>
       <c r="L19" s="42"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="235" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="236"/>
+      <c r="B20" s="238"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12426,7 +12477,7 @@
       <c r="K20" s="55"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86">
         <v>8</v>
       </c>
@@ -12459,7 +12510,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="42"/>
     </row>
-    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>9</v>
       </c>
@@ -12492,7 +12543,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78">
         <v>10</v>
       </c>
@@ -12525,7 +12576,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="42"/>
     </row>
-    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78">
         <v>11</v>
       </c>
@@ -12558,7 +12609,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78">
         <v>12</v>
       </c>
@@ -12591,7 +12642,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="42"/>
     </row>
-    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78">
         <v>13</v>
       </c>
@@ -12624,14 +12675,14 @@
       <c r="K26" s="55"/>
       <c r="L26" s="42"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="235" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
+      <c r="B27" s="238"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12639,11 +12690,11 @@
       <c r="K27" s="55"/>
       <c r="L27" s="42"/>
     </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="240"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12672,11 +12723,11 @@
       <c r="K28" s="55"/>
       <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="242"/>
+      <c r="B29" s="244"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12705,11 +12756,11 @@
       <c r="K29" s="55"/>
       <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="240"/>
+      <c r="B30" s="242"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12738,11 +12789,11 @@
       <c r="K30" s="55"/>
       <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="242"/>
+      <c r="B31" s="244"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12771,11 +12822,11 @@
       <c r="K31" s="55"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="240"/>
+      <c r="B32" s="242"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12804,11 +12855,11 @@
       <c r="K32" s="55"/>
       <c r="L32" s="42"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="241"/>
+      <c r="B33" s="243"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12837,11 +12888,11 @@
       <c r="K33" s="55"/>
       <c r="L33" s="42"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="241"/>
+      <c r="B34" s="243"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12870,11 +12921,11 @@
       <c r="K34" s="55"/>
       <c r="L34" s="42"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="241"/>
+      <c r="B35" s="243"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12903,11 +12954,11 @@
       <c r="K35" s="55"/>
       <c r="L35" s="42"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="241"/>
+      <c r="B36" s="243"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12936,11 +12987,11 @@
       <c r="K36" s="55"/>
       <c r="L36" s="42"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="241"/>
+      <c r="B37" s="243"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -12969,11 +13020,11 @@
       <c r="K37" s="55"/>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="242"/>
+      <c r="B38" s="244"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -13002,14 +13053,14 @@
       <c r="K38" s="55"/>
       <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="235" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="236"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
-      <c r="E39" s="236"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="238"/>
+      <c r="D39" s="238"/>
+      <c r="E39" s="238"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>
@@ -13017,7 +13068,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="81">
         <v>25</v>
       </c>
@@ -13050,7 +13101,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="42"/>
     </row>
-    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="81">
         <v>26</v>
       </c>
@@ -13083,7 +13134,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="42"/>
     </row>
-    <row r="42" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="67"/>
       <c r="H42" s="68" t="e">
         <f>SUM(H11:H41)</f>
@@ -13098,32 +13149,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="70"/>
       <c r="F54" s="31"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="70"/>
       <c r="F55" s="31"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="70"/>
       <c r="F56" s="31"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="70"/>
       <c r="F57" s="31"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="70"/>
       <c r="F58" s="31"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="70"/>
       <c r="F59" s="31"/>
       <c r="G59" s="43"/>

--- a/SoftIce/ice/Фростор 19.04.24.xlsx
+++ b/SoftIce/ice/Фростор 19.04.24.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\OpenServer 5.4.3\domains\TimeForEeexperiments\SoftIce\ice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966D901-41DC-4792-9535-C8D19B79CA47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12408" yWindow="2028" windowWidth="10632" windowHeight="10332" tabRatio="654" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12405" yWindow="2025" windowWidth="10635" windowHeight="10335" tabRatio="654" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лари" sheetId="9" r:id="rId1"/>
@@ -2185,7 +2179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -4192,6 +4186,36 @@
     <xf numFmtId="49" fontId="37" fillId="20" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="24" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="67" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4222,6 +4246,12 @@
     <xf numFmtId="0" fontId="36" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="56" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4255,45 +4285,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="38" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="24" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="24" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="31">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Акцент1" xfId="2" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="3" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="4" builtinId="37" customBuiltin="1"/>
@@ -4313,10 +4307,10 @@
     <cellStyle name="Название" xfId="18" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Обычный_Балки БТ50" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Обычный 2" xfId="20"/>
+    <cellStyle name="Обычный_1705о_1_общий прайс Фростор 2014+3.5%" xfId="29"/>
+    <cellStyle name="Обычный_Балки БТ50" xfId="28"/>
+    <cellStyle name="Обычный_новый прайс ЭКО ТУСТ4" xfId="30"/>
     <cellStyle name="Плохой" xfId="21" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание" xfId="23" builtinId="10" customBuiltin="1"/>
@@ -4430,7 +4424,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA1ACFBB-3266-4B51-A6C2-4B4B665E041A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4480,7 +4474,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D66AAD1-5BAC-4739-B721-BD89D97D43C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,7 +4524,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{505DA658-ADC6-4FE4-B792-BB96AD9F6093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4574,7 @@
         <xdr:cNvPr id="67" name="Рисунок 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E77DE0E3-172F-4595-BE6F-F3CEDB186E65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4630,7 +4624,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79A97C94-FE7C-45A0-B7B8-B036BAB4F3FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4674,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08E9F54E-76F7-46D1-83A5-B4A81EF2460A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4730,7 +4724,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44CA116D-5A8E-41AA-90C2-8CB1A9920212}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,7 +4774,7 @@
         <xdr:cNvPr id="72" name="Рисунок 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46FBD2BD-0D57-40BD-BFEC-FD7735425613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4830,7 +4824,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B4C9062-0C12-49F7-90BD-5DDE7288926E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4874,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4ACADB7-E340-44C6-BC60-B79F691D3F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,7 +4924,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38E193AA-0463-418B-A287-51BDDB233366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4980,7 +4974,7 @@
         <xdr:cNvPr id="73" name="Рисунок 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6263A97-EA2C-4AFF-8586-A26B64605C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,7 +5024,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5365ADE7-524E-4E5F-B716-EB3E2E2A778C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +5074,7 @@
         <xdr:cNvPr id="74" name="Рисунок 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506B0900-2101-4BE5-B706-D446268DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5124,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17373A6B-76BB-4D04-AF15-68C877857DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5180,7 +5174,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC85C092-C4D8-486A-BB15-FAD874504601}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5230,7 +5224,7 @@
         <xdr:cNvPr id="76" name="Рисунок 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD4298F1-43FE-40C0-ACEA-7D8E8E9B0F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5280,7 +5274,7 @@
         <xdr:cNvPr id="78" name="Рисунок 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5305F545-6052-4D32-8FDE-597AAA8618DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5330,7 +5324,7 @@
         <xdr:cNvPr id="79" name="Рисунок 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649E095E-F9C8-4240-A2CE-5CB04D065F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5380,7 +5374,7 @@
         <xdr:cNvPr id="81" name="Рисунок 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84E66361-F1C9-48C5-97C5-7989E7256677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5424,7 @@
         <xdr:cNvPr id="82" name="Рисунок 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F33FED6A-AB08-424E-839A-92BBE28467EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5480,7 +5474,7 @@
         <xdr:cNvPr id="83" name="Рисунок 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2793BF4B-E02F-4B54-B25D-3E971201BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5530,7 +5524,7 @@
         <xdr:cNvPr id="86" name="Рисунок 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1F6617C-8859-4576-A17A-8F217C4EF54D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5580,7 +5574,7 @@
         <xdr:cNvPr id="88" name="Рисунок 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FC5458D-3083-4153-B36E-BA187DF72AFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5630,7 +5624,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4007AB70-8047-4149-B0FB-4B51136B8E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5680,7 +5674,7 @@
         <xdr:cNvPr id="91" name="Рисунок 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7EAD394-6B87-49D0-AD64-F146DD8F480E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5730,7 +5724,7 @@
         <xdr:cNvPr id="93" name="Рисунок 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55F031BE-AD15-4B72-983B-E5B8128B6A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5780,7 +5774,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B85DE6AD-C034-4AAC-A74F-1E36B2375F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5830,7 +5824,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46A156F9-264B-4A3A-8FFD-ABC238E91EC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5880,7 +5874,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31F77DA2-B3BA-48A6-A56C-E97171595A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5930,7 +5924,7 @@
         <xdr:cNvPr id="100" name="Рисунок 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9ACC027-E330-49E4-95F6-97B8ABBD43D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5980,7 +5974,7 @@
         <xdr:cNvPr id="101" name="Рисунок 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D277B565-53A9-4844-B749-A173258F13A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6030,7 +6024,7 @@
         <xdr:cNvPr id="102" name="Рисунок 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A043CCF-A8C5-4684-AE89-0C3524E76DB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6080,7 +6074,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D4224A9-2F80-4EB6-B209-C17281907B3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6130,7 +6124,7 @@
         <xdr:cNvPr id="106" name="Рисунок 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84C01A40-FA55-426C-A175-52B7F6FB6094}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6180,7 +6174,7 @@
         <xdr:cNvPr id="107" name="Рисунок 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61D93B6E-243C-4F3B-8C05-EF7F06238827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6230,7 +6224,7 @@
         <xdr:cNvPr id="109" name="Рисунок 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E609CDBB-8C12-4549-BEE5-0826E8E4B88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6280,7 +6274,7 @@
         <xdr:cNvPr id="110" name="Рисунок 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98CDDAA0-3942-432D-B14E-48EEFF74AE76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6330,7 +6324,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29875149-6284-464F-88D4-9754C07BB095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6380,7 +6374,7 @@
         <xdr:cNvPr id="113" name="Рисунок 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A6C9406-B1DE-4862-B9B3-0B828833B5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6430,7 +6424,7 @@
         <xdr:cNvPr id="114" name="Рисунок 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A999D5CB-7B5D-43A4-A1A0-CA90C431ABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6480,7 +6474,7 @@
         <xdr:cNvPr id="44" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADBEA432-E081-428F-8714-63084FA11034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6559,7 +6553,7 @@
         <xdr:cNvPr id="2" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6633,7 +6627,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24049225-B489-43B7-BDB7-E9C104CBE58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6683,7 +6677,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD1F57F-2FB2-41EB-9B4B-A6D25C663FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6733,7 +6727,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9DE3604-5C92-4E44-9D03-6A2370D2D838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6783,7 +6777,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5A47B7-2A7D-4CF2-A9AD-76B1936DA0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6833,7 +6827,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D00256DC-24EA-4A3B-B959-66E63D67A33D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6883,7 +6877,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04126507-E026-4C44-9DF0-B777B39F24C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6933,7 +6927,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07222039-639E-48CE-A508-42EE22195058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07222039-639E-48CE-A508-42EE22195058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6983,7 +6977,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03DC5BCE-DF05-4E02-B799-9BFCD9E339F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7033,7 +7027,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98E588EC-6BB7-40E9-8A02-BB6D75E25CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7083,7 +7077,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFC1F9C-C6C4-4F43-926C-C35E93E87BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7133,7 +7127,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84D8FA04-08A8-4568-AA26-420F4782336B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7183,7 +7177,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D485DEF-63D2-4A35-8991-9D8BF3E5FA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7233,7 +7227,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FB1715-A81A-49F6-8E5F-0E233DED912D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7283,7 +7277,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11736048-5098-4D2E-9E1A-8B5670EA706B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7333,7 +7327,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3F2769F-B97A-4A9C-B90A-4FE3F0D035C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7383,7 +7377,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{572F6522-EA70-48CF-8A92-E1D9E14FB63D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7433,7 +7427,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DD18487-6319-4BE8-A07D-E4D469E85F05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7488,7 +7482,7 @@
         <xdr:cNvPr id="18" name="Picture 1029">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7556,7 @@
         <xdr:cNvPr id="89" name="Рисунок 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7605,7 +7599,7 @@
         <xdr:cNvPr id="90" name="Рисунок 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7649,7 +7643,7 @@
         <xdr:cNvPr id="95" name="Рисунок 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7693,7 +7687,7 @@
         <xdr:cNvPr id="96" name="Рисунок 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7737,7 +7731,7 @@
         <xdr:cNvPr id="97" name="Рисунок 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7780,7 +7774,7 @@
         <xdr:cNvPr id="98" name="Рисунок 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7823,7 +7817,7 @@
         <xdr:cNvPr id="99" name="Рисунок 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7867,7 +7861,7 @@
         <xdr:cNvPr id="100" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7941,7 +7935,7 @@
         <xdr:cNvPr id="101" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8015,7 +8009,7 @@
         <xdr:cNvPr id="104" name="Рисунок 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8059,7 +8053,7 @@
         <xdr:cNvPr id="105" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8134,7 +8128,7 @@
 Ð¾Ð»Ð¾Ð´&quot; Ð² Ð¡Ð°Ð¼Ð°ÑÐµ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8193,7 +8187,7 @@
         <xdr:cNvPr id="111" name="Рисунок 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8237,7 +8231,7 @@
         <xdr:cNvPr id="116" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8311,7 +8305,7 @@
         <xdr:cNvPr id="119" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8385,7 +8379,7 @@
         <xdr:cNvPr id="121" name="Рисунок 24" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÐ¾ÑÐ¾Ð½Ð° BFL 2500 ÐÐ¸ÑÑ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8459,7 +8453,7 @@
         <xdr:cNvPr id="136" name="Рисунок 135" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ ÐÑÑÑÐºÐ° ÐÐÐ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8518,7 +8512,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8658289E-E61A-4B13-A3FC-2163BE572521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8562,7 +8556,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59A68D98-4193-43BE-8F32-48D4BDC840B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8962,7 +8956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8973,26 +8967,26 @@
       <selection pane="bottomLeft" activeCell="E51" sqref="D51:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="175" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="175" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="37" customWidth="1"/>
     <col min="10" max="10" width="10" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="7"/>
+    <col min="11" max="11" width="9.140625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9011,18 +9005,18 @@
       <c r="J1" s="35"/>
       <c r="K1" s="52"/>
       <c r="L1" s="36"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
       <c r="S1" s="117"/>
       <c r="T1" s="118"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
       <c r="Y1" s="117"/>
       <c r="Z1" s="118"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
@@ -9030,7 +9024,7 @@
       <c r="N2" s="166"/>
       <c r="O2" s="167"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
@@ -9053,7 +9047,7 @@
       <c r="N3" s="166"/>
       <c r="O3" s="168"/>
     </row>
-    <row r="4" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -9079,7 +9073,7 @@
       <c r="N4" s="166"/>
       <c r="O4" s="169"/>
     </row>
-    <row r="5" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
         <v>10</v>
       </c>
@@ -9116,13 +9110,13 @@
       <c r="N5" s="170"/>
       <c r="O5" s="167"/>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="224" t="s">
+    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="234" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="177"/>
       <c r="F6" s="185" t="s">
         <v>189</v>
@@ -9134,7 +9128,7 @@
       <c r="K6" s="144"/>
       <c r="N6" s="57"/>
     </row>
-    <row r="7" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="145">
         <v>1</v>
       </c>
@@ -9174,7 +9168,7 @@
       <c r="L7" s="22"/>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="145">
         <v>2</v>
       </c>
@@ -9214,7 +9208,7 @@
       <c r="L8" s="22"/>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" s="145">
         <v>3</v>
       </c>
@@ -9254,7 +9248,7 @@
       <c r="L9" s="22"/>
       <c r="N9" s="59"/>
     </row>
-    <row r="10" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="145">
         <v>4</v>
       </c>
@@ -9294,7 +9288,7 @@
       <c r="L10" s="22"/>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="145">
         <v>5</v>
       </c>
@@ -9334,7 +9328,7 @@
       <c r="L11" s="22"/>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:26" ht="156" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A12" s="145">
         <v>6</v>
       </c>
@@ -9374,14 +9368,14 @@
       <c r="L12" s="22"/>
       <c r="N12" s="59"/>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="228" t="s">
+    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="229"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="230"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="239"/>
+      <c r="E13" s="240"/>
       <c r="F13" s="184">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9393,7 +9387,7 @@
       <c r="K13" s="144"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="145">
         <v>7</v>
       </c>
@@ -9432,7 +9426,7 @@
       </c>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="145">
         <v>8</v>
       </c>
@@ -9471,7 +9465,7 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="145">
         <v>9</v>
       </c>
@@ -9510,7 +9504,7 @@
       </c>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="145">
         <v>10</v>
       </c>
@@ -9549,7 +9543,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="145">
         <v>11</v>
       </c>
@@ -9588,7 +9582,7 @@
       </c>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="145"/>
       <c r="B19" s="191"/>
       <c r="C19" s="192" t="s">
@@ -9625,7 +9619,7 @@
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="145"/>
       <c r="B20" s="191"/>
       <c r="C20" s="192" t="s">
@@ -9662,7 +9656,7 @@
       </c>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="145"/>
       <c r="B21" s="191"/>
       <c r="C21" s="192" t="s">
@@ -9699,7 +9693,7 @@
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="145">
         <v>12</v>
       </c>
@@ -9738,7 +9732,7 @@
       </c>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="171" t="s">
         <v>75</v>
       </c>
@@ -9757,7 +9751,7 @@
       <c r="K23" s="144"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="147" t="s">
         <v>76</v>
       </c>
@@ -9776,7 +9770,7 @@
       <c r="K24" s="148"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="145">
         <v>13</v>
       </c>
@@ -9815,7 +9809,7 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="145">
         <v>14</v>
       </c>
@@ -9854,7 +9848,7 @@
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="145">
         <v>15</v>
       </c>
@@ -9893,7 +9887,7 @@
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="145">
         <v>16</v>
       </c>
@@ -9932,7 +9926,7 @@
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="145">
         <v>17</v>
       </c>
@@ -9971,7 +9965,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="145">
         <v>18</v>
       </c>
@@ -10010,7 +10004,7 @@
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="147" t="s">
         <v>83</v>
       </c>
@@ -10032,7 +10026,7 @@
       <c r="K31" s="148"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="145">
         <v>20</v>
       </c>
@@ -10071,7 +10065,7 @@
       </c>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="145">
         <v>21</v>
       </c>
@@ -10110,7 +10104,7 @@
       </c>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="145">
         <v>22</v>
       </c>
@@ -10149,7 +10143,7 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="145">
         <v>23</v>
       </c>
@@ -10188,7 +10182,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A36" s="145">
         <v>24</v>
       </c>
@@ -10227,7 +10221,7 @@
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="145">
         <v>25</v>
       </c>
@@ -10266,7 +10260,7 @@
       </c>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="172" t="s">
         <v>90</v>
       </c>
@@ -10285,7 +10279,7 @@
       <c r="K38" s="149"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="145">
         <v>26</v>
       </c>
@@ -10324,7 +10318,7 @@
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="145">
         <v>27</v>
       </c>
@@ -10363,7 +10357,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="145">
         <v>28</v>
       </c>
@@ -10387,7 +10381,7 @@
       </c>
       <c r="H41" s="126">
         <f t="shared" si="7"/>
-        <v>1663031308477.5938</v>
+        <v>1663031308477.5937</v>
       </c>
       <c r="I41" s="126">
         <f t="shared" si="8"/>
@@ -10402,7 +10396,7 @@
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="145">
         <v>29</v>
       </c>
@@ -10441,7 +10435,7 @@
       </c>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="145">
         <v>30</v>
       </c>
@@ -10480,7 +10474,7 @@
       </c>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="145">
         <v>31</v>
       </c>
@@ -10519,7 +10513,7 @@
       </c>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="145">
         <v>32</v>
       </c>
@@ -10558,7 +10552,7 @@
       </c>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="145">
         <v>33</v>
       </c>
@@ -10597,7 +10591,7 @@
       </c>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="145">
         <v>34</v>
       </c>
@@ -10636,13 +10630,13 @@
       </c>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="226" t="s">
+    <row r="48" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="236" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="227"/>
-      <c r="C48" s="227"/>
-      <c r="D48" s="227"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="237"/>
       <c r="E48" s="178"/>
       <c r="F48" s="184">
         <f t="shared" si="3"/>
@@ -10655,7 +10649,7 @@
       <c r="K48" s="150"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="145">
         <v>35</v>
       </c>
@@ -10694,7 +10688,7 @@
       </c>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="145">
         <v>36</v>
       </c>
@@ -10733,7 +10727,7 @@
       </c>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="145">
         <v>37</v>
       </c>
@@ -10772,7 +10766,7 @@
       </c>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="145">
         <v>38</v>
       </c>
@@ -10811,7 +10805,7 @@
       </c>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="151">
         <v>39</v>
       </c>
@@ -10850,7 +10844,7 @@
       </c>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="75.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="119">
         <v>30</v>
       </c>
@@ -10886,7 +10880,7 @@
       </c>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105">
         <v>31</v>
       </c>
@@ -10922,7 +10916,7 @@
       </c>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D56" s="104"/>
       <c r="F56" s="164"/>
       <c r="G56" s="135">
@@ -10941,22 +10935,22 @@
       <c r="K56" s="7"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L62" s="22"/>
     </row>
   </sheetData>
@@ -10975,42 +10969,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="46" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="C25:G27"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="22" style="21" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="104" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="175" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="104" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="175" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="36"/>
-    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="7"/>
-    <col min="15" max="15" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="118" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.109375" style="118"/>
-    <col min="21" max="21" width="9.109375" style="7"/>
-    <col min="22" max="22" width="10.88671875" style="118" customWidth="1"/>
-    <col min="23" max="23" width="12.44140625" style="118" customWidth="1"/>
-    <col min="24" max="26" width="9.109375" style="118"/>
-    <col min="27" max="16384" width="9.109375" style="7"/>
+    <col min="12" max="12" width="9.140625" style="36"/>
+    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="118"/>
+    <col min="21" max="21" width="9.140625" style="7"/>
+    <col min="22" max="22" width="10.85546875" style="118" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="118" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" style="118"/>
+    <col min="27" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11027,16 +11021,16 @@
       <c r="H1" s="46"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
       <c r="S1" s="117"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
       <c r="Y1" s="117"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
       <c r="B2" s="96"/>
       <c r="C2" s="97"/>
@@ -11049,7 +11043,7 @@
       <c r="W2" s="58"/>
       <c r="X2" s="57"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="95"/>
       <c r="B3" s="96"/>
       <c r="C3" s="97"/>
@@ -11078,7 +11072,7 @@
       <c r="W3" s="60"/>
       <c r="X3" s="61"/>
     </row>
-    <row r="4" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -11109,7 +11103,7 @@
       <c r="W4" s="62"/>
       <c r="X4" s="63"/>
     </row>
-    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="136" t="s">
         <v>10</v>
       </c>
@@ -11153,14 +11147,14 @@
       <c r="W5" s="64"/>
       <c r="X5" s="64"/>
     </row>
-    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="224" t="s">
+    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="234" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="177"/>
       <c r="G6" s="165"/>
       <c r="H6" s="128"/>
@@ -11170,24 +11164,24 @@
       <c r="L6" s="150"/>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A7" s="159">
         <v>1</v>
       </c>
       <c r="B7" s="208"/>
-      <c r="C7" s="245" t="s">
+      <c r="C7" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="246" t="s">
+      <c r="D7" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="247" t="s">
+      <c r="E7" s="226" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="248">
+      <c r="F7" s="227">
         <v>619242</v>
       </c>
-      <c r="G7" s="249">
+      <c r="G7" s="228">
         <f>F7-F7*4%</f>
         <v>594472.31999999995</v>
       </c>
@@ -11212,24 +11206,24 @@
       </c>
       <c r="M7" s="22"/>
     </row>
-    <row r="8" spans="1:25" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A8" s="159">
         <v>2</v>
       </c>
       <c r="B8" s="208"/>
-      <c r="C8" s="245" t="s">
+      <c r="C8" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="246" t="s">
+      <c r="D8" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="247" t="s">
+      <c r="E8" s="226" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="248">
+      <c r="F8" s="227">
         <v>689799.5</v>
       </c>
-      <c r="G8" s="249">
+      <c r="G8" s="228">
         <f t="shared" ref="G8:G27" si="2">F8-F8*4%</f>
         <v>662207.52</v>
       </c>
@@ -11254,14 +11248,14 @@
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="232" t="s">
+    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="242" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
       <c r="F9" s="178"/>
       <c r="G9" s="156">
         <f t="shared" si="2"/>
@@ -11274,24 +11268,24 @@
       <c r="L9" s="150"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A10" s="159">
         <v>3</v>
       </c>
       <c r="B10" s="208"/>
-      <c r="C10" s="245" t="s">
+      <c r="C10" s="224" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="246" t="s">
+      <c r="D10" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="247" t="s">
+      <c r="E10" s="226" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="248">
+      <c r="F10" s="227">
         <v>691099.5</v>
       </c>
-      <c r="G10" s="249">
+      <c r="G10" s="228">
         <f t="shared" si="2"/>
         <v>663455.52</v>
       </c>
@@ -11316,24 +11310,24 @@
       </c>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A11" s="159">
         <v>4</v>
       </c>
       <c r="B11" s="208"/>
-      <c r="C11" s="245" t="s">
+      <c r="C11" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="246" t="s">
+      <c r="D11" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="247" t="s">
+      <c r="E11" s="226" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="248">
+      <c r="F11" s="227">
         <v>751016.5</v>
       </c>
-      <c r="G11" s="249">
+      <c r="G11" s="228">
         <f t="shared" si="2"/>
         <v>720975.84</v>
       </c>
@@ -11358,14 +11352,14 @@
       </c>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="232" t="s">
+    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
+      <c r="B12" s="243"/>
+      <c r="C12" s="243"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="243"/>
       <c r="F12" s="178"/>
       <c r="G12" s="156">
         <f t="shared" si="2"/>
@@ -11378,7 +11372,7 @@
       <c r="L12" s="150"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A13" s="210">
         <v>5</v>
       </c>
@@ -11420,24 +11414,24 @@
       </c>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="159">
         <v>6</v>
       </c>
       <c r="B14" s="209"/>
-      <c r="C14" s="245" t="s">
+      <c r="C14" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="246" t="s">
+      <c r="D14" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="250" t="s">
+      <c r="E14" s="229" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="248">
+      <c r="F14" s="227">
         <v>713654.5</v>
       </c>
-      <c r="G14" s="249">
+      <c r="G14" s="228">
         <f t="shared" si="2"/>
         <v>685108.32</v>
       </c>
@@ -11462,24 +11456,24 @@
       </c>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="159">
         <v>7</v>
       </c>
       <c r="B15" s="209"/>
-      <c r="C15" s="245" t="s">
+      <c r="C15" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="246" t="s">
+      <c r="D15" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="250" t="s">
+      <c r="E15" s="229" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="248">
+      <c r="F15" s="227">
         <v>735676.5</v>
       </c>
-      <c r="G15" s="249">
+      <c r="G15" s="228">
         <f t="shared" si="2"/>
         <v>706249.44</v>
       </c>
@@ -11504,24 +11498,24 @@
       </c>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:25" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A16" s="159">
         <v>8</v>
       </c>
       <c r="B16" s="209"/>
-      <c r="C16" s="245" t="s">
+      <c r="C16" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="246" t="s">
+      <c r="D16" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="248">
+      <c r="F16" s="227">
         <v>760454.5</v>
       </c>
-      <c r="G16" s="249">
+      <c r="G16" s="228">
         <f t="shared" si="2"/>
         <v>730036.32</v>
       </c>
@@ -11546,14 +11540,14 @@
       </c>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="232" t="s">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="242" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="233"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
       <c r="F17" s="178"/>
       <c r="G17" s="156">
         <f t="shared" si="2"/>
@@ -11566,7 +11560,7 @@
       <c r="L17" s="150"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="210">
         <v>9</v>
       </c>
@@ -11608,24 +11602,24 @@
       </c>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A19" s="159">
         <v>10</v>
       </c>
       <c r="B19" s="209"/>
-      <c r="C19" s="245" t="s">
+      <c r="C19" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="246" t="s">
+      <c r="D19" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="247" t="s">
+      <c r="E19" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="248">
+      <c r="F19" s="227">
         <v>770770</v>
       </c>
-      <c r="G19" s="249">
+      <c r="G19" s="228">
         <f t="shared" si="2"/>
         <v>739939.2</v>
       </c>
@@ -11650,24 +11644,24 @@
       </c>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A20" s="159">
         <v>11</v>
       </c>
       <c r="B20" s="209"/>
-      <c r="C20" s="245" t="s">
+      <c r="C20" s="224" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="246" t="s">
+      <c r="D20" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="247" t="s">
+      <c r="E20" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="248">
+      <c r="F20" s="227">
         <v>787982</v>
       </c>
-      <c r="G20" s="249">
+      <c r="G20" s="228">
         <f t="shared" si="2"/>
         <v>756462.72</v>
       </c>
@@ -11692,24 +11686,24 @@
       </c>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A21" s="159">
         <v>12</v>
       </c>
       <c r="B21" s="222"/>
-      <c r="C21" s="245" t="s">
+      <c r="C21" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="246" t="s">
+      <c r="D21" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="247" t="s">
+      <c r="E21" s="226" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="248">
+      <c r="F21" s="227">
         <v>814814</v>
       </c>
-      <c r="G21" s="249">
+      <c r="G21" s="228">
         <f t="shared" si="2"/>
         <v>782221.44</v>
       </c>
@@ -11734,14 +11728,14 @@
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="224" t="s">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="234"/>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="178"/>
       <c r="G22" s="156">
         <f t="shared" si="2"/>
@@ -11754,22 +11748,22 @@
       <c r="L22" s="150"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="159">
         <v>11</v>
       </c>
       <c r="B23" s="209"/>
-      <c r="C23" s="251" t="s">
+      <c r="C23" s="245" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="252" t="s">
+      <c r="D23" s="245"/>
+      <c r="E23" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="248">
+      <c r="F23" s="227">
         <v>196937</v>
       </c>
-      <c r="G23" s="249">
+      <c r="G23" s="228">
         <f t="shared" si="2"/>
         <v>189059.52</v>
       </c>
@@ -11789,22 +11783,22 @@
       <c r="L23" s="146"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="159">
         <v>12</v>
       </c>
       <c r="B24" s="209"/>
-      <c r="C24" s="251" t="s">
+      <c r="C24" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="251"/>
-      <c r="E24" s="252" t="s">
+      <c r="D24" s="245"/>
+      <c r="E24" s="230" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="248">
+      <c r="F24" s="227">
         <v>223262</v>
       </c>
-      <c r="G24" s="249">
+      <c r="G24" s="228">
         <f t="shared" si="2"/>
         <v>214331.51999999999</v>
       </c>
@@ -11824,20 +11818,20 @@
       <c r="L24" s="146"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="159">
         <v>13</v>
       </c>
       <c r="B25" s="209"/>
-      <c r="C25" s="251" t="s">
+      <c r="C25" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="251"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="248">
+      <c r="D25" s="245"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="227">
         <v>202039.5</v>
       </c>
-      <c r="G25" s="249">
+      <c r="G25" s="228">
         <f t="shared" si="2"/>
         <v>193957.92</v>
       </c>
@@ -11857,20 +11851,20 @@
       <c r="L25" s="146"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="159">
         <v>14</v>
       </c>
       <c r="B26" s="209"/>
-      <c r="C26" s="251" t="s">
+      <c r="C26" s="245" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="251"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="248">
+      <c r="D26" s="245"/>
+      <c r="E26" s="231"/>
+      <c r="F26" s="227">
         <v>207129</v>
       </c>
-      <c r="G26" s="249">
+      <c r="G26" s="228">
         <f t="shared" si="2"/>
         <v>198843.84</v>
       </c>
@@ -11890,20 +11884,20 @@
       <c r="L26" s="146"/>
       <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160">
         <v>15</v>
       </c>
       <c r="B27" s="223"/>
-      <c r="C27" s="254" t="s">
+      <c r="C27" s="244" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="254"/>
-      <c r="E27" s="255"/>
-      <c r="F27" s="256">
+      <c r="D27" s="244"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="233">
         <v>233441</v>
       </c>
-      <c r="G27" s="249">
+      <c r="G27" s="228">
         <f t="shared" si="2"/>
         <v>224103.36</v>
       </c>
@@ -11923,7 +11917,7 @@
       <c r="L27" s="155"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" s="179"/>
       <c r="H28" s="162">
         <f>SUM(H6:H27)</f>
@@ -11938,7 +11932,7 @@
         <v>1077523044</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="22"/>
@@ -11966,7 +11960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11977,29 +11971,29 @@
       <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="20" customWidth="1"/>
     <col min="2" max="2" width="30" style="21" customWidth="1"/>
     <col min="3" max="3" width="54" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="49" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="19" style="20" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="21" customWidth="1"/>
-    <col min="9" max="10" width="18.5546875" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="21" customWidth="1"/>
+    <col min="9" max="10" width="18.5703125" style="37" customWidth="1"/>
     <col min="11" max="11" width="10" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="7"/>
-    <col min="15" max="15" width="11.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="35.44140625" style="7" customWidth="1"/>
-    <col min="18" max="19" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="7"/>
+    <col min="12" max="12" width="9.140625" style="36" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="11.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="35.42578125" style="7" customWidth="1"/>
+    <col min="18" max="19" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12016,7 +12010,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -12033,7 +12027,7 @@
       <c r="P2" s="12"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -12050,7 +12044,7 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -12067,7 +12061,7 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -12082,7 +12076,7 @@
       <c r="J5" s="35"/>
       <c r="P5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -12099,7 +12093,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="66"/>
@@ -12121,7 +12115,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="28"/>
@@ -12151,7 +12145,7 @@
       <c r="P9" s="11"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>10</v>
       </c>
@@ -12191,14 +12185,14 @@
       <c r="O10" s="12"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="235" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
       <c r="F11" s="108"/>
       <c r="G11" s="34"/>
       <c r="H11" s="44"/>
@@ -12211,7 +12205,7 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="51"/>
     </row>
-    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78">
         <v>1</v>
       </c>
@@ -12249,14 +12243,14 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="237" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="249" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="238"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="238"/>
+      <c r="B13" s="250"/>
+      <c r="C13" s="250"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="250"/>
       <c r="F13" s="115"/>
       <c r="H13" s="44"/>
       <c r="I13" s="41"/>
@@ -12264,7 +12258,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81">
         <v>2</v>
       </c>
@@ -12297,7 +12291,7 @@
       <c r="K14" s="55"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81">
         <v>3</v>
       </c>
@@ -12330,7 +12324,7 @@
       <c r="K15" s="55"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81">
         <v>4</v>
       </c>
@@ -12363,11 +12357,11 @@
       <c r="K16" s="55"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
         <v>5</v>
       </c>
-      <c r="B17" s="239"/>
+      <c r="B17" s="251"/>
       <c r="C17" s="111" t="s">
         <v>49</v>
       </c>
@@ -12396,11 +12390,11 @@
       <c r="K17" s="55"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81">
         <v>6</v>
       </c>
-      <c r="B18" s="240"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="112" t="s">
         <v>50</v>
       </c>
@@ -12429,11 +12423,11 @@
       <c r="K18" s="55"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81">
         <v>7</v>
       </c>
-      <c r="B19" s="241"/>
+      <c r="B19" s="253"/>
       <c r="C19" s="113" t="s">
         <v>51</v>
       </c>
@@ -12462,14 +12456,14 @@
       <c r="K19" s="55"/>
       <c r="L19" s="42"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="237" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="238"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
       <c r="F20" s="115"/>
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
@@ -12477,7 +12471,7 @@
       <c r="K20" s="55"/>
       <c r="L20" s="42"/>
     </row>
-    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86">
         <v>8</v>
       </c>
@@ -12510,7 +12504,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="42"/>
     </row>
-    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78">
         <v>9</v>
       </c>
@@ -12543,7 +12537,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>10</v>
       </c>
@@ -12576,7 +12570,7 @@
       <c r="K23" s="55"/>
       <c r="L23" s="42"/>
     </row>
-    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78">
         <v>11</v>
       </c>
@@ -12609,7 +12603,7 @@
       <c r="K24" s="55"/>
       <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78">
         <v>12</v>
       </c>
@@ -12642,7 +12636,7 @@
       <c r="K25" s="55"/>
       <c r="L25" s="42"/>
     </row>
-    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78">
         <v>13</v>
       </c>
@@ -12675,14 +12669,14 @@
       <c r="K26" s="55"/>
       <c r="L26" s="42"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="237" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="249" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="238"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="238"/>
+      <c r="B27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="115"/>
       <c r="H27" s="44"/>
       <c r="I27" s="41"/>
@@ -12690,11 +12684,11 @@
       <c r="K27" s="55"/>
       <c r="L27" s="42"/>
     </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="242"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="111" t="s">
         <v>38</v>
       </c>
@@ -12723,11 +12717,11 @@
       <c r="K28" s="55"/>
       <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="244"/>
+      <c r="B29" s="256"/>
       <c r="C29" s="113" t="s">
         <v>39</v>
       </c>
@@ -12756,11 +12750,11 @@
       <c r="K29" s="55"/>
       <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="242"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="111" t="s">
         <v>40</v>
       </c>
@@ -12789,11 +12783,11 @@
       <c r="K30" s="55"/>
       <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="244"/>
+      <c r="B31" s="256"/>
       <c r="C31" s="113" t="s">
         <v>41</v>
       </c>
@@ -12822,11 +12816,11 @@
       <c r="K31" s="55"/>
       <c r="L31" s="42"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="242"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="83" t="s">
         <v>42</v>
       </c>
@@ -12855,11 +12849,11 @@
       <c r="K32" s="55"/>
       <c r="L32" s="42"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="243"/>
+      <c r="B33" s="255"/>
       <c r="C33" s="84" t="s">
         <v>43</v>
       </c>
@@ -12888,11 +12882,11 @@
       <c r="K33" s="55"/>
       <c r="L33" s="42"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="243"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="84" t="s">
         <v>44</v>
       </c>
@@ -12921,11 +12915,11 @@
       <c r="K34" s="55"/>
       <c r="L34" s="42"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="243"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="84" t="s">
         <v>45</v>
       </c>
@@ -12954,11 +12948,11 @@
       <c r="K35" s="55"/>
       <c r="L35" s="42"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="243"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="84" t="s">
         <v>46</v>
       </c>
@@ -12987,11 +12981,11 @@
       <c r="K36" s="55"/>
       <c r="L36" s="42"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="243"/>
+      <c r="B37" s="255"/>
       <c r="C37" s="84" t="s">
         <v>47</v>
       </c>
@@ -13020,11 +13014,11 @@
       <c r="K37" s="55"/>
       <c r="L37" s="42"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="244"/>
+      <c r="B38" s="256"/>
       <c r="C38" s="85" t="s">
         <v>48</v>
       </c>
@@ -13053,14 +13047,14 @@
       <c r="K38" s="55"/>
       <c r="L38" s="42"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="237" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="238"/>
-      <c r="C39" s="238"/>
-      <c r="D39" s="238"/>
-      <c r="E39" s="238"/>
+      <c r="B39" s="250"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="250"/>
+      <c r="E39" s="250"/>
       <c r="F39" s="115"/>
       <c r="H39" s="44"/>
       <c r="I39" s="41"/>
@@ -13068,7 +13062,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="42"/>
     </row>
-    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81">
         <v>25</v>
       </c>
@@ -13101,7 +13095,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="42"/>
     </row>
-    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="81">
         <v>26</v>
       </c>
@@ -13134,7 +13128,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="42"/>
     </row>
-    <row r="42" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="H42" s="68" t="e">
         <f>SUM(H11:H41)</f>
@@ -13149,32 +13143,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="70"/>
       <c r="F54" s="31"/>
       <c r="G54" s="43"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="70"/>
       <c r="F55" s="31"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" s="70"/>
       <c r="F56" s="31"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="70"/>
       <c r="F57" s="31"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" s="70"/>
       <c r="F58" s="31"/>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" s="70"/>
       <c r="F59" s="31"/>
       <c r="G59" s="43"/>
